--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA98E73-510C-4E56-8375-FF241B417ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="kursname">Notenliste!$A$52:$A$60</definedName>
     <definedName name="semester">Notenliste!$D$52:$D$62</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>Nr.</t>
   </si>
@@ -298,11 +297,14 @@
   <si>
     <t>LO13</t>
   </si>
+  <si>
+    <t>course.teacher_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -823,75 +825,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -979,10 +912,79 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1030,7 +1032,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1058,6 +1060,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:prstGeom prst="rect">
@@ -1293,35 +1296,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:J2">
-  <autoFilter ref="B1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="B1:J2">
+  <autoFilter ref="B1:J2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer"/>
-    <tableColumn id="7" xr3:uid="{655C6B1A-9563-4D57-9485-461A1F568225}" name="Note" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{51DCA3B5-4014-4863-84C3-19D2F520B5F7}" name="LP" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{48F48342-4579-442E-9B3B-FC9722A28EB4}" name="Level" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon"/>
+    <tableColumn id="1" name="Nachname"/>
+    <tableColumn id="2" name="Vorname"/>
+    <tableColumn id="3" name="Hochschule"/>
+    <tableColumn id="4" name="Matrikelnummer"/>
+    <tableColumn id="7" name="Note" dataDxfId="8"/>
+    <tableColumn id="8" name="LP" dataDxfId="7"/>
+    <tableColumn id="9" name="Level" dataDxfId="6"/>
+    <tableColumn id="5" name="E-Mail"/>
+    <tableColumn id="6" name="Telefon"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
-  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
+  <autoFilter ref="A1:H36"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="5"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="4"/>
+    <tableColumn id="4" name="Note" dataDxfId="3">
+      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Datum" dataDxfId="2"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1538,31 +1543,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="6.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="45.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1635,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1647,7 +1652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1671,7 +1676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1719,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1727,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1735,7 +1740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1759,7 +1764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1767,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1775,7 +1780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1807,7 +1812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1823,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1831,62 +1836,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1902,556 +1907,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WWL70"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
     <col min="4" max="18" width="14" style="6" customWidth="1"/>
-    <col min="19" max="19" width="22.33203125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="16.88671875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="2.6640625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" style="105" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="2.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" style="78" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="8" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="5" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" style="5" customWidth="1"/>
     <col min="27" max="27" width="3" style="5" customWidth="1"/>
-    <col min="28" max="28" width="6.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="5" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="6.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="6.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="5.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" style="5" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="17.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="34" max="258" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="259" max="259" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="260" max="260" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="261" max="261" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="262" max="262" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="263" max="265" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="17.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="34" max="258" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="259" max="259" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="260" max="260" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="261" max="261" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="262" max="262" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="263" max="265" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="266" max="266" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="267" max="267" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="268" max="514" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="515" max="515" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="516" max="516" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="517" max="517" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="518" max="518" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="519" max="521" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="267" max="267" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="268" max="514" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="515" max="515" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="516" max="516" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="517" max="517" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="518" max="518" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="519" max="521" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="522" max="522" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="523" max="523" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="524" max="770" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="771" max="771" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="772" max="772" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="773" max="773" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="774" max="774" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="775" max="777" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="523" max="523" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="524" max="770" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="771" max="771" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="772" max="772" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="773" max="773" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="774" max="774" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="775" max="777" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="778" max="778" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="779" max="779" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="780" max="1026" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1027" max="1027" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1028" max="1028" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1030" max="1030" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1031" max="1033" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="779" max="779" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="780" max="1026" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1027" max="1027" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1028" max="1028" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1030" max="1030" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1031" max="1033" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="1034" max="1034" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1035" max="1035" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1036" max="1282" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1283" max="1283" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1284" max="1284" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1286" max="1286" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1287" max="1289" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1035" max="1035" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1036" max="1282" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1283" max="1283" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1284" max="1284" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1286" max="1286" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1287" max="1289" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="1290" max="1290" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1291" max="1291" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1292" max="1538" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1539" max="1539" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1540" max="1540" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1542" max="1542" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1543" max="1545" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1291" max="1291" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1292" max="1538" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1539" max="1539" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1540" max="1540" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1542" max="1542" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1543" max="1545" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="1546" max="1546" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1547" max="1547" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1548" max="1794" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1795" max="1795" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1796" max="1796" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1798" max="1798" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1799" max="1801" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1547" max="1547" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1548" max="1794" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1795" max="1795" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1796" max="1796" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1798" max="1798" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1799" max="1801" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="1802" max="1802" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1803" max="1803" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1804" max="2050" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2051" max="2051" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2052" max="2052" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2054" max="2054" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2055" max="2057" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1803" max="1803" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1804" max="2050" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2051" max="2051" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2052" max="2052" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2054" max="2054" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2055" max="2057" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="2058" max="2058" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2059" max="2059" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2060" max="2306" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2307" max="2307" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2308" max="2308" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2310" max="2310" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2311" max="2313" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2059" max="2059" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2060" max="2306" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2307" max="2307" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2308" max="2308" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2310" max="2310" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2311" max="2313" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="2314" max="2314" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2315" max="2315" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2316" max="2562" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2563" max="2563" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2564" max="2564" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2566" max="2566" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2567" max="2569" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2315" max="2315" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2316" max="2562" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2563" max="2563" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2564" max="2564" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2566" max="2566" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2567" max="2569" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="2570" max="2570" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2571" max="2571" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2572" max="2818" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2819" max="2819" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2820" max="2820" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2822" max="2822" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2823" max="2825" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2571" max="2571" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2572" max="2818" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2819" max="2819" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2820" max="2820" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2822" max="2822" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2823" max="2825" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="2826" max="2826" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2827" max="2827" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2828" max="3074" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3075" max="3075" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3076" max="3076" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3078" max="3078" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3079" max="3081" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2827" max="2827" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2828" max="3074" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3075" max="3075" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3076" max="3076" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="3078" max="3078" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3079" max="3081" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="3082" max="3082" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3083" max="3083" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3084" max="3330" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3331" max="3331" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3332" max="3332" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3334" max="3334" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3335" max="3337" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3083" max="3083" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3084" max="3330" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3331" max="3331" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3332" max="3332" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="3334" max="3334" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3335" max="3337" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="3338" max="3338" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3339" max="3339" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3340" max="3586" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3587" max="3587" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3588" max="3588" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3590" max="3590" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3591" max="3593" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3339" max="3339" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3340" max="3586" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3587" max="3587" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3588" max="3588" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="3590" max="3590" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3591" max="3593" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="3594" max="3594" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3595" max="3595" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3596" max="3842" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3843" max="3843" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3844" max="3844" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3846" max="3846" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3847" max="3849" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3595" max="3595" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3596" max="3842" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3843" max="3843" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3844" max="3844" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="3846" max="3846" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3847" max="3849" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="3850" max="3850" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3851" max="3851" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3852" max="4098" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4099" max="4099" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4100" max="4100" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4102" max="4102" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4103" max="4105" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3851" max="3851" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3852" max="4098" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4099" max="4099" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4100" max="4100" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4102" max="4102" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4103" max="4105" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="4106" max="4106" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4107" max="4107" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4108" max="4354" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4355" max="4355" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4356" max="4356" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4358" max="4358" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4359" max="4361" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4107" max="4107" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4108" max="4354" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4355" max="4355" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4356" max="4356" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4358" max="4358" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4359" max="4361" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="4362" max="4362" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4363" max="4363" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4364" max="4610" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4611" max="4611" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4612" max="4612" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4614" max="4614" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4615" max="4617" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4363" max="4363" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4364" max="4610" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4611" max="4611" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4612" max="4612" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4614" max="4614" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4615" max="4617" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="4618" max="4618" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4619" max="4619" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4620" max="4866" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4867" max="4867" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4868" max="4868" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4870" max="4870" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4871" max="4873" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4619" max="4619" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4620" max="4866" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4867" max="4867" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4868" max="4868" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4870" max="4870" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4871" max="4873" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="4874" max="4874" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4875" max="4875" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4876" max="5122" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5123" max="5123" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5124" max="5124" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5126" max="5126" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5127" max="5129" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4875" max="4875" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4876" max="5122" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5123" max="5123" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5124" max="5124" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5126" max="5126" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="5127" max="5129" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="5130" max="5130" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5131" max="5131" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5132" max="5378" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5379" max="5379" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5380" max="5380" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5382" max="5382" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5383" max="5385" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5131" max="5131" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5132" max="5378" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5379" max="5379" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5380" max="5380" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5382" max="5382" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="5383" max="5385" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="5386" max="5386" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5387" max="5387" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5388" max="5634" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5635" max="5635" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5636" max="5636" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5638" max="5638" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5639" max="5641" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5387" max="5387" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5388" max="5634" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5635" max="5635" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5636" max="5636" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5638" max="5638" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="5639" max="5641" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="5642" max="5642" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5643" max="5643" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5644" max="5890" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5891" max="5891" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5892" max="5892" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5894" max="5894" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5895" max="5897" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5643" max="5643" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5644" max="5890" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5891" max="5891" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5892" max="5892" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5894" max="5894" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="5895" max="5897" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="5898" max="5898" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5899" max="5899" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5900" max="6146" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6147" max="6147" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6148" max="6148" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6150" max="6150" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6151" max="6153" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5899" max="5899" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5900" max="6146" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6147" max="6147" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6148" max="6148" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="6150" max="6150" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6151" max="6153" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6154" max="6154" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6155" max="6155" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6156" max="6402" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6403" max="6403" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6404" max="6404" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6406" max="6406" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6407" max="6409" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6155" max="6155" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6156" max="6402" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6403" max="6403" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6404" max="6404" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="6406" max="6406" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6407" max="6409" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6410" max="6410" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6411" max="6411" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6412" max="6658" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6659" max="6659" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6660" max="6660" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6662" max="6662" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6663" max="6665" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6411" max="6411" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6412" max="6658" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6659" max="6659" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6660" max="6660" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="6662" max="6662" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6663" max="6665" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6666" max="6666" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6667" max="6667" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6668" max="6914" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6915" max="6915" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6916" max="6916" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6918" max="6918" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6919" max="6921" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6667" max="6667" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6668" max="6914" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6915" max="6915" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6916" max="6916" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="6918" max="6918" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6919" max="6921" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6922" max="6922" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6923" max="6923" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6924" max="7170" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7171" max="7171" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7172" max="7172" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7174" max="7174" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7175" max="7177" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6923" max="6923" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6924" max="7170" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7171" max="7171" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7172" max="7172" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="7174" max="7174" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7175" max="7177" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="7178" max="7178" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7179" max="7179" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7180" max="7426" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7427" max="7427" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7428" max="7428" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7430" max="7430" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7431" max="7433" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7179" max="7179" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7180" max="7426" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7427" max="7427" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7428" max="7428" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="7430" max="7430" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7431" max="7433" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="7434" max="7434" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7435" max="7435" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7436" max="7682" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7683" max="7683" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7684" max="7684" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7686" max="7686" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7687" max="7689" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7435" max="7435" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7436" max="7682" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7683" max="7683" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7684" max="7684" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="7686" max="7686" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7687" max="7689" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="7690" max="7690" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7691" max="7691" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7692" max="7938" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7939" max="7939" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7940" max="7940" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7942" max="7942" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7943" max="7945" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7691" max="7691" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7692" max="7938" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7939" max="7939" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7940" max="7940" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="7942" max="7942" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7943" max="7945" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="7946" max="7946" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7947" max="7947" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7948" max="8194" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8195" max="8195" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8196" max="8196" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8198" max="8198" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8199" max="8201" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7947" max="7947" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7948" max="8194" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8195" max="8195" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8196" max="8196" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="8198" max="8198" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8199" max="8201" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="8202" max="8202" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8203" max="8203" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8204" max="8450" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8451" max="8451" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8452" max="8452" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8454" max="8454" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8455" max="8457" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8203" max="8203" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8204" max="8450" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8451" max="8451" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8452" max="8452" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="8454" max="8454" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8455" max="8457" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="8458" max="8458" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8459" max="8459" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8460" max="8706" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8707" max="8707" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8708" max="8708" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8710" max="8710" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8711" max="8713" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8459" max="8459" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8460" max="8706" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8707" max="8707" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8708" max="8708" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="8710" max="8710" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8711" max="8713" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="8714" max="8714" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8715" max="8715" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8716" max="8962" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8963" max="8963" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8964" max="8964" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8966" max="8966" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8967" max="8969" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8715" max="8715" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8716" max="8962" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8963" max="8963" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8964" max="8964" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="8966" max="8966" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8967" max="8969" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="8970" max="8970" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8971" max="8971" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8972" max="9218" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9219" max="9219" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9220" max="9220" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9222" max="9222" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9223" max="9225" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8971" max="8971" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8972" max="9218" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9219" max="9219" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9220" max="9220" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="9222" max="9222" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="9223" max="9225" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="9226" max="9226" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9227" max="9227" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9228" max="9474" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9475" max="9475" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9476" max="9476" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9478" max="9478" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9479" max="9481" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9227" max="9227" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9228" max="9474" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9475" max="9475" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9476" max="9476" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="9478" max="9478" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="9479" max="9481" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="9482" max="9482" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9483" max="9483" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9484" max="9730" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9731" max="9731" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9732" max="9732" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9734" max="9734" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9735" max="9737" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9483" max="9483" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9484" max="9730" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9731" max="9731" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9732" max="9732" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="9734" max="9734" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="9735" max="9737" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="9738" max="9738" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9739" max="9739" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9740" max="9986" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9987" max="9987" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9988" max="9988" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9990" max="9990" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9991" max="9993" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9739" max="9739" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9740" max="9986" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9987" max="9987" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9988" max="9988" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="9990" max="9990" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="9991" max="9993" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="9994" max="9994" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9995" max="9995" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9996" max="10242" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10243" max="10243" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10244" max="10244" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10246" max="10246" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10247" max="10249" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9995" max="9995" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9996" max="10242" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10243" max="10243" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10244" max="10244" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="10246" max="10246" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="10247" max="10249" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="10250" max="10250" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10251" max="10251" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10252" max="10498" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10499" max="10499" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10500" max="10500" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10502" max="10502" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10503" max="10505" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10251" max="10251" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10252" max="10498" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10499" max="10499" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10500" max="10500" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="10502" max="10502" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="10503" max="10505" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="10506" max="10506" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10507" max="10507" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10508" max="10754" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10755" max="10755" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10756" max="10756" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10758" max="10758" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10759" max="10761" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10507" max="10507" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10508" max="10754" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10755" max="10755" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10756" max="10756" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="10758" max="10758" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="10759" max="10761" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="10762" max="10762" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10763" max="10763" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10764" max="11010" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11011" max="11011" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11012" max="11012" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11014" max="11014" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11015" max="11017" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10763" max="10763" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10764" max="11010" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11011" max="11011" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11012" max="11012" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="11014" max="11014" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11015" max="11017" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="11018" max="11018" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11019" max="11019" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11020" max="11266" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11267" max="11267" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11268" max="11268" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11270" max="11270" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11271" max="11273" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11019" max="11019" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11020" max="11266" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11267" max="11267" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11268" max="11268" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="11270" max="11270" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11271" max="11273" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="11274" max="11274" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11275" max="11275" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11276" max="11522" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11523" max="11523" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11524" max="11524" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11526" max="11526" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11527" max="11529" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11275" max="11275" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11276" max="11522" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11523" max="11523" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11524" max="11524" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="11526" max="11526" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11527" max="11529" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="11530" max="11530" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11531" max="11531" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11532" max="11778" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11779" max="11779" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11780" max="11780" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11782" max="11782" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11783" max="11785" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11531" max="11531" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11532" max="11778" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11779" max="11779" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11780" max="11780" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="11782" max="11782" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11783" max="11785" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="11786" max="11786" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11787" max="11787" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11788" max="12034" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12035" max="12035" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12036" max="12036" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12038" max="12038" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12039" max="12041" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11787" max="11787" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11788" max="12034" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12035" max="12035" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12036" max="12036" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="12038" max="12038" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="12039" max="12041" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="12042" max="12042" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12043" max="12043" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12044" max="12290" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12291" max="12291" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12292" max="12292" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12294" max="12294" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12295" max="12297" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12043" max="12043" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12044" max="12290" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12291" max="12291" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12292" max="12292" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="12294" max="12294" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="12295" max="12297" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="12298" max="12298" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12299" max="12299" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12300" max="12546" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12547" max="12547" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12548" max="12548" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12550" max="12550" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12551" max="12553" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12299" max="12299" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12300" max="12546" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12547" max="12547" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12548" max="12548" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="12550" max="12550" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="12551" max="12553" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="12554" max="12554" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12555" max="12555" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12556" max="12802" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12803" max="12803" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12804" max="12804" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12806" max="12806" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12807" max="12809" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12555" max="12555" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12556" max="12802" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12803" max="12803" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12804" max="12804" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="12806" max="12806" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="12807" max="12809" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="12810" max="12810" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12811" max="12811" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12812" max="13058" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13059" max="13059" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13060" max="13060" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13062" max="13062" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13063" max="13065" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12811" max="12811" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12812" max="13058" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13059" max="13059" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13060" max="13060" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13062" max="13062" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13063" max="13065" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="13066" max="13066" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13067" max="13067" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13068" max="13314" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13315" max="13315" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13316" max="13316" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13318" max="13318" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13319" max="13321" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13067" max="13067" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13068" max="13314" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13315" max="13315" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13316" max="13316" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13318" max="13318" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13319" max="13321" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="13322" max="13322" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13323" max="13323" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13324" max="13570" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13571" max="13571" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13572" max="13572" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13574" max="13574" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13575" max="13577" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13323" max="13323" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13324" max="13570" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13571" max="13571" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13572" max="13572" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13574" max="13574" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13575" max="13577" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="13578" max="13578" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13579" max="13579" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13580" max="13826" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13827" max="13827" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13828" max="13828" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13830" max="13830" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13831" max="13833" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13579" max="13579" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13580" max="13826" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13827" max="13827" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13828" max="13828" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13830" max="13830" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13831" max="13833" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="13834" max="13834" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13835" max="13835" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13836" max="14082" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14083" max="14083" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14084" max="14084" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14086" max="14086" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14087" max="14089" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13835" max="13835" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13836" max="14082" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14083" max="14083" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14084" max="14084" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14086" max="14086" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14087" max="14089" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="14090" max="14090" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14091" max="14091" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14092" max="14338" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14339" max="14339" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14340" max="14340" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14342" max="14342" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14343" max="14345" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14091" max="14091" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14092" max="14338" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14339" max="14339" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14340" max="14340" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14342" max="14342" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14343" max="14345" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="14346" max="14346" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14347" max="14347" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14348" max="14594" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14595" max="14595" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14596" max="14596" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14598" max="14598" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14599" max="14601" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14347" max="14347" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14348" max="14594" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14595" max="14595" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14596" max="14596" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14598" max="14598" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14599" max="14601" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="14602" max="14602" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14603" max="14603" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14604" max="14850" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14851" max="14851" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14852" max="14852" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14854" max="14854" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14855" max="14857" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14603" max="14603" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14604" max="14850" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14851" max="14851" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14852" max="14852" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14854" max="14854" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14855" max="14857" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="14858" max="14858" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14859" max="14859" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14860" max="15106" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15107" max="15107" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15108" max="15108" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15110" max="15110" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15111" max="15113" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14859" max="14859" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14860" max="15106" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15107" max="15107" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15108" max="15108" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15110" max="15110" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15111" max="15113" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="15114" max="15114" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15115" max="15115" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15116" max="15362" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15363" max="15363" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15364" max="15364" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15366" max="15366" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15367" max="15369" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15115" max="15115" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15116" max="15362" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15363" max="15363" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15364" max="15364" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15366" max="15366" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15367" max="15369" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="15370" max="15370" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15371" max="15371" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15372" max="15618" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15619" max="15619" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15620" max="15620" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15622" max="15622" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15623" max="15625" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15371" max="15371" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15372" max="15618" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15619" max="15619" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15620" max="15620" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15622" max="15622" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15623" max="15625" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="15626" max="15626" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15627" max="15627" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15628" max="15874" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15875" max="15875" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15876" max="15876" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15878" max="15878" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15879" max="15881" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15627" max="15627" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15628" max="15874" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15875" max="15875" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15876" max="15876" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15878" max="15878" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15879" max="15881" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="15882" max="15882" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15883" max="15883" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15884" max="16130" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16131" max="16131" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16132" max="16132" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="16134" max="16134" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="16135" max="16137" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15883" max="15883" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15884" max="16130" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16131" max="16131" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16132" max="16132" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="16134" max="16134" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="16135" max="16137" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="16138" max="16138" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16139" max="16139" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16140" max="16142" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16143" max="16143" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16144" max="16144" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16145" max="16145" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="16146" max="16146" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="16147" max="16149" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16139" max="16139" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16140" max="16142" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16143" max="16143" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16144" max="16144" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16145" max="16145" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="16146" max="16146" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="16147" max="16149" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="16150" max="16150" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16151" max="16152" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16153" max="16154" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16151" max="16152" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16153" max="16154" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="16155" max="16155" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16156" max="16158" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16159" max="16384" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16156" max="16158" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16159" max="16384" width="11.42578125" style="5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2467,43 +2472,43 @@
       <c r="E1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="115" t="s">
+      <c r="M1" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="116" t="s">
+      <c r="N1" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="117" t="s">
+      <c r="O1" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="118" t="s">
+      <c r="P1" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="120" t="s">
+      <c r="R1" s="93" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="10" t="s">
@@ -2513,7 +2518,7 @@
         <v>14</v>
       </c>
       <c r="U1" s="12"/>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="75" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="13" t="s">
@@ -2543,7 +2548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2564,19 +2569,19 @@
         <f>RAWDATA!H2</f>
         <v>applicant.get_test_ger</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
       <c r="S2" s="19" t="str">
         <f>IF(ISBLANK(RAWDATA!F2),SUM(F2:R2),RAWDATA!F2)</f>
         <v>applicant.sanitized_grade</v>
@@ -2586,7 +2591,7 @@
         <v>#N/A</v>
       </c>
       <c r="U2" s="12"/>
-      <c r="V2" s="103" t="str">
+      <c r="V2" s="76" t="str">
         <f>RAWDATA!G2</f>
         <v>applicant.ects_points</v>
       </c>
@@ -2614,12 +2619,12 @@
         <f t="shared" ref="AE2:AE9" si="4">IF(S2&gt;0,$B$44,0)</f>
         <v>course.name</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="5" t="str">
         <f t="shared" ref="AF2:AF9" si="5">IF(S2&gt;0,$B$41,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>course.teacher_name</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2640,19 +2645,19 @@
         <f>RAWDATA!H3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
       <c r="S3" s="19">
         <f>IF(ISBLANK(RAWDATA!F3),SUM(F3:R3),RAWDATA!F3)</f>
         <v>0</v>
@@ -2662,7 +2667,7 @@
         <v>KP</v>
       </c>
       <c r="U3" s="12"/>
-      <c r="V3" s="103">
+      <c r="V3" s="76">
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
@@ -2695,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2716,19 +2721,19 @@
         <f>RAWDATA!H4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="19">
         <f>IF(ISBLANK(RAWDATA!F4),SUM(F4:R4),RAWDATA!F4)</f>
         <v>0</v>
@@ -2738,7 +2743,7 @@
         <v>KP</v>
       </c>
       <c r="U4" s="12"/>
-      <c r="V4" s="103">
+      <c r="V4" s="76">
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2792,19 +2797,19 @@
         <f>RAWDATA!H5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
       <c r="S5" s="19">
         <f>IF(ISBLANK(RAWDATA!F5),SUM(F5:R5),RAWDATA!F5)</f>
         <v>0</v>
@@ -2814,7 +2819,7 @@
         <v>KP</v>
       </c>
       <c r="U5" s="12"/>
-      <c r="V5" s="103">
+      <c r="V5" s="76">
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
@@ -2847,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2868,19 +2873,19 @@
         <f>RAWDATA!H6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
       <c r="S6" s="19">
         <f>IF(ISBLANK(RAWDATA!F6),SUM(F6:R6),RAWDATA!F6)</f>
         <v>0</v>
@@ -2890,7 +2895,7 @@
         <v>KP</v>
       </c>
       <c r="U6" s="12"/>
-      <c r="V6" s="103">
+      <c r="V6" s="76">
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -2944,19 +2949,19 @@
         <f>RAWDATA!H7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
       <c r="S7" s="19">
         <f>IF(ISBLANK(RAWDATA!F7),SUM(F7:R7),RAWDATA!F7)</f>
         <v>0</v>
@@ -2966,7 +2971,7 @@
         <v>KP</v>
       </c>
       <c r="U7" s="12"/>
-      <c r="V7" s="103">
+      <c r="V7" s="76">
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3020,19 +3025,19 @@
         <f>RAWDATA!H8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
       <c r="S8" s="19">
         <f>IF(ISBLANK(RAWDATA!F8),SUM(F8:R8),RAWDATA!F8)</f>
         <v>0</v>
@@ -3042,7 +3047,7 @@
         <v>KP</v>
       </c>
       <c r="U8" s="12"/>
-      <c r="V8" s="103">
+      <c r="V8" s="76">
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
@@ -3075,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3096,19 +3101,19 @@
         <f>RAWDATA!H9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
       <c r="S9" s="19">
         <f>IF(ISBLANK(RAWDATA!F9),SUM(F9:R9),RAWDATA!F9)</f>
         <v>0</v>
@@ -3118,7 +3123,7 @@
         <v>KP</v>
       </c>
       <c r="U9" s="12"/>
-      <c r="V9" s="103">
+      <c r="V9" s="76">
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
@@ -3151,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3172,19 +3177,19 @@
         <f>RAWDATA!H10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
       <c r="S10" s="19">
         <f>IF(ISBLANK(RAWDATA!F10),SUM(F10:R10),RAWDATA!F10)</f>
         <v>0</v>
@@ -3194,7 +3199,7 @@
         <v>KP</v>
       </c>
       <c r="U10" s="12"/>
-      <c r="V10" s="103">
+      <c r="V10" s="76">
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
@@ -3227,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3248,19 +3253,19 @@
         <f>RAWDATA!H11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
       <c r="S11" s="19">
         <f>IF(ISBLANK(RAWDATA!F11),SUM(F11:R11),RAWDATA!F11)</f>
         <v>0</v>
@@ -3270,7 +3275,7 @@
         <v>KP</v>
       </c>
       <c r="U11" s="12"/>
-      <c r="V11" s="103">
+      <c r="V11" s="76">
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
@@ -3303,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3324,19 +3329,19 @@
         <f>RAWDATA!H12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
       <c r="S12" s="19">
         <f>IF(ISBLANK(RAWDATA!F12),SUM(F12:R12),RAWDATA!F12)</f>
         <v>0</v>
@@ -3346,7 +3351,7 @@
         <v>KP</v>
       </c>
       <c r="U12" s="12"/>
-      <c r="V12" s="103">
+      <c r="V12" s="76">
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
@@ -3379,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3400,19 +3405,19 @@
         <f>RAWDATA!H13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
       <c r="S13" s="19">
         <f>IF(ISBLANK(RAWDATA!F13),SUM(F13:R13),RAWDATA!F13)</f>
         <v>0</v>
@@ -3422,7 +3427,7 @@
         <v>KP</v>
       </c>
       <c r="U13" s="12"/>
-      <c r="V13" s="103">
+      <c r="V13" s="76">
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
@@ -3455,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3476,19 +3481,19 @@
         <f>RAWDATA!H14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
       <c r="S14" s="19">
         <f>IF(ISBLANK(RAWDATA!F14),SUM(F14:R14),RAWDATA!F14)</f>
         <v>0</v>
@@ -3498,7 +3503,7 @@
         <v>KP</v>
       </c>
       <c r="U14" s="12"/>
-      <c r="V14" s="103">
+      <c r="V14" s="76">
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3552,19 +3557,19 @@
         <f>RAWDATA!H15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
       <c r="S15" s="19">
         <f>IF(ISBLANK(RAWDATA!F15),SUM(F15:R15),RAWDATA!F15)</f>
         <v>0</v>
@@ -3574,7 +3579,7 @@
         <v>KP</v>
       </c>
       <c r="U15" s="12"/>
-      <c r="V15" s="103">
+      <c r="V15" s="76">
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
@@ -3607,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3628,19 +3633,19 @@
         <f>RAWDATA!H16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
       <c r="S16" s="19">
         <f>IF(ISBLANK(RAWDATA!F16),SUM(F16:R16),RAWDATA!F16)</f>
         <v>0</v>
@@ -3650,7 +3655,7 @@
         <v>KP</v>
       </c>
       <c r="U16" s="12"/>
-      <c r="V16" s="103">
+      <c r="V16" s="76">
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
@@ -3683,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3704,19 +3709,19 @@
         <f>RAWDATA!H17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
       <c r="S17" s="19">
         <f>IF(ISBLANK(RAWDATA!F17),SUM(F17:R17),RAWDATA!F17)</f>
         <v>0</v>
@@ -3726,7 +3731,7 @@
         <v>KP</v>
       </c>
       <c r="U17" s="12"/>
-      <c r="V17" s="103">
+      <c r="V17" s="76">
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3780,19 +3785,19 @@
         <f>RAWDATA!H18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
       <c r="S18" s="19">
         <f>IF(ISBLANK(RAWDATA!F18),SUM(F18:R18),RAWDATA!F18)</f>
         <v>0</v>
@@ -3802,7 +3807,7 @@
         <v>KP</v>
       </c>
       <c r="U18" s="12"/>
-      <c r="V18" s="103">
+      <c r="V18" s="76">
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
@@ -3835,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3856,19 +3861,19 @@
         <f>RAWDATA!H19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
       <c r="S19" s="19">
         <f>IF(ISBLANK(RAWDATA!F19),SUM(F19:R19),RAWDATA!F19)</f>
         <v>0</v>
@@ -3878,7 +3883,7 @@
         <v>KP</v>
       </c>
       <c r="U19" s="12"/>
-      <c r="V19" s="103">
+      <c r="V19" s="76">
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
@@ -3911,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3932,19 +3937,19 @@
         <f>RAWDATA!H20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
       <c r="S20" s="19">
         <f>IF(ISBLANK(RAWDATA!F20),SUM(F20:R20),RAWDATA!F20)</f>
         <v>0</v>
@@ -3954,7 +3959,7 @@
         <v>KP</v>
       </c>
       <c r="U20" s="12"/>
-      <c r="V20" s="103">
+      <c r="V20" s="76">
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4008,19 +4013,19 @@
         <f>RAWDATA!H21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
       <c r="S21" s="19">
         <f>IF(ISBLANK(RAWDATA!F21),SUM(F21:R21),RAWDATA!F21)</f>
         <v>0</v>
@@ -4030,7 +4035,7 @@
         <v>KP</v>
       </c>
       <c r="U21" s="12"/>
-      <c r="V21" s="103">
+      <c r="V21" s="76">
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4084,19 +4089,19 @@
         <f>RAWDATA!H22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
       <c r="S22" s="19">
         <f>IF(ISBLANK(RAWDATA!F22),SUM(F22:R22),RAWDATA!F22)</f>
         <v>0</v>
@@ -4106,7 +4111,7 @@
         <v>KP</v>
       </c>
       <c r="U22" s="12"/>
-      <c r="V22" s="103">
+      <c r="V22" s="76">
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
@@ -4139,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4160,19 +4165,19 @@
         <f>RAWDATA!H23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
       <c r="S23" s="19">
         <f>IF(ISBLANK(RAWDATA!F23),SUM(F23:R23),RAWDATA!F23)</f>
         <v>0</v>
@@ -4182,7 +4187,7 @@
         <v>KP</v>
       </c>
       <c r="U23" s="12"/>
-      <c r="V23" s="103">
+      <c r="V23" s="76">
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
@@ -4215,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4236,19 +4241,19 @@
         <f>RAWDATA!H24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
       <c r="S24" s="19">
         <f>IF(ISBLANK(RAWDATA!F24),SUM(F24:R24),RAWDATA!F24)</f>
         <v>0</v>
@@ -4258,7 +4263,7 @@
         <v>KP</v>
       </c>
       <c r="U24" s="12"/>
-      <c r="V24" s="103">
+      <c r="V24" s="76">
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
@@ -4291,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4312,19 +4317,19 @@
         <f>RAWDATA!H25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
       <c r="S25" s="19">
         <f>IF(ISBLANK(RAWDATA!F25),SUM(F25:R25),RAWDATA!F25)</f>
         <v>0</v>
@@ -4334,7 +4339,7 @@
         <v>KP</v>
       </c>
       <c r="U25" s="12"/>
-      <c r="V25" s="103">
+      <c r="V25" s="76">
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
@@ -4350,7 +4355,7 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="22"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4371,19 +4376,19 @@
         <f>RAWDATA!H26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
       <c r="S26" s="19">
         <f>IF(ISBLANK(RAWDATA!F26),SUM(F26:R26),RAWDATA!F26)</f>
         <v>0</v>
@@ -4393,7 +4398,7 @@
         <v>KP</v>
       </c>
       <c r="U26" s="12"/>
-      <c r="V26" s="103">
+      <c r="V26" s="76">
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
@@ -4409,7 +4414,7 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="22"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <f>RAWDATA!B27</f>
         <v>0</v>
@@ -4430,19 +4435,19 @@
         <f>RAWDATA!H27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
       <c r="S27" s="19">
         <f>IF(ISBLANK(RAWDATA!F27),SUM(F27:R27),RAWDATA!F27)</f>
         <v>0</v>
@@ -4452,7 +4457,7 @@
         <v>KP</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="103">
+      <c r="V27" s="76">
         <f>RAWDATA!G27</f>
         <v>0</v>
       </c>
@@ -4468,7 +4473,7 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <f>RAWDATA!B28</f>
         <v>0</v>
@@ -4489,19 +4494,19 @@
         <f>RAWDATA!H28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
       <c r="S28" s="19">
         <f>IF(ISBLANK(RAWDATA!F28),SUM(F28:R28),RAWDATA!F28)</f>
         <v>0</v>
@@ -4511,7 +4516,7 @@
         <v>KP</v>
       </c>
       <c r="U28" s="12"/>
-      <c r="V28" s="103">
+      <c r="V28" s="76">
         <f>RAWDATA!G28</f>
         <v>0</v>
       </c>
@@ -4527,7 +4532,7 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="22"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <f>RAWDATA!B29</f>
         <v>0</v>
@@ -4548,19 +4553,19 @@
         <f>RAWDATA!H29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
       <c r="S29" s="19">
         <f>IF(ISBLANK(RAWDATA!F29),SUM(F29:R29),RAWDATA!F29)</f>
         <v>0</v>
@@ -4570,7 +4575,7 @@
         <v>KP</v>
       </c>
       <c r="U29" s="12"/>
-      <c r="V29" s="103">
+      <c r="V29" s="76">
         <f>RAWDATA!G29</f>
         <v>0</v>
       </c>
@@ -4586,7 +4591,7 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="22"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <f>RAWDATA!B30</f>
         <v>0</v>
@@ -4607,19 +4612,19 @@
         <f>RAWDATA!H30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
       <c r="S30" s="19">
         <f>IF(ISBLANK(RAWDATA!F30),SUM(F30:R30),RAWDATA!F30)</f>
         <v>0</v>
@@ -4629,7 +4634,7 @@
         <v>KP</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="103">
+      <c r="V30" s="76">
         <f>RAWDATA!G30</f>
         <v>0</v>
       </c>
@@ -4645,7 +4650,7 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="22"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <f>RAWDATA!B31</f>
         <v>0</v>
@@ -4666,19 +4671,19 @@
         <f>RAWDATA!H31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
       <c r="S31" s="19">
         <f>IF(ISBLANK(RAWDATA!F31),SUM(F31:R31),RAWDATA!F31)</f>
         <v>0</v>
@@ -4688,7 +4693,7 @@
         <v>KP</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="103">
+      <c r="V31" s="76">
         <f>RAWDATA!G31</f>
         <v>0</v>
       </c>
@@ -4704,7 +4709,7 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="22"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <f>RAWDATA!B32</f>
         <v>0</v>
@@ -4725,19 +4730,19 @@
         <f>RAWDATA!H32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
       <c r="S32" s="19">
         <f>IF(ISBLANK(RAWDATA!F32),SUM(F32:R32),RAWDATA!F32)</f>
         <v>0</v>
@@ -4747,7 +4752,7 @@
         <v>KP</v>
       </c>
       <c r="U32" s="12"/>
-      <c r="V32" s="103">
+      <c r="V32" s="76">
         <f>RAWDATA!G32</f>
         <v>0</v>
       </c>
@@ -4763,7 +4768,7 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="22"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <f>RAWDATA!B33</f>
         <v>0</v>
@@ -4784,19 +4789,19 @@
         <f>RAWDATA!H33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
       <c r="S33" s="19">
         <f>IF(ISBLANK(RAWDATA!F33),SUM(F33:R33),RAWDATA!F33)</f>
         <v>0</v>
@@ -4806,7 +4811,7 @@
         <v>KP</v>
       </c>
       <c r="U33" s="12"/>
-      <c r="V33" s="103">
+      <c r="V33" s="76">
         <f>RAWDATA!G33</f>
         <v>0</v>
       </c>
@@ -4822,7 +4827,7 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="22"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <f>RAWDATA!B34</f>
         <v>0</v>
@@ -4843,19 +4848,19 @@
         <f>RAWDATA!H34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
       <c r="S34" s="19">
         <f>IF(ISBLANK(RAWDATA!F34),SUM(F34:R34),RAWDATA!F34)</f>
         <v>0</v>
@@ -4865,7 +4870,7 @@
         <v>KP</v>
       </c>
       <c r="U34" s="12"/>
-      <c r="V34" s="103">
+      <c r="V34" s="76">
         <f>RAWDATA!G34</f>
         <v>0</v>
       </c>
@@ -4881,7 +4886,7 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="22"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <f>RAWDATA!B35</f>
         <v>0</v>
@@ -4902,19 +4907,19 @@
         <f>RAWDATA!H35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
       <c r="S35" s="19">
         <f>IF(ISBLANK(RAWDATA!F35),SUM(F35:R35),RAWDATA!F35)</f>
         <v>0</v>
@@ -4924,7 +4929,7 @@
         <v>KP</v>
       </c>
       <c r="U35" s="12"/>
-      <c r="V35" s="103">
+      <c r="V35" s="76">
         <f>RAWDATA!G35</f>
         <v>0</v>
       </c>
@@ -4957,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <f>RAWDATA!B36</f>
         <v>0</v>
@@ -4978,19 +4983,19 @@
         <f>RAWDATA!H36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
       <c r="S36" s="19">
         <f>IF(ISBLANK(RAWDATA!F36),SUM(F36:R36),RAWDATA!F36)</f>
         <v>0</v>
@@ -5000,7 +5005,7 @@
         <v>KP</v>
       </c>
       <c r="U36" s="12"/>
-      <c r="V36" s="103">
+      <c r="V36" s="76">
         <f>RAWDATA!G36</f>
         <v>0</v>
       </c>
@@ -5033,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>23</v>
@@ -5059,14 +5064,14 @@
       </c>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="104"/>
+      <c r="V37" s="77"/>
       <c r="W37" s="12"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="15"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
@@ -5081,7 +5086,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="15"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
         <v>25</v>
@@ -5108,14 +5113,14 @@
         <v>#N/A</v>
       </c>
       <c r="U39" s="12"/>
-      <c r="V39" s="104"/>
+      <c r="V39" s="77"/>
       <c r="W39" s="12"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="15"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="26"/>
@@ -5137,47 +5142,49 @@
       <c r="S40" s="27"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="106"/>
+      <c r="V40" s="79"/>
       <c r="W40" s="15"/>
       <c r="X40" s="28"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
     </row>
-    <row r="41" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="107"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="80"/>
       <c r="W41" s="25"/>
       <c r="X41" s="28"/>
       <c r="Y41" s="25"/>
       <c r="Z41" s="25"/>
       <c r="AA41" s="15"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>28</v>
       </c>
@@ -5185,32 +5192,32 @@
         <v>61</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="107"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="80"/>
       <c r="W42" s="25"/>
       <c r="X42" s="28"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
       <c r="AA42" s="15"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
@@ -5218,32 +5225,32 @@
         <v>62</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="107"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="80"/>
       <c r="W43" s="25"/>
       <c r="X43" s="28"/>
       <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
       <c r="AA43" s="15"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>30</v>
       </c>
@@ -5251,32 +5258,32 @@
         <v>63</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="73"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="107"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="80"/>
       <c r="W44" s="25"/>
       <c r="X44" s="28"/>
       <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>31</v>
       </c>
@@ -5284,32 +5291,32 @@
         <v>64</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="107"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="96"/>
+      <c r="V45" s="80"/>
       <c r="W45" s="25"/>
       <c r="X45" s="28"/>
       <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
       <c r="AA45" s="15"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>32</v>
       </c>
@@ -5317,32 +5324,32 @@
         <v>65</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="108"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="81"/>
       <c r="W46" s="25"/>
       <c r="X46" s="28"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
       <c r="AA46" s="15"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>33</v>
       </c>
@@ -5350,32 +5357,32 @@
         <v>66</v>
       </c>
       <c r="C47" s="26"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="73"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="107"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="97"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="80"/>
       <c r="W47" s="25"/>
       <c r="X47" s="28"/>
       <c r="Y47" s="25"/>
       <c r="Z47" s="25"/>
       <c r="AA47" s="15"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>34</v>
       </c>
@@ -5383,83 +5390,83 @@
         <v>67</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="108"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="97"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="97"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="81"/>
       <c r="W48" s="15"/>
       <c r="X48" s="28"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
     </row>
   </sheetData>
@@ -5468,7 +5475,7 @@
     <mergeCell ref="D41:U48"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47" xr:uid="{52CA7C44-09E4-4B47-89C6-9BB4CB9B6E1C}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47"/>
   </dataValidations>
   <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.2598425196850389" bottom="1.0629921259842521" header="0.59055118110236249" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" scale="82" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5480,7 +5487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5490,21 +5497,21 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="31" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="31" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="str">
         <f>Notenliste!B44</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="99"/>
       <c r="C1" s="32" t="s">
         <v>35</v>
       </c>
@@ -5513,7 +5520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
@@ -5521,7 +5528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -5530,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>1.3</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>1.7</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -5557,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -5566,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2.7</v>
       </c>
@@ -5575,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -5584,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>3.3</v>
       </c>
@@ -5593,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>3.7</v>
       </c>
@@ -5602,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>4</v>
       </c>
@@ -5611,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
@@ -5631,74 +5638,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="str">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-    </row>
-    <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="str">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+    </row>
+    <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
-        <v xml:space="preserve">Dozent/in: </v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80" t="str">
+        <v>Dozent/in: course.teacher_name</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104" t="str">
         <f>"Semster: "&amp;Notenliste!B47</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-    </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+    </row>
+    <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -5742,7 +5749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <v>1</v>
       </c>
@@ -5799,34 +5806,16 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C5" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E5" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F5" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G5" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="42" t="str">
         <f>RAWDATA!K3</f>
         <v>Arabisch 1</v>
@@ -5856,34 +5845,16 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="42" t="str">
         <f>RAWDATA!K4</f>
         <v>Arabisch 1</v>
@@ -5913,34 +5884,16 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>4</v>
       </c>
-      <c r="B7" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="42" t="str">
         <f>RAWDATA!K5</f>
         <v>Arabisch 1</v>
@@ -5970,34 +5923,16 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>5</v>
       </c>
-      <c r="B8" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="42" t="str">
         <f>RAWDATA!K6</f>
         <v>Arabisch 1</v>
@@ -6027,34 +5962,16 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>6</v>
       </c>
-      <c r="B9" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="42" t="str">
         <f>RAWDATA!K7</f>
         <v>Arabisch 1</v>
@@ -6084,34 +6001,16 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>7</v>
       </c>
-      <c r="B10" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="42" t="str">
         <f>RAWDATA!K8</f>
         <v>Arabisch 1</v>
@@ -6141,34 +6040,16 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="42" t="str">
         <f>RAWDATA!K9</f>
         <v>Arabisch 1</v>
@@ -6198,34 +6079,16 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>9</v>
       </c>
-      <c r="B12" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="42" t="str">
         <f>RAWDATA!K10</f>
         <v>Arabisch 1</v>
@@ -6255,34 +6118,16 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>10</v>
       </c>
-      <c r="B13" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="42" t="str">
         <f>RAWDATA!K11</f>
         <v>Arabisch 1</v>
@@ -6312,34 +6157,16 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>11</v>
       </c>
-      <c r="B14" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C14" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="42" t="str">
         <f>RAWDATA!K12</f>
         <v>Arabisch 1</v>
@@ -6369,34 +6196,16 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>12</v>
       </c>
-      <c r="B15" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C15" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="42" t="str">
         <f>RAWDATA!K13</f>
         <v>Arabisch 1</v>
@@ -6426,34 +6235,16 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>13</v>
       </c>
-      <c r="B16" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C16" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="42" t="str">
         <f>RAWDATA!K14</f>
         <v>Arabisch 1</v>
@@ -6483,34 +6274,16 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>14</v>
       </c>
-      <c r="B17" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C17" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="42" t="str">
         <f>RAWDATA!K15</f>
         <v>Arabisch 1</v>
@@ -6540,34 +6313,16 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>15</v>
       </c>
-      <c r="B18" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="42" t="str">
         <f>RAWDATA!K16</f>
         <v>Arabisch 1</v>
@@ -6597,34 +6352,16 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>16</v>
       </c>
-      <c r="B19" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F19" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="42" t="str">
         <f>RAWDATA!K17</f>
         <v>Arabisch 1</v>
@@ -6654,34 +6391,16 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>17</v>
       </c>
-      <c r="B20" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="42" t="str">
         <f>RAWDATA!K18</f>
         <v>Arabisch 1</v>
@@ -6711,34 +6430,16 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>18</v>
       </c>
-      <c r="B21" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="42" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="42" t="str">
         <f>RAWDATA!K19</f>
         <v>Arabisch 1</v>
@@ -6768,7 +6469,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>19</v>
       </c>
@@ -6825,7 +6526,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>20</v>
       </c>
@@ -6882,7 +6583,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>21</v>
       </c>
@@ -6939,7 +6640,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>22</v>
       </c>
@@ -6996,7 +6697,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>23</v>
       </c>
@@ -7053,7 +6754,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>24</v>
       </c>
@@ -7110,7 +6811,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>25</v>
       </c>
@@ -7167,7 +6868,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>26</v>
       </c>
@@ -7224,7 +6925,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>27</v>
       </c>
@@ -7281,7 +6982,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>28</v>
       </c>
@@ -7338,7 +7039,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>29</v>
       </c>
@@ -7395,7 +7096,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>30</v>
       </c>
@@ -7452,7 +7153,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>31</v>
       </c>
@@ -7509,7 +7210,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>32</v>
       </c>
@@ -7566,7 +7267,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>33</v>
       </c>
@@ -7623,7 +7324,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34</v>
       </c>
@@ -7680,7 +7381,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35</v>
       </c>
@@ -7737,7 +7438,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -7759,87 +7460,87 @@
       <c r="M39" s="43"/>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81" t="s">
+    <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-    </row>
-    <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-    </row>
-    <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-    </row>
-    <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="75"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="82"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+    </row>
+    <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+    </row>
+    <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="101"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+    </row>
+    <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="101"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="99"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="106"/>
       <c r="O44" s="35"/>
     </row>
   </sheetData>
@@ -7859,134 +7560,134 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B7" sqref="B7:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="0.88671875" style="34" customWidth="1"/>
-    <col min="7" max="20" width="7.6640625" style="34" customWidth="1"/>
-    <col min="21" max="21" width="0.88671875" style="34" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="47" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="48" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="34" customWidth="1"/>
+    <col min="7" max="20" width="7.7109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="0.85546875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="47" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="48" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="1" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="32" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="str">
+    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="87"/>
-    </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="111"/>
+    </row>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="87"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="str">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="111"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
-        <v xml:space="preserve">Dozent/in: </v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+        <v>Dozent/in: course.teacher_name</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="87"/>
-    </row>
-    <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="G3" s="113"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="111"/>
+    </row>
+    <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="116" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="51"/>
@@ -8005,22 +7706,22 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="53"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="96" t="s">
+      <c r="X4" s="120" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="50" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="93"/>
+    <row r="5" spans="1:24" s="50" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="54"/>
       <c r="G5" s="52">
         <v>1</v>
@@ -8065,11 +7766,11 @@
         <v>14</v>
       </c>
       <c r="U5" s="55"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V5" s="119"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>1</v>
       </c>
@@ -8109,26 +7810,14 @@
       <c r="W6" s="58"/>
       <c r="X6" s="58"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="56"/>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
@@ -8149,26 +7838,14 @@
       <c r="W7" s="58"/>
       <c r="X7" s="58"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>3</v>
       </c>
-      <c r="B8" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="56"/>
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
@@ -8189,26 +7866,14 @@
       <c r="W8" s="58"/>
       <c r="X8" s="58"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>4</v>
       </c>
-      <c r="B9" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="56"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -8229,26 +7894,14 @@
       <c r="W9" s="58"/>
       <c r="X9" s="58"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="56"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
@@ -8269,26 +7922,14 @@
       <c r="W10" s="58"/>
       <c r="X10" s="58"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="56"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
@@ -8309,26 +7950,14 @@
       <c r="W11" s="58"/>
       <c r="X11" s="58"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>7</v>
       </c>
-      <c r="B12" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="56"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -8349,26 +7978,14 @@
       <c r="W12" s="58"/>
       <c r="X12" s="58"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>8</v>
       </c>
-      <c r="B13" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="56"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -8389,26 +8006,14 @@
       <c r="W13" s="58"/>
       <c r="X13" s="58"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>9</v>
       </c>
-      <c r="B14" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C14" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="56"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
@@ -8429,26 +8034,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>10</v>
       </c>
-      <c r="B15" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C15" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="56"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
@@ -8469,26 +8062,14 @@
       <c r="W15" s="58"/>
       <c r="X15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>11</v>
       </c>
-      <c r="B16" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C16" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="56"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
@@ -8509,26 +8090,14 @@
       <c r="W16" s="58"/>
       <c r="X16" s="58"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>12</v>
       </c>
-      <c r="B17" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C17" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="56"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
@@ -8549,26 +8118,14 @@
       <c r="W17" s="58"/>
       <c r="X17" s="58"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>13</v>
       </c>
-      <c r="B18" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="56"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
@@ -8589,26 +8146,14 @@
       <c r="W18" s="58"/>
       <c r="X18" s="58"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>14</v>
       </c>
-      <c r="B19" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="56"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
@@ -8629,26 +8174,14 @@
       <c r="W19" s="58"/>
       <c r="X19" s="58"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>15</v>
       </c>
-      <c r="B20" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="56"/>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -8669,26 +8202,14 @@
       <c r="W20" s="58"/>
       <c r="X20" s="58"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>16</v>
       </c>
-      <c r="B21" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="56"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -8709,26 +8230,14 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>17</v>
       </c>
-      <c r="B22" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="56"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
@@ -8749,26 +8258,14 @@
       <c r="W22" s="58"/>
       <c r="X22" s="58"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>18</v>
       </c>
-      <c r="B23" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" s="41" t="e">
-        <f>RAWDATA!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="56"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
@@ -8789,7 +8286,7 @@
       <c r="W23" s="58"/>
       <c r="X23" s="58"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>19</v>
       </c>
@@ -8829,7 +8326,7 @@
       <c r="W24" s="58"/>
       <c r="X24" s="58"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>20</v>
       </c>
@@ -8869,7 +8366,7 @@
       <c r="W25" s="58"/>
       <c r="X25" s="58"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>21</v>
       </c>
@@ -8909,7 +8406,7 @@
       <c r="W26" s="58"/>
       <c r="X26" s="58"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>22</v>
       </c>
@@ -8949,7 +8446,7 @@
       <c r="W27" s="58"/>
       <c r="X27" s="58"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>23</v>
       </c>
@@ -8989,7 +8486,7 @@
       <c r="W28" s="58"/>
       <c r="X28" s="58"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>24</v>
       </c>
@@ -9029,7 +8526,7 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>25</v>
       </c>
@@ -9069,7 +8566,7 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
     </row>
-    <row r="31" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>26</v>
       </c>
@@ -9109,7 +8606,7 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
     </row>
-    <row r="32" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>27</v>
       </c>
@@ -9149,7 +8646,7 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
     </row>
-    <row r="33" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>28</v>
       </c>
@@ -9189,7 +8686,7 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
     </row>
-    <row r="34" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>29</v>
       </c>
@@ -9229,7 +8726,7 @@
       <c r="W34" s="58"/>
       <c r="X34" s="58"/>
     </row>
-    <row r="35" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>30</v>
       </c>
@@ -9269,7 +8766,7 @@
       <c r="W35" s="58"/>
       <c r="X35" s="58"/>
     </row>
-    <row r="36" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>31</v>
       </c>
@@ -9309,7 +8806,7 @@
       <c r="W36" s="58"/>
       <c r="X36" s="58"/>
     </row>
-    <row r="37" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>32</v>
       </c>
@@ -9349,7 +8846,7 @@
       <c r="W37" s="58"/>
       <c r="X37" s="58"/>
     </row>
-    <row r="38" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>33</v>
       </c>
@@ -9389,7 +8886,7 @@
       <c r="W38" s="58"/>
       <c r="X38" s="58"/>
     </row>
-    <row r="39" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34</v>
       </c>
@@ -9429,7 +8926,7 @@
       <c r="W39" s="58"/>
       <c r="X39" s="58"/>
     </row>
-    <row r="40" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35</v>
       </c>
@@ -9494,25 +8991,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="59" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="61" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
@@ -9538,7 +9035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -9549,7 +9046,7 @@
         <v>course.ects_points</v>
       </c>
       <c r="D2" s="63" t="e">
-        <f>IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2))</f>
+        <f>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2)))</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="64" t="str">
@@ -9560,7 +9057,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -9571,7 +9068,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="63" t="str">
-        <f>IF(Notenliste!T3="KP"," ",IF(Notenliste!T3="NB","nicht bestanden",Notenliste!T3))</f>
+        <f>IF(Notenliste!D3=0," ",IF(Notenliste!T3="KP"," ",IF(Notenliste!T3="NB","nicht bestanden",Notenliste!T3)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="64" t="str">
@@ -9582,7 +9079,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -9593,7 +9090,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="63" t="str">
-        <f>IF(Notenliste!T4="KP"," ",IF(Notenliste!T4="NB","nicht bestanden",Notenliste!T4))</f>
+        <f>IF(Notenliste!D4=0," ",IF(Notenliste!T4="KP"," ",IF(Notenliste!T4="NB","nicht bestanden",Notenliste!T4)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="64" t="str">
@@ -9604,7 +9101,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -9615,7 +9112,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="63" t="str">
-        <f>IF(Notenliste!T5="KP"," ",IF(Notenliste!T5="NB","nicht bestanden",Notenliste!T5))</f>
+        <f>IF(Notenliste!D5=0," ",IF(Notenliste!T5="KP"," ",IF(Notenliste!T5="NB","nicht bestanden",Notenliste!T5)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="64" t="str">
@@ -9626,7 +9123,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -9637,7 +9134,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="63" t="str">
-        <f>IF(Notenliste!T6="KP"," ",IF(Notenliste!T6="NB","nicht bestanden",Notenliste!T6))</f>
+        <f>IF(Notenliste!D6=0," ",IF(Notenliste!T6="KP"," ",IF(Notenliste!T6="NB","nicht bestanden",Notenliste!T6)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="64" t="str">
@@ -9648,7 +9145,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -9659,7 +9156,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="63" t="str">
-        <f>IF(Notenliste!T7="KP"," ",IF(Notenliste!T7="NB","nicht bestanden",Notenliste!T7))</f>
+        <f>IF(Notenliste!D7=0," ",IF(Notenliste!T7="KP"," ",IF(Notenliste!T7="NB","nicht bestanden",Notenliste!T7)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="64" t="str">
@@ -9670,7 +9167,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9681,7 +9178,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="63" t="str">
-        <f>IF(Notenliste!T8="KP"," ",IF(Notenliste!T8="NB","nicht bestanden",Notenliste!T8))</f>
+        <f>IF(Notenliste!D8=0," ",IF(Notenliste!T8="KP"," ",IF(Notenliste!T8="NB","nicht bestanden",Notenliste!T8)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="64" t="str">
@@ -9692,7 +9189,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9703,7 +9200,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="63" t="str">
-        <f>IF(Notenliste!T9="KP"," ",IF(Notenliste!T9="NB","nicht bestanden",Notenliste!T9))</f>
+        <f>IF(Notenliste!D9=0," ",IF(Notenliste!T9="KP"," ",IF(Notenliste!T9="NB","nicht bestanden",Notenliste!T9)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="64" t="str">
@@ -9714,7 +9211,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9725,7 +9222,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="63" t="str">
-        <f>IF(Notenliste!T10="KP"," ",IF(Notenliste!T10="NB","nicht bestanden",Notenliste!T10))</f>
+        <f>IF(Notenliste!D10=0," ",IF(Notenliste!T10="KP"," ",IF(Notenliste!T10="NB","nicht bestanden",Notenliste!T10)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="64" t="str">
@@ -9736,7 +9233,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9747,7 +9244,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="63" t="str">
-        <f>IF(Notenliste!T11="KP"," ",IF(Notenliste!T11="NB","nicht bestanden",Notenliste!T11))</f>
+        <f>IF(Notenliste!D11=0," ",IF(Notenliste!T11="KP"," ",IF(Notenliste!T11="NB","nicht bestanden",Notenliste!T11)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="64" t="str">
@@ -9758,7 +9255,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9769,7 +9266,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="63" t="str">
-        <f>IF(Notenliste!T12="KP"," ",IF(Notenliste!T12="NB","nicht bestanden",Notenliste!T12))</f>
+        <f>IF(Notenliste!D12=0," ",IF(Notenliste!T12="KP"," ",IF(Notenliste!T12="NB","nicht bestanden",Notenliste!T12)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="64" t="str">
@@ -9780,7 +9277,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9791,7 +9288,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="63" t="str">
-        <f>IF(Notenliste!T13="KP"," ",IF(Notenliste!T13="NB","nicht bestanden",Notenliste!T13))</f>
+        <f>IF(Notenliste!D13=0," ",IF(Notenliste!T13="KP"," ",IF(Notenliste!T13="NB","nicht bestanden",Notenliste!T13)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="64" t="str">
@@ -9802,7 +9299,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9813,7 +9310,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="63" t="str">
-        <f>IF(Notenliste!T14="KP"," ",IF(Notenliste!T14="NB","nicht bestanden",Notenliste!T14))</f>
+        <f>IF(Notenliste!D14=0," ",IF(Notenliste!T14="KP"," ",IF(Notenliste!T14="NB","nicht bestanden",Notenliste!T14)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="64" t="str">
@@ -9824,7 +9321,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9835,7 +9332,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="63" t="str">
-        <f>IF(Notenliste!T15="KP"," ",IF(Notenliste!T15="NB","nicht bestanden",Notenliste!T15))</f>
+        <f>IF(Notenliste!D15=0," ",IF(Notenliste!T15="KP"," ",IF(Notenliste!T15="NB","nicht bestanden",Notenliste!T15)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="64" t="str">
@@ -9846,7 +9343,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9857,7 +9354,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="63" t="str">
-        <f>IF(Notenliste!T16="KP"," ",IF(Notenliste!T16="NB","nicht bestanden",Notenliste!T16))</f>
+        <f>IF(Notenliste!D16=0," ",IF(Notenliste!T16="KP"," ",IF(Notenliste!T16="NB","nicht bestanden",Notenliste!T16)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="64" t="str">
@@ -9868,7 +9365,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9879,7 +9376,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="63" t="str">
-        <f>IF(Notenliste!T17="KP"," ",IF(Notenliste!T17="NB","nicht bestanden",Notenliste!T17))</f>
+        <f>IF(Notenliste!D17=0," ",IF(Notenliste!T17="KP"," ",IF(Notenliste!T17="NB","nicht bestanden",Notenliste!T17)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="64" t="str">
@@ -9890,7 +9387,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9901,7 +9398,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="63" t="str">
-        <f>IF(Notenliste!T18="KP"," ",IF(Notenliste!T18="NB","nicht bestanden",Notenliste!T18))</f>
+        <f>IF(Notenliste!D18=0," ",IF(Notenliste!T18="KP"," ",IF(Notenliste!T18="NB","nicht bestanden",Notenliste!T18)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="64" t="str">
@@ -9912,7 +9409,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9923,7 +9420,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="63" t="str">
-        <f>IF(Notenliste!T19="KP"," ",IF(Notenliste!T19="NB","nicht bestanden",Notenliste!T19))</f>
+        <f>IF(Notenliste!D19=0," ",IF(Notenliste!T19="KP"," ",IF(Notenliste!T19="NB","nicht bestanden",Notenliste!T19)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="64" t="str">
@@ -9934,7 +9431,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9945,7 +9442,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="63" t="str">
-        <f>IF(Notenliste!T20="KP"," ",IF(Notenliste!T20="NB","nicht bestanden",Notenliste!T20))</f>
+        <f>IF(Notenliste!D20=0," ",IF(Notenliste!T20="KP"," ",IF(Notenliste!T20="NB","nicht bestanden",Notenliste!T20)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="64" t="str">
@@ -9956,7 +9453,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9967,7 +9464,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="63" t="str">
-        <f>IF(Notenliste!T21="KP"," ",IF(Notenliste!T21="NB","nicht bestanden",Notenliste!T21))</f>
+        <f>IF(Notenliste!D21=0," ",IF(Notenliste!T21="KP"," ",IF(Notenliste!T21="NB","nicht bestanden",Notenliste!T21)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="64" t="str">
@@ -9978,7 +9475,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9989,7 +9486,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="63" t="str">
-        <f>IF(Notenliste!T22="KP"," ",IF(Notenliste!T22="NB","nicht bestanden",Notenliste!T22))</f>
+        <f>IF(Notenliste!D22=0," ",IF(Notenliste!T22="KP"," ",IF(Notenliste!T22="NB","nicht bestanden",Notenliste!T22)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="64" t="str">
@@ -10000,7 +9497,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -10011,7 +9508,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="63" t="str">
-        <f>IF(Notenliste!T23="KP"," ",IF(Notenliste!T23="NB","nicht bestanden",Notenliste!T23))</f>
+        <f>IF(Notenliste!D23=0," ",IF(Notenliste!T23="KP"," ",IF(Notenliste!T23="NB","nicht bestanden",Notenliste!T23)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="64" t="str">
@@ -10022,7 +9519,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -10033,7 +9530,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="63" t="str">
-        <f>IF(Notenliste!T24="KP"," ",IF(Notenliste!T24="NB","nicht bestanden",Notenliste!T24))</f>
+        <f>IF(Notenliste!D24=0," ",IF(Notenliste!T24="KP"," ",IF(Notenliste!T24="NB","nicht bestanden",Notenliste!T24)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="64" t="str">
@@ -10044,7 +9541,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -10055,7 +9552,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="63" t="str">
-        <f>IF(Notenliste!T25="KP"," ",IF(Notenliste!T25="NB","nicht bestanden",Notenliste!T25))</f>
+        <f>IF(Notenliste!D25=0," ",IF(Notenliste!T25="KP"," ",IF(Notenliste!T25="NB","nicht bestanden",Notenliste!T25)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="64" t="str">
@@ -10066,7 +9563,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -10077,7 +9574,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="63" t="str">
-        <f>IF(Notenliste!T26="KP"," ",IF(Notenliste!T26="NB","nicht bestanden",Notenliste!T26))</f>
+        <f>IF(Notenliste!D26=0," ",IF(Notenliste!T26="KP"," ",IF(Notenliste!T26="NB","nicht bestanden",Notenliste!T26)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="64" t="str">
@@ -10088,7 +9585,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(Notenliste!D27=0," ",Notenliste!D27)</f>
         <v xml:space="preserve"> </v>
@@ -10099,7 +9596,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D27" s="63" t="str">
-        <f>IF(Notenliste!T27="KP"," ",IF(Notenliste!T27="NB","nicht bestanden",Notenliste!T27))</f>
+        <f>IF(Notenliste!D27=0," ",IF(Notenliste!T27="KP"," ",IF(Notenliste!T27="NB","nicht bestanden",Notenliste!T27)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E27" s="64" t="str">
@@ -10110,7 +9607,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(Notenliste!D28=0," ",Notenliste!D28)</f>
         <v xml:space="preserve"> </v>
@@ -10121,7 +9618,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D28" s="63" t="str">
-        <f>IF(Notenliste!T28="KP"," ",IF(Notenliste!T28="NB","nicht bestanden",Notenliste!T28))</f>
+        <f>IF(Notenliste!D28=0," ",IF(Notenliste!T28="KP"," ",IF(Notenliste!T28="NB","nicht bestanden",Notenliste!T28)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E28" s="64" t="str">
@@ -10132,7 +9629,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(Notenliste!D29=0," ",Notenliste!D29)</f>
         <v xml:space="preserve"> </v>
@@ -10143,7 +9640,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D29" s="63" t="str">
-        <f>IF(Notenliste!T29="KP"," ",IF(Notenliste!T29="NB","nicht bestanden",Notenliste!T29))</f>
+        <f>IF(Notenliste!D29=0," ",IF(Notenliste!T29="KP"," ",IF(Notenliste!T29="NB","nicht bestanden",Notenliste!T29)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E29" s="64" t="str">
@@ -10154,7 +9651,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(Notenliste!D30=0," ",Notenliste!D30)</f>
         <v xml:space="preserve"> </v>
@@ -10165,7 +9662,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D30" s="63" t="str">
-        <f>IF(Notenliste!T30="KP"," ",IF(Notenliste!T30="NB","nicht bestanden",Notenliste!T30))</f>
+        <f>IF(Notenliste!D30=0," ",IF(Notenliste!T30="KP"," ",IF(Notenliste!T30="NB","nicht bestanden",Notenliste!T30)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E30" s="64" t="str">
@@ -10176,7 +9673,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(Notenliste!D31=0," ",Notenliste!D31)</f>
         <v xml:space="preserve"> </v>
@@ -10187,7 +9684,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D31" s="63" t="str">
-        <f>IF(Notenliste!T31="KP"," ",IF(Notenliste!T31="NB","nicht bestanden",Notenliste!T31))</f>
+        <f>IF(Notenliste!D31=0," ",IF(Notenliste!T31="KP"," ",IF(Notenliste!T31="NB","nicht bestanden",Notenliste!T31)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E31" s="64" t="str">
@@ -10198,7 +9695,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(Notenliste!D32=0," ",Notenliste!D32)</f>
         <v xml:space="preserve"> </v>
@@ -10209,7 +9706,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D32" s="63" t="str">
-        <f>IF(Notenliste!T32="KP"," ",IF(Notenliste!T32="NB","nicht bestanden",Notenliste!T32))</f>
+        <f>IF(Notenliste!D32=0," ",IF(Notenliste!T32="KP"," ",IF(Notenliste!T32="NB","nicht bestanden",Notenliste!T32)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E32" s="64" t="str">
@@ -10220,7 +9717,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(Notenliste!D33=0," ",Notenliste!D33)</f>
         <v xml:space="preserve"> </v>
@@ -10231,7 +9728,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D33" s="63" t="str">
-        <f>IF(Notenliste!T33="KP"," ",IF(Notenliste!T33="NB","nicht bestanden",Notenliste!T33))</f>
+        <f>IF(Notenliste!D33=0," ",IF(Notenliste!T33="KP"," ",IF(Notenliste!T33="NB","nicht bestanden",Notenliste!T33)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E33" s="64" t="str">
@@ -10242,7 +9739,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(Notenliste!D34=0," ",Notenliste!D34)</f>
         <v xml:space="preserve"> </v>
@@ -10253,7 +9750,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D34" s="63" t="str">
-        <f>IF(Notenliste!T34="KP"," ",IF(Notenliste!T34="NB","nicht bestanden",Notenliste!T34))</f>
+        <f>IF(Notenliste!D34=0," ",IF(Notenliste!T34="KP"," ",IF(Notenliste!T34="NB","nicht bestanden",Notenliste!T34)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E34" s="64" t="str">
@@ -10264,7 +9761,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(Notenliste!D35=0," ",Notenliste!D35)</f>
         <v xml:space="preserve"> </v>
@@ -10275,7 +9772,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D35" s="63" t="str">
-        <f>IF(Notenliste!T35="KP"," ",IF(Notenliste!T35="NB","nicht bestanden",Notenliste!T35))</f>
+        <f>IF(Notenliste!D35=0," ",IF(Notenliste!T35="KP"," ",IF(Notenliste!T35="NB","nicht bestanden",Notenliste!T35)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E35" s="64" t="str">
@@ -10286,7 +9783,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(Notenliste!D36=0," ",Notenliste!D36)</f>
         <v xml:space="preserve"> </v>
@@ -10297,7 +9794,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D36" s="63" t="str">
-        <f>IF(Notenliste!T36="KP"," ",IF(Notenliste!T36="NB","nicht bestanden",Notenliste!T36))</f>
+        <f>IF(Notenliste!D36=0," ",IF(Notenliste!T36="KP"," ",IF(Notenliste!T36="NB","nicht bestanden",Notenliste!T36)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E36" s="64" t="str">
@@ -10309,22 +9806,23 @@
       <c r="H36" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00D6007B-001E-4BB9-B8C4-00D000C700A0}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{004D00BA-0035-44B8-928A-00A50020002C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576" xr:uid="{00160020-00F1-41E5-9161-0037003800D8}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="E1 E37:E1048576" xr:uid="{002D00DC-00C1-408D-8D0F-00F8002C009A}">
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="E1 E37:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="A1 A37:A1048576" xr:uid="{00F70018-0066-48CB-A696-00EB00AC0088}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="A1 A37:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="1" r:id="rId1"/>
@@ -1060,7 +1060,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:prstGeom prst="rect">
@@ -1546,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1913,7 +1912,7 @@
   </sheetPr>
   <dimension ref="A1:WWL70"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -5644,8 +5643,8 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5810,12 +5809,30 @@
       <c r="A5" s="40">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="B5" s="41">
+        <f>RAWDATA!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="41">
+        <f>RAWDATA!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="42">
+        <f>RAWDATA!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="42">
+        <f>RAWDATA!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="41">
+        <f>RAWDATA!I3</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <f>RAWDATA!J3</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="42" t="str">
         <f>RAWDATA!K3</f>
         <v>Arabisch 1</v>
@@ -5849,12 +5866,30 @@
       <c r="A6" s="40">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="41">
+        <f>RAWDATA!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="41">
+        <f>RAWDATA!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="42">
+        <f>RAWDATA!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="42">
+        <f>RAWDATA!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="41">
+        <f>RAWDATA!I4</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <f>RAWDATA!J4</f>
+        <v>0</v>
+      </c>
       <c r="H6" s="42" t="str">
         <f>RAWDATA!K4</f>
         <v>Arabisch 1</v>
@@ -5888,12 +5923,30 @@
       <c r="A7" s="40">
         <v>4</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="41">
+        <f>RAWDATA!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="41">
+        <f>RAWDATA!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="42">
+        <f>RAWDATA!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="42">
+        <f>RAWDATA!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="41">
+        <f>RAWDATA!I5</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="41">
+        <f>RAWDATA!J5</f>
+        <v>0</v>
+      </c>
       <c r="H7" s="42" t="str">
         <f>RAWDATA!K5</f>
         <v>Arabisch 1</v>
@@ -5927,12 +5980,30 @@
       <c r="A8" s="40">
         <v>5</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="41">
+        <f>RAWDATA!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="41">
+        <f>RAWDATA!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="42">
+        <f>RAWDATA!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="42">
+        <f>RAWDATA!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="41">
+        <f>RAWDATA!I6</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="41">
+        <f>RAWDATA!J6</f>
+        <v>0</v>
+      </c>
       <c r="H8" s="42" t="str">
         <f>RAWDATA!K6</f>
         <v>Arabisch 1</v>
@@ -5966,12 +6037,30 @@
       <c r="A9" s="40">
         <v>6</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="41">
+        <f>RAWDATA!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="41">
+        <f>RAWDATA!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="42">
+        <f>RAWDATA!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="42">
+        <f>RAWDATA!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="41">
+        <f>RAWDATA!I7</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="41">
+        <f>RAWDATA!J7</f>
+        <v>0</v>
+      </c>
       <c r="H9" s="42" t="str">
         <f>RAWDATA!K7</f>
         <v>Arabisch 1</v>
@@ -6005,12 +6094,30 @@
       <c r="A10" s="40">
         <v>7</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="41">
+        <f>RAWDATA!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="41">
+        <f>RAWDATA!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="42">
+        <f>RAWDATA!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
+        <f>RAWDATA!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="41">
+        <f>RAWDATA!I8</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="41">
+        <f>RAWDATA!J8</f>
+        <v>0</v>
+      </c>
       <c r="H10" s="42" t="str">
         <f>RAWDATA!K8</f>
         <v>Arabisch 1</v>
@@ -6044,12 +6151,30 @@
       <c r="A11" s="40">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="41">
+        <f>RAWDATA!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="41">
+        <f>RAWDATA!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="42">
+        <f>RAWDATA!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="42">
+        <f>RAWDATA!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="41">
+        <f>RAWDATA!I9</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="41">
+        <f>RAWDATA!J9</f>
+        <v>0</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f>RAWDATA!K9</f>
         <v>Arabisch 1</v>
@@ -6083,12 +6208,30 @@
       <c r="A12" s="40">
         <v>9</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="41">
+        <f>RAWDATA!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="41">
+        <f>RAWDATA!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="42">
+        <f>RAWDATA!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="42">
+        <f>RAWDATA!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="41">
+        <f>RAWDATA!I10</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="41">
+        <f>RAWDATA!J10</f>
+        <v>0</v>
+      </c>
       <c r="H12" s="42" t="str">
         <f>RAWDATA!K10</f>
         <v>Arabisch 1</v>
@@ -6122,12 +6265,30 @@
       <c r="A13" s="40">
         <v>10</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="41">
+        <f>RAWDATA!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="41">
+        <f>RAWDATA!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="42">
+        <f>RAWDATA!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="42">
+        <f>RAWDATA!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="41">
+        <f>RAWDATA!I11</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="41">
+        <f>RAWDATA!J11</f>
+        <v>0</v>
+      </c>
       <c r="H13" s="42" t="str">
         <f>RAWDATA!K11</f>
         <v>Arabisch 1</v>
@@ -6161,12 +6322,30 @@
       <c r="A14" s="40">
         <v>11</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="41">
+        <f>RAWDATA!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="41">
+        <f>RAWDATA!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="42">
+        <f>RAWDATA!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="42">
+        <f>RAWDATA!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="41">
+        <f>RAWDATA!I12</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="41">
+        <f>RAWDATA!J12</f>
+        <v>0</v>
+      </c>
       <c r="H14" s="42" t="str">
         <f>RAWDATA!K12</f>
         <v>Arabisch 1</v>
@@ -6200,12 +6379,30 @@
       <c r="A15" s="40">
         <v>12</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="B15" s="41">
+        <f>RAWDATA!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="41">
+        <f>RAWDATA!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="42">
+        <f>RAWDATA!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="42">
+        <f>RAWDATA!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="41">
+        <f>RAWDATA!I13</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="41">
+        <f>RAWDATA!J13</f>
+        <v>0</v>
+      </c>
       <c r="H15" s="42" t="str">
         <f>RAWDATA!K13</f>
         <v>Arabisch 1</v>
@@ -6239,12 +6436,30 @@
       <c r="A16" s="40">
         <v>13</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="41">
+        <f>RAWDATA!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="41">
+        <f>RAWDATA!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="42">
+        <f>RAWDATA!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="42">
+        <f>RAWDATA!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="41">
+        <f>RAWDATA!I14</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <f>RAWDATA!J14</f>
+        <v>0</v>
+      </c>
       <c r="H16" s="42" t="str">
         <f>RAWDATA!K14</f>
         <v>Arabisch 1</v>
@@ -6278,12 +6493,30 @@
       <c r="A17" s="40">
         <v>14</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="B17" s="41">
+        <f>RAWDATA!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="41">
+        <f>RAWDATA!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="42">
+        <f>RAWDATA!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="42">
+        <f>RAWDATA!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="41">
+        <f>RAWDATA!I15</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="41">
+        <f>RAWDATA!J15</f>
+        <v>0</v>
+      </c>
       <c r="H17" s="42" t="str">
         <f>RAWDATA!K15</f>
         <v>Arabisch 1</v>
@@ -6317,12 +6550,30 @@
       <c r="A18" s="40">
         <v>15</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="B18" s="41">
+        <f>RAWDATA!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="41">
+        <f>RAWDATA!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="42">
+        <f>RAWDATA!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="42">
+        <f>RAWDATA!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
+        <f>RAWDATA!I16</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="41">
+        <f>RAWDATA!J16</f>
+        <v>0</v>
+      </c>
       <c r="H18" s="42" t="str">
         <f>RAWDATA!K16</f>
         <v>Arabisch 1</v>
@@ -6356,12 +6607,30 @@
       <c r="A19" s="40">
         <v>16</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="41">
+        <f>RAWDATA!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="41">
+        <f>RAWDATA!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="42">
+        <f>RAWDATA!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="42">
+        <f>RAWDATA!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="41">
+        <f>RAWDATA!I17</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="41">
+        <f>RAWDATA!J17</f>
+        <v>0</v>
+      </c>
       <c r="H19" s="42" t="str">
         <f>RAWDATA!K17</f>
         <v>Arabisch 1</v>
@@ -6395,12 +6664,30 @@
       <c r="A20" s="40">
         <v>17</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="B20" s="41">
+        <f>RAWDATA!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="41">
+        <f>RAWDATA!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="42">
+        <f>RAWDATA!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="42">
+        <f>RAWDATA!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="41">
+        <f>RAWDATA!I18</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="41">
+        <f>RAWDATA!J18</f>
+        <v>0</v>
+      </c>
       <c r="H20" s="42" t="str">
         <f>RAWDATA!K18</f>
         <v>Arabisch 1</v>
@@ -6434,12 +6721,30 @@
       <c r="A21" s="40">
         <v>18</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="B21" s="41">
+        <f>RAWDATA!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="41">
+        <f>RAWDATA!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="42">
+        <f>RAWDATA!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="42">
+        <f>RAWDATA!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="41">
+        <f>RAWDATA!I19</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="41">
+        <f>RAWDATA!J19</f>
+        <v>0</v>
+      </c>
       <c r="H21" s="42" t="str">
         <f>RAWDATA!K19</f>
         <v>Arabisch 1</v>
@@ -6474,27 +6779,27 @@
         <v>19</v>
       </c>
       <c r="B22" s="41">
-        <f>RAWDATA!B3</f>
+        <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
       <c r="C22" s="41">
-        <f>RAWDATA!C3</f>
+        <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="42">
-        <f>RAWDATA!D3</f>
+        <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
       <c r="E22" s="42">
-        <f>RAWDATA!E3</f>
+        <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
       <c r="F22" s="41">
-        <f>RAWDATA!I3</f>
+        <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
       <c r="G22" s="41">
-        <f>RAWDATA!J3</f>
+        <f>RAWDATA!J20</f>
         <v>0</v>
       </c>
       <c r="H22" s="42" t="str">
@@ -6531,27 +6836,27 @@
         <v>20</v>
       </c>
       <c r="B23" s="41">
-        <f>RAWDATA!B4</f>
+        <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
       <c r="C23" s="41">
-        <f>RAWDATA!C4</f>
+        <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="42">
-        <f>RAWDATA!D4</f>
+        <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
       <c r="E23" s="42">
-        <f>RAWDATA!E4</f>
+        <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
       <c r="F23" s="41">
-        <f>RAWDATA!I4</f>
+        <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
       <c r="G23" s="41">
-        <f>RAWDATA!J4</f>
+        <f>RAWDATA!J21</f>
         <v>0</v>
       </c>
       <c r="H23" s="42" t="str">
@@ -6588,27 +6893,27 @@
         <v>21</v>
       </c>
       <c r="B24" s="41">
-        <f>RAWDATA!B5</f>
+        <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
       <c r="C24" s="41">
-        <f>RAWDATA!C5</f>
+        <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="42">
-        <f>RAWDATA!D5</f>
+        <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
       <c r="E24" s="42">
-        <f>RAWDATA!E5</f>
+        <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
       <c r="F24" s="41">
-        <f>RAWDATA!I5</f>
+        <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
       <c r="G24" s="41">
-        <f>RAWDATA!J5</f>
+        <f>RAWDATA!J22</f>
         <v>0</v>
       </c>
       <c r="H24" s="42" t="str">
@@ -6645,27 +6950,27 @@
         <v>22</v>
       </c>
       <c r="B25" s="41">
-        <f>RAWDATA!B6</f>
+        <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
       <c r="C25" s="41">
-        <f>RAWDATA!C6</f>
+        <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="42">
-        <f>RAWDATA!D6</f>
+        <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
       <c r="E25" s="42">
-        <f>RAWDATA!E6</f>
+        <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
       <c r="F25" s="41">
-        <f>RAWDATA!I6</f>
+        <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
       <c r="G25" s="41">
-        <f>RAWDATA!J6</f>
+        <f>RAWDATA!J23</f>
         <v>0</v>
       </c>
       <c r="H25" s="42" t="str">
@@ -6702,27 +7007,27 @@
         <v>23</v>
       </c>
       <c r="B26" s="41">
-        <f>RAWDATA!B7</f>
+        <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
       <c r="C26" s="41">
-        <f>RAWDATA!C7</f>
+        <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="42">
-        <f>RAWDATA!D7</f>
+        <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
       <c r="E26" s="42">
-        <f>RAWDATA!E7</f>
+        <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
       <c r="F26" s="41">
-        <f>RAWDATA!I7</f>
+        <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
       <c r="G26" s="41">
-        <f>RAWDATA!J7</f>
+        <f>RAWDATA!J24</f>
         <v>0</v>
       </c>
       <c r="H26" s="42" t="str">
@@ -6759,27 +7064,27 @@
         <v>24</v>
       </c>
       <c r="B27" s="41">
-        <f>RAWDATA!B8</f>
+        <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
       <c r="C27" s="41">
-        <f>RAWDATA!C8</f>
+        <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="42">
-        <f>RAWDATA!D8</f>
+        <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
       <c r="E27" s="42">
-        <f>RAWDATA!E8</f>
+        <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
       <c r="F27" s="41">
-        <f>RAWDATA!I8</f>
+        <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
       <c r="G27" s="41">
-        <f>RAWDATA!J8</f>
+        <f>RAWDATA!J25</f>
         <v>0</v>
       </c>
       <c r="H27" s="42">
@@ -6816,27 +7121,27 @@
         <v>25</v>
       </c>
       <c r="B28" s="41">
-        <f>RAWDATA!B9</f>
+        <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
       <c r="C28" s="41">
-        <f>RAWDATA!C9</f>
+        <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="42">
-        <f>RAWDATA!D9</f>
+        <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
       <c r="E28" s="42">
-        <f>RAWDATA!E9</f>
+        <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
       <c r="F28" s="41">
-        <f>RAWDATA!I9</f>
+        <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
       <c r="G28" s="41">
-        <f>RAWDATA!J9</f>
+        <f>RAWDATA!J26</f>
         <v>0</v>
       </c>
       <c r="H28" s="42">
@@ -6873,27 +7178,27 @@
         <v>26</v>
       </c>
       <c r="B29" s="41">
-        <f>RAWDATA!B10</f>
+        <f>RAWDATA!B27</f>
         <v>0</v>
       </c>
       <c r="C29" s="41">
-        <f>RAWDATA!C10</f>
+        <f>RAWDATA!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="42">
-        <f>RAWDATA!D10</f>
+        <f>RAWDATA!D27</f>
         <v>0</v>
       </c>
       <c r="E29" s="42">
-        <f>RAWDATA!E10</f>
+        <f>RAWDATA!E27</f>
         <v>0</v>
       </c>
       <c r="F29" s="41">
-        <f>RAWDATA!I10</f>
+        <f>RAWDATA!I27</f>
         <v>0</v>
       </c>
       <c r="G29" s="41">
-        <f>RAWDATA!J10</f>
+        <f>RAWDATA!J27</f>
         <v>0</v>
       </c>
       <c r="H29" s="42">
@@ -6930,27 +7235,27 @@
         <v>27</v>
       </c>
       <c r="B30" s="41">
-        <f>RAWDATA!B11</f>
+        <f>RAWDATA!B28</f>
         <v>0</v>
       </c>
       <c r="C30" s="41">
-        <f>RAWDATA!C11</f>
+        <f>RAWDATA!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="42">
-        <f>RAWDATA!D11</f>
+        <f>RAWDATA!D28</f>
         <v>0</v>
       </c>
       <c r="E30" s="42">
-        <f>RAWDATA!E11</f>
+        <f>RAWDATA!E28</f>
         <v>0</v>
       </c>
       <c r="F30" s="41">
-        <f>RAWDATA!I11</f>
+        <f>RAWDATA!I28</f>
         <v>0</v>
       </c>
       <c r="G30" s="41">
-        <f>RAWDATA!J11</f>
+        <f>RAWDATA!J28</f>
         <v>0</v>
       </c>
       <c r="H30" s="42">
@@ -6987,27 +7292,27 @@
         <v>28</v>
       </c>
       <c r="B31" s="41">
-        <f>RAWDATA!B12</f>
+        <f>RAWDATA!B29</f>
         <v>0</v>
       </c>
       <c r="C31" s="41">
-        <f>RAWDATA!C12</f>
+        <f>RAWDATA!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="42">
-        <f>RAWDATA!D12</f>
+        <f>RAWDATA!D29</f>
         <v>0</v>
       </c>
       <c r="E31" s="42">
-        <f>RAWDATA!E12</f>
+        <f>RAWDATA!E29</f>
         <v>0</v>
       </c>
       <c r="F31" s="41">
-        <f>RAWDATA!I12</f>
+        <f>RAWDATA!I29</f>
         <v>0</v>
       </c>
       <c r="G31" s="41">
-        <f>RAWDATA!J12</f>
+        <f>RAWDATA!J29</f>
         <v>0</v>
       </c>
       <c r="H31" s="42">
@@ -7044,27 +7349,27 @@
         <v>29</v>
       </c>
       <c r="B32" s="41">
-        <f>RAWDATA!B13</f>
+        <f>RAWDATA!B30</f>
         <v>0</v>
       </c>
       <c r="C32" s="41">
-        <f>RAWDATA!C13</f>
+        <f>RAWDATA!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="42">
-        <f>RAWDATA!D13</f>
+        <f>RAWDATA!D30</f>
         <v>0</v>
       </c>
       <c r="E32" s="42">
-        <f>RAWDATA!E13</f>
+        <f>RAWDATA!E30</f>
         <v>0</v>
       </c>
       <c r="F32" s="41">
-        <f>RAWDATA!I13</f>
+        <f>RAWDATA!I30</f>
         <v>0</v>
       </c>
       <c r="G32" s="41">
-        <f>RAWDATA!J13</f>
+        <f>RAWDATA!J30</f>
         <v>0</v>
       </c>
       <c r="H32" s="42">
@@ -7101,27 +7406,27 @@
         <v>30</v>
       </c>
       <c r="B33" s="41">
-        <f>RAWDATA!B14</f>
+        <f>RAWDATA!B31</f>
         <v>0</v>
       </c>
       <c r="C33" s="41">
-        <f>RAWDATA!C14</f>
+        <f>RAWDATA!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="42">
-        <f>RAWDATA!D14</f>
+        <f>RAWDATA!D31</f>
         <v>0</v>
       </c>
       <c r="E33" s="42">
-        <f>RAWDATA!E14</f>
+        <f>RAWDATA!E31</f>
         <v>0</v>
       </c>
       <c r="F33" s="41">
-        <f>RAWDATA!I14</f>
+        <f>RAWDATA!I31</f>
         <v>0</v>
       </c>
       <c r="G33" s="41">
-        <f>RAWDATA!J14</f>
+        <f>RAWDATA!J31</f>
         <v>0</v>
       </c>
       <c r="H33" s="42">
@@ -7158,27 +7463,27 @@
         <v>31</v>
       </c>
       <c r="B34" s="41">
-        <f>RAWDATA!B15</f>
+        <f>RAWDATA!B32</f>
         <v>0</v>
       </c>
       <c r="C34" s="41">
-        <f>RAWDATA!C15</f>
+        <f>RAWDATA!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="42">
-        <f>RAWDATA!D15</f>
+        <f>RAWDATA!D32</f>
         <v>0</v>
       </c>
       <c r="E34" s="42">
-        <f>RAWDATA!E15</f>
+        <f>RAWDATA!E32</f>
         <v>0</v>
       </c>
       <c r="F34" s="41">
-        <f>RAWDATA!I15</f>
+        <f>RAWDATA!I32</f>
         <v>0</v>
       </c>
       <c r="G34" s="41">
-        <f>RAWDATA!J15</f>
+        <f>RAWDATA!J32</f>
         <v>0</v>
       </c>
       <c r="H34" s="42">
@@ -7215,27 +7520,27 @@
         <v>32</v>
       </c>
       <c r="B35" s="41">
-        <f>RAWDATA!B16</f>
+        <f>RAWDATA!B33</f>
         <v>0</v>
       </c>
       <c r="C35" s="41">
-        <f>RAWDATA!C16</f>
+        <f>RAWDATA!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="42">
-        <f>RAWDATA!D16</f>
+        <f>RAWDATA!D33</f>
         <v>0</v>
       </c>
       <c r="E35" s="42">
-        <f>RAWDATA!E16</f>
+        <f>RAWDATA!E33</f>
         <v>0</v>
       </c>
       <c r="F35" s="41">
-        <f>RAWDATA!I16</f>
+        <f>RAWDATA!I33</f>
         <v>0</v>
       </c>
       <c r="G35" s="41">
-        <f>RAWDATA!J16</f>
+        <f>RAWDATA!J33</f>
         <v>0</v>
       </c>
       <c r="H35" s="42">
@@ -7272,27 +7577,27 @@
         <v>33</v>
       </c>
       <c r="B36" s="41">
-        <f>RAWDATA!B17</f>
+        <f>RAWDATA!B34</f>
         <v>0</v>
       </c>
       <c r="C36" s="41">
-        <f>RAWDATA!C17</f>
+        <f>RAWDATA!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="42">
-        <f>RAWDATA!D17</f>
+        <f>RAWDATA!D34</f>
         <v>0</v>
       </c>
       <c r="E36" s="42">
-        <f>RAWDATA!E17</f>
+        <f>RAWDATA!E34</f>
         <v>0</v>
       </c>
       <c r="F36" s="41">
-        <f>RAWDATA!I17</f>
+        <f>RAWDATA!I34</f>
         <v>0</v>
       </c>
       <c r="G36" s="41">
-        <f>RAWDATA!J17</f>
+        <f>RAWDATA!J34</f>
         <v>0</v>
       </c>
       <c r="H36" s="42">
@@ -7329,27 +7634,27 @@
         <v>34</v>
       </c>
       <c r="B37" s="41">
-        <f>RAWDATA!B18</f>
+        <f>RAWDATA!B35</f>
         <v>0</v>
       </c>
       <c r="C37" s="41">
-        <f>RAWDATA!C18</f>
+        <f>RAWDATA!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="42">
-        <f>RAWDATA!D18</f>
+        <f>RAWDATA!D35</f>
         <v>0</v>
       </c>
       <c r="E37" s="42">
-        <f>RAWDATA!E18</f>
+        <f>RAWDATA!E35</f>
         <v>0</v>
       </c>
       <c r="F37" s="41">
-        <f>RAWDATA!I18</f>
+        <f>RAWDATA!I35</f>
         <v>0</v>
       </c>
       <c r="G37" s="41">
-        <f>RAWDATA!J18</f>
+        <f>RAWDATA!J35</f>
         <v>0</v>
       </c>
       <c r="H37" s="42">
@@ -7386,27 +7691,27 @@
         <v>35</v>
       </c>
       <c r="B38" s="41">
-        <f>RAWDATA!B19</f>
+        <f>RAWDATA!B36</f>
         <v>0</v>
       </c>
       <c r="C38" s="41">
-        <f>RAWDATA!C19</f>
+        <f>RAWDATA!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="42">
-        <f>RAWDATA!D19</f>
+        <f>RAWDATA!D36</f>
         <v>0</v>
       </c>
       <c r="E38" s="42">
-        <f>RAWDATA!E19</f>
+        <f>RAWDATA!E36</f>
         <v>0</v>
       </c>
       <c r="F38" s="41">
-        <f>RAWDATA!I19</f>
+        <f>RAWDATA!I36</f>
         <v>0</v>
       </c>
       <c r="G38" s="41">
-        <f>RAWDATA!J19</f>
+        <f>RAWDATA!J36</f>
         <v>0</v>
       </c>
       <c r="H38" s="42">
@@ -7566,8 +7871,8 @@
   </sheetPr>
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E23"/>
+    <sheetView showZeros="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -7814,10 +8119,22 @@
       <c r="A7" s="40">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="41">
+        <f>RAWDATA!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="41">
+        <f>RAWDATA!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="41">
+        <f>RAWDATA!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
+        <f>RAWDATA!E3</f>
+        <v>0</v>
+      </c>
       <c r="F7" s="56"/>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
@@ -7842,10 +8159,22 @@
       <c r="A8" s="40">
         <v>3</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="41">
+        <f>RAWDATA!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="41">
+        <f>RAWDATA!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="41">
+        <f>RAWDATA!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
+        <f>RAWDATA!E4</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="56"/>
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
@@ -7870,10 +8199,22 @@
       <c r="A9" s="40">
         <v>4</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="B9" s="41">
+        <f>RAWDATA!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="41">
+        <f>RAWDATA!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="41">
+        <f>RAWDATA!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <f>RAWDATA!E5</f>
+        <v>0</v>
+      </c>
       <c r="F9" s="56"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -7898,10 +8239,22 @@
       <c r="A10" s="40">
         <v>5</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="B10" s="41">
+        <f>RAWDATA!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="41">
+        <f>RAWDATA!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="41">
+        <f>RAWDATA!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <f>RAWDATA!E6</f>
+        <v>0</v>
+      </c>
       <c r="F10" s="56"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
@@ -7926,10 +8279,22 @@
       <c r="A11" s="40">
         <v>6</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="41">
+        <f>RAWDATA!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="41">
+        <f>RAWDATA!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="41">
+        <f>RAWDATA!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <f>RAWDATA!E7</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="56"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
@@ -7954,10 +8319,22 @@
       <c r="A12" s="40">
         <v>7</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="41">
+        <f>RAWDATA!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="41">
+        <f>RAWDATA!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="41">
+        <f>RAWDATA!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="41">
+        <f>RAWDATA!E8</f>
+        <v>0</v>
+      </c>
       <c r="F12" s="56"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -7982,10 +8359,22 @@
       <c r="A13" s="40">
         <v>8</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="41">
+        <f>RAWDATA!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="41">
+        <f>RAWDATA!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="41">
+        <f>RAWDATA!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="41">
+        <f>RAWDATA!E9</f>
+        <v>0</v>
+      </c>
       <c r="F13" s="56"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -8010,10 +8399,22 @@
       <c r="A14" s="40">
         <v>9</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="41">
+        <f>RAWDATA!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="41">
+        <f>RAWDATA!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="41">
+        <f>RAWDATA!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
+        <f>RAWDATA!E10</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="56"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
@@ -8038,10 +8439,22 @@
       <c r="A15" s="40">
         <v>10</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="41">
+        <f>RAWDATA!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="41">
+        <f>RAWDATA!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="41">
+        <f>RAWDATA!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="41">
+        <f>RAWDATA!E11</f>
+        <v>0</v>
+      </c>
       <c r="F15" s="56"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
@@ -8066,10 +8479,22 @@
       <c r="A16" s="40">
         <v>11</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="41">
+        <f>RAWDATA!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="41">
+        <f>RAWDATA!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="41">
+        <f>RAWDATA!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="41">
+        <f>RAWDATA!E12</f>
+        <v>0</v>
+      </c>
       <c r="F16" s="56"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
@@ -8094,10 +8519,22 @@
       <c r="A17" s="40">
         <v>12</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="41">
+        <f>RAWDATA!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="41">
+        <f>RAWDATA!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="41">
+        <f>RAWDATA!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="41">
+        <f>RAWDATA!E13</f>
+        <v>0</v>
+      </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
@@ -8122,10 +8559,22 @@
       <c r="A18" s="40">
         <v>13</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="41">
+        <f>RAWDATA!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="41">
+        <f>RAWDATA!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="41">
+        <f>RAWDATA!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="41">
+        <f>RAWDATA!E14</f>
+        <v>0</v>
+      </c>
       <c r="F18" s="56"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
@@ -8150,10 +8599,22 @@
       <c r="A19" s="40">
         <v>14</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="41">
+        <f>RAWDATA!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="41">
+        <f>RAWDATA!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="41">
+        <f>RAWDATA!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="41">
+        <f>RAWDATA!E15</f>
+        <v>0</v>
+      </c>
       <c r="F19" s="56"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
@@ -8178,10 +8639,22 @@
       <c r="A20" s="40">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="41">
+        <f>RAWDATA!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="41">
+        <f>RAWDATA!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="41">
+        <f>RAWDATA!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="41">
+        <f>RAWDATA!E16</f>
+        <v>0</v>
+      </c>
       <c r="F20" s="56"/>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -8206,10 +8679,22 @@
       <c r="A21" s="40">
         <v>16</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="41">
+        <f>RAWDATA!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="41">
+        <f>RAWDATA!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="41">
+        <f>RAWDATA!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="41">
+        <f>RAWDATA!E17</f>
+        <v>0</v>
+      </c>
       <c r="F21" s="56"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -8234,10 +8719,22 @@
       <c r="A22" s="40">
         <v>17</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="41">
+        <f>RAWDATA!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="41">
+        <f>RAWDATA!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
+        <f>RAWDATA!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="41">
+        <f>RAWDATA!E18</f>
+        <v>0</v>
+      </c>
       <c r="F22" s="56"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
@@ -8262,10 +8759,22 @@
       <c r="A23" s="40">
         <v>18</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="B23" s="41">
+        <f>RAWDATA!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="41">
+        <f>RAWDATA!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <f>RAWDATA!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="41">
+        <f>RAWDATA!E19</f>
+        <v>0</v>
+      </c>
       <c r="F23" s="56"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
@@ -8291,19 +8800,19 @@
         <v>19</v>
       </c>
       <c r="B24" s="41">
-        <f>RAWDATA!B3</f>
+        <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
       <c r="C24" s="41">
-        <f>RAWDATA!C3</f>
+        <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
       <c r="D24" s="41">
-        <f>RAWDATA!D3</f>
+        <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
       <c r="E24" s="41">
-        <f>RAWDATA!E3</f>
+        <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
       <c r="F24" s="56"/>
@@ -8331,19 +8840,19 @@
         <v>20</v>
       </c>
       <c r="B25" s="41">
-        <f>RAWDATA!B4</f>
+        <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
       <c r="C25" s="41">
-        <f>RAWDATA!C4</f>
+        <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
       <c r="D25" s="41">
-        <f>RAWDATA!D4</f>
+        <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
       <c r="E25" s="41">
-        <f>RAWDATA!E4</f>
+        <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
       <c r="F25" s="56"/>
@@ -8371,19 +8880,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="41">
-        <f>RAWDATA!B5</f>
+        <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
       <c r="C26" s="41">
-        <f>RAWDATA!C5</f>
+        <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
       <c r="D26" s="41">
-        <f>RAWDATA!D5</f>
+        <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
       <c r="E26" s="41">
-        <f>RAWDATA!E5</f>
+        <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
       <c r="F26" s="56"/>
@@ -8411,19 +8920,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="41">
-        <f>RAWDATA!B6</f>
+        <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
       <c r="C27" s="41">
-        <f>RAWDATA!C6</f>
+        <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
       <c r="D27" s="41">
-        <f>RAWDATA!D6</f>
+        <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
       <c r="E27" s="41">
-        <f>RAWDATA!E6</f>
+        <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
       <c r="F27" s="56"/>
@@ -8451,19 +8960,19 @@
         <v>23</v>
       </c>
       <c r="B28" s="41">
-        <f>RAWDATA!B7</f>
+        <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
       <c r="C28" s="41">
-        <f>RAWDATA!C7</f>
+        <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
       <c r="D28" s="41">
-        <f>RAWDATA!D7</f>
+        <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
       <c r="E28" s="41">
-        <f>RAWDATA!E7</f>
+        <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
       <c r="F28" s="56"/>
@@ -8491,19 +9000,19 @@
         <v>24</v>
       </c>
       <c r="B29" s="41">
-        <f>RAWDATA!B8</f>
+        <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
       <c r="C29" s="41">
-        <f>RAWDATA!C8</f>
+        <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
       <c r="D29" s="41">
-        <f>RAWDATA!D8</f>
+        <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
       <c r="E29" s="41">
-        <f>RAWDATA!E8</f>
+        <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
       <c r="F29" s="56"/>
@@ -8531,19 +9040,19 @@
         <v>25</v>
       </c>
       <c r="B30" s="41">
-        <f>RAWDATA!B9</f>
+        <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
       <c r="C30" s="41">
-        <f>RAWDATA!C9</f>
+        <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
       <c r="D30" s="41">
-        <f>RAWDATA!D9</f>
+        <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
       <c r="E30" s="41">
-        <f>RAWDATA!E9</f>
+        <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
       <c r="F30" s="56"/>
@@ -8571,19 +9080,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="41">
-        <f>RAWDATA!B10</f>
+        <f>RAWDATA!B27</f>
         <v>0</v>
       </c>
       <c r="C31" s="41">
-        <f>RAWDATA!C10</f>
+        <f>RAWDATA!C27</f>
         <v>0</v>
       </c>
       <c r="D31" s="41">
-        <f>RAWDATA!D10</f>
+        <f>RAWDATA!D27</f>
         <v>0</v>
       </c>
       <c r="E31" s="41">
-        <f>RAWDATA!E10</f>
+        <f>RAWDATA!E27</f>
         <v>0</v>
       </c>
       <c r="F31" s="56"/>
@@ -8611,19 +9120,19 @@
         <v>27</v>
       </c>
       <c r="B32" s="41">
-        <f>RAWDATA!B11</f>
+        <f>RAWDATA!B28</f>
         <v>0</v>
       </c>
       <c r="C32" s="41">
-        <f>RAWDATA!C11</f>
+        <f>RAWDATA!C28</f>
         <v>0</v>
       </c>
       <c r="D32" s="41">
-        <f>RAWDATA!D11</f>
+        <f>RAWDATA!D28</f>
         <v>0</v>
       </c>
       <c r="E32" s="41">
-        <f>RAWDATA!E11</f>
+        <f>RAWDATA!E28</f>
         <v>0</v>
       </c>
       <c r="F32" s="56"/>
@@ -8651,19 +9160,19 @@
         <v>28</v>
       </c>
       <c r="B33" s="41">
-        <f>RAWDATA!B12</f>
+        <f>RAWDATA!B29</f>
         <v>0</v>
       </c>
       <c r="C33" s="41">
-        <f>RAWDATA!C12</f>
+        <f>RAWDATA!C29</f>
         <v>0</v>
       </c>
       <c r="D33" s="41">
-        <f>RAWDATA!D12</f>
+        <f>RAWDATA!D29</f>
         <v>0</v>
       </c>
       <c r="E33" s="41">
-        <f>RAWDATA!E12</f>
+        <f>RAWDATA!E29</f>
         <v>0</v>
       </c>
       <c r="F33" s="56"/>
@@ -8691,19 +9200,19 @@
         <v>29</v>
       </c>
       <c r="B34" s="41">
-        <f>RAWDATA!B13</f>
+        <f>RAWDATA!B30</f>
         <v>0</v>
       </c>
       <c r="C34" s="41">
-        <f>RAWDATA!C13</f>
+        <f>RAWDATA!C30</f>
         <v>0</v>
       </c>
       <c r="D34" s="41">
-        <f>RAWDATA!D13</f>
+        <f>RAWDATA!D30</f>
         <v>0</v>
       </c>
       <c r="E34" s="41">
-        <f>RAWDATA!E13</f>
+        <f>RAWDATA!E30</f>
         <v>0</v>
       </c>
       <c r="F34" s="56"/>
@@ -8731,19 +9240,19 @@
         <v>30</v>
       </c>
       <c r="B35" s="41">
-        <f>RAWDATA!B14</f>
+        <f>RAWDATA!B31</f>
         <v>0</v>
       </c>
       <c r="C35" s="41">
-        <f>RAWDATA!C14</f>
+        <f>RAWDATA!C31</f>
         <v>0</v>
       </c>
       <c r="D35" s="41">
-        <f>RAWDATA!D14</f>
+        <f>RAWDATA!D31</f>
         <v>0</v>
       </c>
       <c r="E35" s="41">
-        <f>RAWDATA!E14</f>
+        <f>RAWDATA!E31</f>
         <v>0</v>
       </c>
       <c r="F35" s="56"/>
@@ -8771,19 +9280,19 @@
         <v>31</v>
       </c>
       <c r="B36" s="41">
-        <f>RAWDATA!B15</f>
+        <f>RAWDATA!B32</f>
         <v>0</v>
       </c>
       <c r="C36" s="41">
-        <f>RAWDATA!C15</f>
+        <f>RAWDATA!C32</f>
         <v>0</v>
       </c>
       <c r="D36" s="41">
-        <f>RAWDATA!D15</f>
+        <f>RAWDATA!D32</f>
         <v>0</v>
       </c>
       <c r="E36" s="41">
-        <f>RAWDATA!E15</f>
+        <f>RAWDATA!E32</f>
         <v>0</v>
       </c>
       <c r="F36" s="56"/>
@@ -8811,19 +9320,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="41">
-        <f>RAWDATA!B16</f>
+        <f>RAWDATA!B33</f>
         <v>0</v>
       </c>
       <c r="C37" s="41">
-        <f>RAWDATA!C16</f>
+        <f>RAWDATA!C33</f>
         <v>0</v>
       </c>
       <c r="D37" s="41">
-        <f>RAWDATA!D16</f>
+        <f>RAWDATA!D33</f>
         <v>0</v>
       </c>
       <c r="E37" s="41">
-        <f>RAWDATA!E16</f>
+        <f>RAWDATA!E33</f>
         <v>0</v>
       </c>
       <c r="F37" s="56"/>
@@ -8851,19 +9360,19 @@
         <v>33</v>
       </c>
       <c r="B38" s="41">
-        <f>RAWDATA!B17</f>
+        <f>RAWDATA!B34</f>
         <v>0</v>
       </c>
       <c r="C38" s="41">
-        <f>RAWDATA!C17</f>
+        <f>RAWDATA!C34</f>
         <v>0</v>
       </c>
       <c r="D38" s="41">
-        <f>RAWDATA!D17</f>
+        <f>RAWDATA!D34</f>
         <v>0</v>
       </c>
       <c r="E38" s="41">
-        <f>RAWDATA!E17</f>
+        <f>RAWDATA!E34</f>
         <v>0</v>
       </c>
       <c r="F38" s="56"/>
@@ -8891,19 +9400,19 @@
         <v>34</v>
       </c>
       <c r="B39" s="41">
-        <f>RAWDATA!B18</f>
+        <f>RAWDATA!B35</f>
         <v>0</v>
       </c>
       <c r="C39" s="41">
-        <f>RAWDATA!C18</f>
+        <f>RAWDATA!C35</f>
         <v>0</v>
       </c>
       <c r="D39" s="41">
-        <f>RAWDATA!D18</f>
+        <f>RAWDATA!D35</f>
         <v>0</v>
       </c>
       <c r="E39" s="41">
-        <f>RAWDATA!E18</f>
+        <f>RAWDATA!E35</f>
         <v>0</v>
       </c>
       <c r="F39" s="56"/>
@@ -8931,19 +9440,19 @@
         <v>35</v>
       </c>
       <c r="B40" s="41">
-        <f>RAWDATA!B19</f>
+        <f>RAWDATA!B36</f>
         <v>0</v>
       </c>
       <c r="C40" s="41">
-        <f>RAWDATA!C19</f>
+        <f>RAWDATA!C36</f>
         <v>0</v>
       </c>
       <c r="D40" s="41">
-        <f>RAWDATA!D19</f>
+        <f>RAWDATA!D36</f>
         <v>0</v>
       </c>
       <c r="E40" s="41">
-        <f>RAWDATA!E19</f>
+        <f>RAWDATA!E36</f>
         <v>0</v>
       </c>
       <c r="F40" s="56"/>

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289182E8-67E0-4603-9F8D-79B979FD32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="kursname">Notenliste!$A$52:$A$60</definedName>
     <definedName name="semester">Notenliste!$D$52:$D$62</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -211,9 +212,6 @@
     <t>Anmerkungen</t>
   </si>
   <si>
-    <t>applicant.ects_points</t>
-  </si>
-  <si>
     <t>applicant.last_name</t>
   </si>
   <si>
@@ -224,9 +222,6 @@
   </si>
   <si>
     <t>applicant.tag</t>
-  </si>
-  <si>
-    <t>applicant.sanitized_grade</t>
   </si>
   <si>
     <t>applicant.mail</t>
@@ -300,11 +295,17 @@
   <si>
     <t>course.teacher_name</t>
   </si>
+  <si>
+    <t>attendance.sanitized_grade</t>
+  </si>
+  <si>
+    <t>attendance.ects_points</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -626,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -845,25 +846,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -983,8 +971,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1032,7 +1020,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1295,37 +1283,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="B1:J2">
-  <autoFilter ref="B1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:J2">
+  <autoFilter ref="B1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Nachname"/>
-    <tableColumn id="2" name="Vorname"/>
-    <tableColumn id="3" name="Hochschule"/>
-    <tableColumn id="4" name="Matrikelnummer"/>
-    <tableColumn id="7" name="Note" dataDxfId="8"/>
-    <tableColumn id="8" name="LP" dataDxfId="7"/>
-    <tableColumn id="9" name="Level" dataDxfId="6"/>
-    <tableColumn id="5" name="E-Mail"/>
-    <tableColumn id="6" name="Telefon"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Level" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
-  <autoFilter ref="A1:H36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
+  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="5"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="4"/>
-    <tableColumn id="4" name="Note" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="2"/>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1542,31 +1530,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="45.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="6.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1604,42 +1592,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="65" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="65" t="s">
-        <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1651,7 +1639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1663,7 +1651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1675,7 +1663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1687,7 +1675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1699,7 +1687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1707,7 +1695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1715,7 +1703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1723,7 +1711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1731,7 +1719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1739,7 +1727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1747,7 +1735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1755,7 +1743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1763,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1771,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1779,7 +1767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1787,7 +1775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1795,7 +1783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1803,7 +1791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1811,7 +1799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1819,7 +1807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1827,7 +1815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1835,62 +1823,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1906,7 +1894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1916,546 +1904,546 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="6" customWidth="1"/>
     <col min="4" max="18" width="14" style="6" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" style="78" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="8" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="5" customWidth="1"/>
-    <col min="26" max="26" width="2.7109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="2.6640625" style="5" customWidth="1"/>
     <col min="27" max="27" width="3" style="5" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="5.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="6.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="17.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="6.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="6.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="17.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="34" max="258" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="259" max="259" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="260" max="260" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="261" max="261" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="262" max="262" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="263" max="265" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="17.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="34" max="258" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="259" max="259" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="260" max="260" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="261" max="261" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="262" max="262" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="263" max="265" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="266" max="266" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="267" max="267" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="268" max="514" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="515" max="515" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="516" max="516" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="517" max="517" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="518" max="518" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="519" max="521" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="267" max="267" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="268" max="514" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="515" max="515" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="516" max="516" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="517" max="517" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="518" max="518" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="519" max="521" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="522" max="522" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="523" max="523" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="524" max="770" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="771" max="771" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="772" max="772" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="773" max="773" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="774" max="774" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="775" max="777" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="523" max="523" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="524" max="770" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="771" max="771" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="772" max="772" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="773" max="773" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="774" max="774" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="775" max="777" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="778" max="778" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="779" max="779" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="780" max="1026" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1027" max="1027" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1028" max="1028" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="1030" max="1030" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="1031" max="1033" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="779" max="779" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="780" max="1026" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1027" max="1027" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1028" max="1028" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1030" max="1030" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1031" max="1033" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="1034" max="1034" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1035" max="1035" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1036" max="1282" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1283" max="1283" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1284" max="1284" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="1286" max="1286" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="1287" max="1289" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1035" max="1035" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1036" max="1282" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1283" max="1283" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1284" max="1284" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1286" max="1286" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1287" max="1289" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="1290" max="1290" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1291" max="1291" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1292" max="1538" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1539" max="1539" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1540" max="1540" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="1542" max="1542" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="1543" max="1545" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1291" max="1291" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1292" max="1538" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1539" max="1539" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1540" max="1540" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1542" max="1542" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1543" max="1545" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="1546" max="1546" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1547" max="1547" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1548" max="1794" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1795" max="1795" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1796" max="1796" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="1798" max="1798" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="1799" max="1801" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1547" max="1547" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1548" max="1794" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1795" max="1795" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1796" max="1796" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1798" max="1798" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1799" max="1801" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="1802" max="1802" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1803" max="1803" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1804" max="2050" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2051" max="2051" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2052" max="2052" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2054" max="2054" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2055" max="2057" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1803" max="1803" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1804" max="2050" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2051" max="2051" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2052" max="2052" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2054" max="2054" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2055" max="2057" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="2058" max="2058" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2059" max="2059" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2060" max="2306" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2307" max="2307" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2308" max="2308" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2310" max="2310" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2311" max="2313" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2059" max="2059" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2060" max="2306" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2307" max="2307" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2308" max="2308" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2310" max="2310" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2311" max="2313" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="2314" max="2314" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2315" max="2315" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2316" max="2562" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2563" max="2563" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2564" max="2564" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2566" max="2566" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2567" max="2569" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2315" max="2315" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2316" max="2562" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2563" max="2563" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2564" max="2564" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2566" max="2566" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2567" max="2569" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="2570" max="2570" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2571" max="2571" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2572" max="2818" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2819" max="2819" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2820" max="2820" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2822" max="2822" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2823" max="2825" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2571" max="2571" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2572" max="2818" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2819" max="2819" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2820" max="2820" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2822" max="2822" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2823" max="2825" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="2826" max="2826" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2827" max="2827" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2828" max="3074" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3075" max="3075" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3076" max="3076" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="3078" max="3078" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3079" max="3081" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2827" max="2827" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2828" max="3074" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3075" max="3075" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3076" max="3076" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3078" max="3078" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3079" max="3081" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3082" max="3082" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3083" max="3083" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3084" max="3330" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3331" max="3331" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3332" max="3332" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="3334" max="3334" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3335" max="3337" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3083" max="3083" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3084" max="3330" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3331" max="3331" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3332" max="3332" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3334" max="3334" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3335" max="3337" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3338" max="3338" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3339" max="3339" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3340" max="3586" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3587" max="3587" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3588" max="3588" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="3590" max="3590" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3591" max="3593" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3339" max="3339" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3340" max="3586" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3587" max="3587" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3588" max="3588" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3590" max="3590" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3591" max="3593" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3594" max="3594" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3595" max="3595" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3596" max="3842" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3843" max="3843" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3844" max="3844" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="3846" max="3846" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3847" max="3849" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3595" max="3595" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3596" max="3842" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3843" max="3843" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3844" max="3844" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3846" max="3846" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3847" max="3849" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3850" max="3850" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3851" max="3851" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3852" max="4098" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4099" max="4099" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4100" max="4100" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4102" max="4102" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="4103" max="4105" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3851" max="3851" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3852" max="4098" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4099" max="4099" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4100" max="4100" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4102" max="4102" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4103" max="4105" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="4106" max="4106" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4107" max="4107" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4108" max="4354" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4355" max="4355" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4356" max="4356" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4358" max="4358" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="4359" max="4361" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4107" max="4107" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4108" max="4354" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4355" max="4355" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4356" max="4356" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4358" max="4358" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4359" max="4361" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="4362" max="4362" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4363" max="4363" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4364" max="4610" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4611" max="4611" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4612" max="4612" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4614" max="4614" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="4615" max="4617" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4363" max="4363" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4364" max="4610" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4611" max="4611" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4612" max="4612" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4614" max="4614" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4615" max="4617" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="4618" max="4618" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4619" max="4619" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4620" max="4866" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4867" max="4867" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4868" max="4868" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4870" max="4870" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="4871" max="4873" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4619" max="4619" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4620" max="4866" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4867" max="4867" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4868" max="4868" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4870" max="4870" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4871" max="4873" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="4874" max="4874" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4875" max="4875" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4876" max="5122" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5123" max="5123" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5124" max="5124" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="5126" max="5126" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="5127" max="5129" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4875" max="4875" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4876" max="5122" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5123" max="5123" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5124" max="5124" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5126" max="5126" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5127" max="5129" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="5130" max="5130" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5131" max="5131" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5132" max="5378" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5379" max="5379" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5380" max="5380" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="5382" max="5382" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="5383" max="5385" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5131" max="5131" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5132" max="5378" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5379" max="5379" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5380" max="5380" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5382" max="5382" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5383" max="5385" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="5386" max="5386" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5387" max="5387" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5388" max="5634" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5635" max="5635" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5636" max="5636" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="5638" max="5638" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="5639" max="5641" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5387" max="5387" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5388" max="5634" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5635" max="5635" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5636" max="5636" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5638" max="5638" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5639" max="5641" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="5642" max="5642" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5643" max="5643" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5644" max="5890" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5891" max="5891" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5892" max="5892" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="5894" max="5894" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="5895" max="5897" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5643" max="5643" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5644" max="5890" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5891" max="5891" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5892" max="5892" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5894" max="5894" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5895" max="5897" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="5898" max="5898" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5899" max="5899" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5900" max="6146" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6147" max="6147" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6148" max="6148" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6150" max="6150" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6151" max="6153" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5899" max="5899" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5900" max="6146" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6147" max="6147" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6148" max="6148" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6150" max="6150" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6151" max="6153" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="6154" max="6154" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6155" max="6155" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6156" max="6402" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6403" max="6403" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6404" max="6404" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6406" max="6406" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6407" max="6409" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6155" max="6155" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6156" max="6402" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6403" max="6403" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6404" max="6404" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6406" max="6406" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6407" max="6409" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="6410" max="6410" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6411" max="6411" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6412" max="6658" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6659" max="6659" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6660" max="6660" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6662" max="6662" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6663" max="6665" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6411" max="6411" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6412" max="6658" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6659" max="6659" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6660" max="6660" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6662" max="6662" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6663" max="6665" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="6666" max="6666" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6667" max="6667" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6668" max="6914" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6915" max="6915" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6916" max="6916" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6918" max="6918" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6919" max="6921" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6667" max="6667" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6668" max="6914" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6915" max="6915" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6916" max="6916" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6918" max="6918" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6919" max="6921" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="6922" max="6922" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6923" max="6923" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6924" max="7170" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7171" max="7171" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7172" max="7172" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7174" max="7174" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="7175" max="7177" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6923" max="6923" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6924" max="7170" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7171" max="7171" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7172" max="7172" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7174" max="7174" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7175" max="7177" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="7178" max="7178" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7179" max="7179" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7180" max="7426" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7427" max="7427" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7428" max="7428" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7430" max="7430" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="7431" max="7433" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7179" max="7179" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7180" max="7426" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7427" max="7427" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7428" max="7428" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7430" max="7430" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7431" max="7433" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="7434" max="7434" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7435" max="7435" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7436" max="7682" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7683" max="7683" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7684" max="7684" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7686" max="7686" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="7687" max="7689" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7435" max="7435" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7436" max="7682" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7683" max="7683" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7684" max="7684" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7686" max="7686" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7687" max="7689" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="7690" max="7690" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7691" max="7691" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7692" max="7938" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7939" max="7939" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7940" max="7940" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7942" max="7942" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="7943" max="7945" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7691" max="7691" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7692" max="7938" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7939" max="7939" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7940" max="7940" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7942" max="7942" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7943" max="7945" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="7946" max="7946" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7947" max="7947" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7948" max="8194" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8195" max="8195" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8196" max="8196" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="8198" max="8198" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8199" max="8201" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7947" max="7947" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7948" max="8194" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8195" max="8195" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8196" max="8196" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8198" max="8198" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8199" max="8201" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="8202" max="8202" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8203" max="8203" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8204" max="8450" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8451" max="8451" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8452" max="8452" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="8454" max="8454" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8455" max="8457" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8203" max="8203" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8204" max="8450" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8451" max="8451" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8452" max="8452" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8454" max="8454" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8455" max="8457" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="8458" max="8458" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8459" max="8459" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8460" max="8706" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8707" max="8707" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8708" max="8708" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="8710" max="8710" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8711" max="8713" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8459" max="8459" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8460" max="8706" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8707" max="8707" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8708" max="8708" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8710" max="8710" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8711" max="8713" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="8714" max="8714" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8715" max="8715" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8716" max="8962" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8963" max="8963" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8964" max="8964" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="8966" max="8966" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8967" max="8969" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8715" max="8715" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8716" max="8962" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8963" max="8963" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8964" max="8964" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8966" max="8966" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8967" max="8969" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="8970" max="8970" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8971" max="8971" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8972" max="9218" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9219" max="9219" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9220" max="9220" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="9222" max="9222" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="9223" max="9225" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8971" max="8971" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8972" max="9218" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9219" max="9219" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9220" max="9220" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9222" max="9222" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9223" max="9225" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="9226" max="9226" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9227" max="9227" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9228" max="9474" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9475" max="9475" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9476" max="9476" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="9478" max="9478" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="9479" max="9481" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9227" max="9227" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9228" max="9474" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9475" max="9475" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9476" max="9476" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9478" max="9478" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9479" max="9481" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="9482" max="9482" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9483" max="9483" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9484" max="9730" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9731" max="9731" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9732" max="9732" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="9734" max="9734" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="9735" max="9737" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9483" max="9483" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9484" max="9730" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9731" max="9731" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9732" max="9732" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9734" max="9734" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9735" max="9737" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="9738" max="9738" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9739" max="9739" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9740" max="9986" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9987" max="9987" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9988" max="9988" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="9990" max="9990" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="9991" max="9993" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9739" max="9739" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9740" max="9986" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9987" max="9987" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9988" max="9988" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9990" max="9990" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9991" max="9993" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="9994" max="9994" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9995" max="9995" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9996" max="10242" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10243" max="10243" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10244" max="10244" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="10246" max="10246" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="10247" max="10249" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9995" max="9995" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9996" max="10242" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10243" max="10243" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10244" max="10244" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10246" max="10246" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10247" max="10249" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="10250" max="10250" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10251" max="10251" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10252" max="10498" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10499" max="10499" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10500" max="10500" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="10502" max="10502" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="10503" max="10505" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10251" max="10251" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10252" max="10498" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10499" max="10499" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10500" max="10500" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10502" max="10502" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10503" max="10505" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="10506" max="10506" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10507" max="10507" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10508" max="10754" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10755" max="10755" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10756" max="10756" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="10758" max="10758" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="10759" max="10761" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10507" max="10507" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10508" max="10754" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10755" max="10755" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10756" max="10756" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10758" max="10758" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10759" max="10761" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="10762" max="10762" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10763" max="10763" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10764" max="11010" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11011" max="11011" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11012" max="11012" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="11014" max="11014" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11015" max="11017" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10763" max="10763" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10764" max="11010" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11011" max="11011" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11012" max="11012" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11014" max="11014" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11015" max="11017" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="11018" max="11018" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11019" max="11019" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11020" max="11266" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11267" max="11267" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11268" max="11268" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="11270" max="11270" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11271" max="11273" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11019" max="11019" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11020" max="11266" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11267" max="11267" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11268" max="11268" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11270" max="11270" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11271" max="11273" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="11274" max="11274" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11275" max="11275" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11276" max="11522" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11523" max="11523" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11524" max="11524" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="11526" max="11526" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11527" max="11529" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11275" max="11275" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11276" max="11522" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11523" max="11523" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11524" max="11524" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11526" max="11526" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11527" max="11529" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="11530" max="11530" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11531" max="11531" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11532" max="11778" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11779" max="11779" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11780" max="11780" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="11782" max="11782" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11783" max="11785" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11531" max="11531" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11532" max="11778" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11779" max="11779" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11780" max="11780" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11782" max="11782" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11783" max="11785" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="11786" max="11786" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11787" max="11787" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11788" max="12034" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12035" max="12035" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12036" max="12036" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="12038" max="12038" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12039" max="12041" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11787" max="11787" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11788" max="12034" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12035" max="12035" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12036" max="12036" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12038" max="12038" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12039" max="12041" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="12042" max="12042" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12043" max="12043" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12044" max="12290" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12291" max="12291" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12292" max="12292" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="12294" max="12294" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12295" max="12297" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12043" max="12043" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12044" max="12290" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12291" max="12291" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12292" max="12292" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12294" max="12294" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12295" max="12297" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="12298" max="12298" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12299" max="12299" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12300" max="12546" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12547" max="12547" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12548" max="12548" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="12550" max="12550" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12551" max="12553" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12299" max="12299" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12300" max="12546" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12547" max="12547" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12548" max="12548" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12550" max="12550" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12551" max="12553" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="12554" max="12554" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12555" max="12555" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12556" max="12802" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12803" max="12803" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12804" max="12804" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="12806" max="12806" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12807" max="12809" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12555" max="12555" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12556" max="12802" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12803" max="12803" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12804" max="12804" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12806" max="12806" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12807" max="12809" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="12810" max="12810" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12811" max="12811" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12812" max="13058" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13059" max="13059" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13060" max="13060" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="13062" max="13062" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="13063" max="13065" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12811" max="12811" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12812" max="13058" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13059" max="13059" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13060" max="13060" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13062" max="13062" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13063" max="13065" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="13066" max="13066" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13067" max="13067" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13068" max="13314" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13315" max="13315" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13316" max="13316" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="13318" max="13318" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="13319" max="13321" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13067" max="13067" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13068" max="13314" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13315" max="13315" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13316" max="13316" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13318" max="13318" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13319" max="13321" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="13322" max="13322" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13323" max="13323" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13324" max="13570" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13571" max="13571" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13572" max="13572" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="13574" max="13574" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="13575" max="13577" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13323" max="13323" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13324" max="13570" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13571" max="13571" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13572" max="13572" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13574" max="13574" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13575" max="13577" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="13578" max="13578" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13579" max="13579" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13580" max="13826" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13827" max="13827" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13828" max="13828" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="13830" max="13830" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="13831" max="13833" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13579" max="13579" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13580" max="13826" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13827" max="13827" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13828" max="13828" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13830" max="13830" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13831" max="13833" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="13834" max="13834" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13835" max="13835" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13836" max="14082" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14083" max="14083" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14084" max="14084" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="14086" max="14086" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14087" max="14089" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13835" max="13835" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13836" max="14082" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14083" max="14083" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14084" max="14084" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14086" max="14086" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14087" max="14089" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="14090" max="14090" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14091" max="14091" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14092" max="14338" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14339" max="14339" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14340" max="14340" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="14342" max="14342" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14343" max="14345" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14091" max="14091" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14092" max="14338" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14339" max="14339" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14340" max="14340" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14342" max="14342" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14343" max="14345" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="14346" max="14346" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14347" max="14347" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14348" max="14594" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14595" max="14595" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14596" max="14596" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="14598" max="14598" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14599" max="14601" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14347" max="14347" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14348" max="14594" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14595" max="14595" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14596" max="14596" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14598" max="14598" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14599" max="14601" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="14602" max="14602" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14603" max="14603" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14604" max="14850" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14851" max="14851" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14852" max="14852" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="14854" max="14854" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14855" max="14857" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14603" max="14603" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14604" max="14850" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14851" max="14851" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14852" max="14852" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14854" max="14854" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14855" max="14857" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="14858" max="14858" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14859" max="14859" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14860" max="15106" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15107" max="15107" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15108" max="15108" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15110" max="15110" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="15111" max="15113" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14859" max="14859" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14860" max="15106" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15107" max="15107" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15108" max="15108" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15110" max="15110" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15111" max="15113" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="15114" max="15114" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15115" max="15115" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15116" max="15362" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15363" max="15363" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15364" max="15364" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15366" max="15366" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="15367" max="15369" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15115" max="15115" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15116" max="15362" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15363" max="15363" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15364" max="15364" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15366" max="15366" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15367" max="15369" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="15370" max="15370" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15371" max="15371" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15372" max="15618" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15619" max="15619" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15620" max="15620" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15622" max="15622" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="15623" max="15625" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15371" max="15371" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15372" max="15618" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15619" max="15619" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15620" max="15620" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15622" max="15622" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15623" max="15625" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="15626" max="15626" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15627" max="15627" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15628" max="15874" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15875" max="15875" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15876" max="15876" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15878" max="15878" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="15879" max="15881" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15627" max="15627" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15628" max="15874" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15875" max="15875" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15876" max="15876" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15878" max="15878" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15879" max="15881" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="15882" max="15882" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15883" max="15883" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15884" max="16130" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16131" max="16131" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16132" max="16132" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="16134" max="16134" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="16135" max="16137" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15883" max="15883" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15884" max="16130" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16131" max="16131" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16132" max="16132" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="16134" max="16134" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="16135" max="16137" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="16138" max="16138" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16139" max="16139" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16140" max="16142" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16143" max="16143" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16144" max="16144" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16145" max="16145" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="16146" max="16146" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="16147" max="16149" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16139" max="16139" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16140" max="16142" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16143" max="16143" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16144" max="16144" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16145" max="16145" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="16146" max="16146" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="16147" max="16149" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="16150" max="16150" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16151" max="16152" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16153" max="16154" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16151" max="16152" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16153" max="16154" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="16155" max="16155" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16156" max="16158" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16159" max="16384" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16156" max="16158" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16159" max="16384" width="11.44140625" style="5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2471,44 +2459,44 @@
       <c r="E1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="I1" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="J1" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="K1" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="L1" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="M1" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="N1" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="O1" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="90" t="s">
+      <c r="Q1" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="R1" s="88" t="s">
         <v>79</v>
-      </c>
-      <c r="Q1" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>81</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>13</v>
@@ -2547,7 +2535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2583,7 +2571,7 @@
       <c r="R2" s="70"/>
       <c r="S2" s="19" t="str">
         <f>IF(ISBLANK(RAWDATA!F2),SUM(F2:R2),RAWDATA!F2)</f>
-        <v>applicant.sanitized_grade</v>
+        <v>attendance.sanitized_grade</v>
       </c>
       <c r="T2" s="18" t="e">
         <f>LOOKUP(S2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
@@ -2592,7 +2580,7 @@
       <c r="U2" s="12"/>
       <c r="V2" s="76" t="str">
         <f>RAWDATA!G2</f>
-        <v>applicant.ects_points</v>
+        <v>attendance.ects_points</v>
       </c>
       <c r="W2" s="20"/>
       <c r="X2" s="21" t="str">
@@ -2623,7 +2611,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2699,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2775,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2851,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2927,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3003,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3079,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3155,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3231,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3307,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3383,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3459,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3535,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3611,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3687,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3763,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3839,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3915,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3991,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4067,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4143,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4219,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4295,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4354,7 +4342,7 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="22"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4413,7 +4401,7 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="22"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <f>RAWDATA!B27</f>
         <v>0</v>
@@ -4472,7 +4460,7 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <f>RAWDATA!B28</f>
         <v>0</v>
@@ -4531,7 +4519,7 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="22"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <f>RAWDATA!B29</f>
         <v>0</v>
@@ -4590,7 +4578,7 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="22"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <f>RAWDATA!B30</f>
         <v>0</v>
@@ -4649,7 +4637,7 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="22"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <f>RAWDATA!B31</f>
         <v>0</v>
@@ -4708,7 +4696,7 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="22"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <f>RAWDATA!B32</f>
         <v>0</v>
@@ -4767,7 +4755,7 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="22"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <f>RAWDATA!B33</f>
         <v>0</v>
@@ -4826,7 +4814,7 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="22"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <f>RAWDATA!B34</f>
         <v>0</v>
@@ -4885,7 +4873,7 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="22"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <f>RAWDATA!B35</f>
         <v>0</v>
@@ -4961,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <f>RAWDATA!B36</f>
         <v>0</v>
@@ -5037,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>23</v>
@@ -5063,14 +5051,14 @@
       </c>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="77"/>
+      <c r="V37" s="23"/>
       <c r="W37" s="12"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="15"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
@@ -5085,7 +5073,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="15"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
         <v>25</v>
@@ -5112,14 +5100,14 @@
         <v>#N/A</v>
       </c>
       <c r="U39" s="12"/>
-      <c r="V39" s="77"/>
+      <c r="V39" s="23"/>
       <c r="W39" s="12"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="15"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="26"/>
@@ -5141,331 +5129,331 @@
       <c r="S40" s="27"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="79"/>
+      <c r="V40" s="26"/>
       <c r="W40" s="15"/>
       <c r="X40" s="28"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
     </row>
-    <row r="41" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="94" t="s">
+      <c r="D41" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="80"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="25"/>
       <c r="W41" s="25"/>
       <c r="X41" s="28"/>
       <c r="Y41" s="25"/>
       <c r="Z41" s="25"/>
       <c r="AA41" s="15"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="80"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="25"/>
       <c r="W42" s="25"/>
       <c r="X42" s="28"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
       <c r="AA42" s="15"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96"/>
-      <c r="V43" s="80"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="25"/>
       <c r="W43" s="25"/>
       <c r="X43" s="28"/>
       <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
       <c r="AA43" s="15"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="80"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="25"/>
       <c r="W44" s="25"/>
       <c r="X44" s="28"/>
       <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="80"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="91"/>
+      <c r="U45" s="91"/>
+      <c r="V45" s="25"/>
       <c r="W45" s="25"/>
       <c r="X45" s="28"/>
       <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
       <c r="AA45" s="15"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="97"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="81"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="15"/>
       <c r="W46" s="25"/>
       <c r="X46" s="28"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
       <c r="AA46" s="15"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="26"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="97"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="96"/>
-      <c r="V47" s="80"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="91"/>
+      <c r="U47" s="91"/>
+      <c r="V47" s="25"/>
       <c r="W47" s="25"/>
       <c r="X47" s="28"/>
       <c r="Y47" s="25"/>
       <c r="Z47" s="25"/>
       <c r="AA47" s="15"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="97"/>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="97"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="96"/>
-      <c r="U48" s="96"/>
-      <c r="V48" s="81"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="91"/>
+      <c r="U48" s="91"/>
+      <c r="V48" s="15"/>
       <c r="W48" s="15"/>
       <c r="X48" s="28"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
     </row>
   </sheetData>
@@ -5474,7 +5462,7 @@
     <mergeCell ref="D41:U48"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.2598425196850389" bottom="1.0629921259842521" header="0.59055118110236249" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" scale="82" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5486,7 +5474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5496,21 +5484,21 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="31" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="31" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="str">
         <f>Notenliste!B44</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="32" t="s">
         <v>35</v>
       </c>
@@ -5519,7 +5507,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
@@ -5527,7 +5515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -5536,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>1.3</v>
       </c>
@@ -5545,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>1.7</v>
       </c>
@@ -5554,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -5563,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -5572,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>2.7</v>
       </c>
@@ -5581,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -5590,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>3.3</v>
       </c>
@@ -5599,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>3.7</v>
       </c>
@@ -5608,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>4</v>
       </c>
@@ -5617,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
@@ -5637,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5647,64 +5635,64 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="str">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-    </row>
-    <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+    </row>
+    <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104" t="str">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99" t="str">
         <f>"Semster: "&amp;Notenliste!B47</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-    </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+    </row>
+    <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -5748,7 +5736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>1</v>
       </c>
@@ -5798,14 +5786,14 @@
       </c>
       <c r="M4" s="40" t="str">
         <f>Notenliste!S2</f>
-        <v>applicant.sanitized_grade</v>
+        <v>attendance.sanitized_grade</v>
       </c>
       <c r="N4" s="42" t="str">
         <f>UPPER(Notenliste!Y2)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40">
         <v>2</v>
       </c>
@@ -5862,7 +5850,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>3</v>
       </c>
@@ -5919,7 +5907,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>4</v>
       </c>
@@ -5976,7 +5964,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>5</v>
       </c>
@@ -6033,7 +6021,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>6</v>
       </c>
@@ -6090,7 +6078,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>7</v>
       </c>
@@ -6147,7 +6135,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>8</v>
       </c>
@@ -6204,7 +6192,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>9</v>
       </c>
@@ -6261,7 +6249,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>10</v>
       </c>
@@ -6318,7 +6306,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>11</v>
       </c>
@@ -6375,7 +6363,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>12</v>
       </c>
@@ -6432,7 +6420,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>13</v>
       </c>
@@ -6489,7 +6477,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>14</v>
       </c>
@@ -6546,7 +6534,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>15</v>
       </c>
@@ -6603,7 +6591,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>16</v>
       </c>
@@ -6660,7 +6648,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>17</v>
       </c>
@@ -6717,7 +6705,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>18</v>
       </c>
@@ -6774,7 +6762,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>19</v>
       </c>
@@ -6831,7 +6819,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>20</v>
       </c>
@@ -6888,7 +6876,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>21</v>
       </c>
@@ -6945,7 +6933,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>22</v>
       </c>
@@ -7002,7 +6990,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>23</v>
       </c>
@@ -7059,7 +7047,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>24</v>
       </c>
@@ -7116,7 +7104,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>25</v>
       </c>
@@ -7173,7 +7161,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>26</v>
       </c>
@@ -7230,7 +7218,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>27</v>
       </c>
@@ -7287,7 +7275,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>28</v>
       </c>
@@ -7344,7 +7332,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>29</v>
       </c>
@@ -7401,7 +7389,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>30</v>
       </c>
@@ -7458,7 +7446,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>31</v>
       </c>
@@ -7515,7 +7503,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>32</v>
       </c>
@@ -7572,7 +7560,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>33</v>
       </c>
@@ -7629,7 +7617,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>34</v>
       </c>
@@ -7686,7 +7674,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35</v>
       </c>
@@ -7743,7 +7731,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -7765,87 +7753,87 @@
       <c r="M39" s="43"/>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="105" t="s">
+    <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-    </row>
-    <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-    </row>
-    <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-    </row>
-    <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="101"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="99"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="106"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="96"/>
+    </row>
+    <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+    </row>
+    <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+    </row>
+    <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="94"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="101"/>
       <c r="O44" s="35"/>
     </row>
   </sheetData>
@@ -7865,7 +7853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7875,124 +7863,124 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="34" customWidth="1"/>
-    <col min="7" max="20" width="7.7109375" style="34" customWidth="1"/>
-    <col min="21" max="21" width="0.85546875" style="34" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="47" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="48" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="0.88671875" style="34" customWidth="1"/>
+    <col min="7" max="20" width="7.6640625" style="34" customWidth="1"/>
+    <col min="21" max="21" width="0.88671875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="47" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="48" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="32" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="str">
+    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="111"/>
-    </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="106"/>
+    </row>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="111"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="str">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="106"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="107" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="111"/>
-    </row>
-    <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="114" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="106"/>
+    </row>
+    <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="111" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="51"/>
@@ -8011,22 +7999,22 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="53"/>
-      <c r="V4" s="118" t="s">
+      <c r="V4" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="120" t="s">
+      <c r="W4" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="115" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="50" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="117"/>
+    <row r="5" spans="1:24" s="50" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="54"/>
       <c r="G5" s="52">
         <v>1</v>
@@ -8071,11 +8059,11 @@
         <v>14</v>
       </c>
       <c r="U5" s="55"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="114"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>1</v>
       </c>
@@ -8115,7 +8103,7 @@
       <c r="W6" s="58"/>
       <c r="X6" s="58"/>
     </row>
-    <row r="7" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>2</v>
       </c>
@@ -8155,7 +8143,7 @@
       <c r="W7" s="58"/>
       <c r="X7" s="58"/>
     </row>
-    <row r="8" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>3</v>
       </c>
@@ -8195,7 +8183,7 @@
       <c r="W8" s="58"/>
       <c r="X8" s="58"/>
     </row>
-    <row r="9" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>4</v>
       </c>
@@ -8235,7 +8223,7 @@
       <c r="W9" s="58"/>
       <c r="X9" s="58"/>
     </row>
-    <row r="10" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>5</v>
       </c>
@@ -8275,7 +8263,7 @@
       <c r="W10" s="58"/>
       <c r="X10" s="58"/>
     </row>
-    <row r="11" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>6</v>
       </c>
@@ -8315,7 +8303,7 @@
       <c r="W11" s="58"/>
       <c r="X11" s="58"/>
     </row>
-    <row r="12" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>7</v>
       </c>
@@ -8355,7 +8343,7 @@
       <c r="W12" s="58"/>
       <c r="X12" s="58"/>
     </row>
-    <row r="13" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>8</v>
       </c>
@@ -8395,7 +8383,7 @@
       <c r="W13" s="58"/>
       <c r="X13" s="58"/>
     </row>
-    <row r="14" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>9</v>
       </c>
@@ -8435,7 +8423,7 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>10</v>
       </c>
@@ -8475,7 +8463,7 @@
       <c r="W15" s="58"/>
       <c r="X15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>11</v>
       </c>
@@ -8515,7 +8503,7 @@
       <c r="W16" s="58"/>
       <c r="X16" s="58"/>
     </row>
-    <row r="17" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>12</v>
       </c>
@@ -8555,7 +8543,7 @@
       <c r="W17" s="58"/>
       <c r="X17" s="58"/>
     </row>
-    <row r="18" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>13</v>
       </c>
@@ -8595,7 +8583,7 @@
       <c r="W18" s="58"/>
       <c r="X18" s="58"/>
     </row>
-    <row r="19" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>14</v>
       </c>
@@ -8635,7 +8623,7 @@
       <c r="W19" s="58"/>
       <c r="X19" s="58"/>
     </row>
-    <row r="20" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>15</v>
       </c>
@@ -8675,7 +8663,7 @@
       <c r="W20" s="58"/>
       <c r="X20" s="58"/>
     </row>
-    <row r="21" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>16</v>
       </c>
@@ -8715,7 +8703,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
     </row>
-    <row r="22" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>17</v>
       </c>
@@ -8755,7 +8743,7 @@
       <c r="W22" s="58"/>
       <c r="X22" s="58"/>
     </row>
-    <row r="23" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>18</v>
       </c>
@@ -8795,7 +8783,7 @@
       <c r="W23" s="58"/>
       <c r="X23" s="58"/>
     </row>
-    <row r="24" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>19</v>
       </c>
@@ -8835,7 +8823,7 @@
       <c r="W24" s="58"/>
       <c r="X24" s="58"/>
     </row>
-    <row r="25" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>20</v>
       </c>
@@ -8875,7 +8863,7 @@
       <c r="W25" s="58"/>
       <c r="X25" s="58"/>
     </row>
-    <row r="26" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>21</v>
       </c>
@@ -8915,7 +8903,7 @@
       <c r="W26" s="58"/>
       <c r="X26" s="58"/>
     </row>
-    <row r="27" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>22</v>
       </c>
@@ -8955,7 +8943,7 @@
       <c r="W27" s="58"/>
       <c r="X27" s="58"/>
     </row>
-    <row r="28" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>23</v>
       </c>
@@ -8995,7 +8983,7 @@
       <c r="W28" s="58"/>
       <c r="X28" s="58"/>
     </row>
-    <row r="29" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>24</v>
       </c>
@@ -9035,7 +9023,7 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
     </row>
-    <row r="30" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>25</v>
       </c>
@@ -9075,7 +9063,7 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
     </row>
-    <row r="31" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>26</v>
       </c>
@@ -9115,7 +9103,7 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
     </row>
-    <row r="32" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>27</v>
       </c>
@@ -9155,7 +9143,7 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
     </row>
-    <row r="33" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>28</v>
       </c>
@@ -9195,7 +9183,7 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
     </row>
-    <row r="34" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>29</v>
       </c>
@@ -9235,7 +9223,7 @@
       <c r="W34" s="58"/>
       <c r="X34" s="58"/>
     </row>
-    <row r="35" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>30</v>
       </c>
@@ -9275,7 +9263,7 @@
       <c r="W35" s="58"/>
       <c r="X35" s="58"/>
     </row>
-    <row r="36" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>31</v>
       </c>
@@ -9315,7 +9303,7 @@
       <c r="W36" s="58"/>
       <c r="X36" s="58"/>
     </row>
-    <row r="37" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>32</v>
       </c>
@@ -9355,7 +9343,7 @@
       <c r="W37" s="58"/>
       <c r="X37" s="58"/>
     </row>
-    <row r="38" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>33</v>
       </c>
@@ -9395,7 +9383,7 @@
       <c r="W38" s="58"/>
       <c r="X38" s="58"/>
     </row>
-    <row r="39" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>34</v>
       </c>
@@ -9435,7 +9423,7 @@
       <c r="W39" s="58"/>
       <c r="X39" s="58"/>
     </row>
-    <row r="40" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>35</v>
       </c>
@@ -9500,25 +9488,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="59" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="61" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
@@ -9544,7 +9532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -9566,7 +9554,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -9588,7 +9576,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -9610,7 +9598,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -9632,7 +9620,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -9654,7 +9642,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -9676,7 +9664,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9698,7 +9686,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9720,7 +9708,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9742,7 +9730,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9764,7 +9752,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9786,7 +9774,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9808,7 +9796,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9830,7 +9818,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9852,7 +9840,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9874,7 +9862,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9896,7 +9884,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9918,7 +9906,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9940,7 +9928,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9962,7 +9950,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9984,7 +9972,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -10006,7 +9994,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -10028,7 +10016,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -10050,7 +10038,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -10072,7 +10060,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -10094,7 +10082,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="str">
         <f>IF(Notenliste!D27=0," ",Notenliste!D27)</f>
         <v xml:space="preserve"> </v>
@@ -10116,7 +10104,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="str">
         <f>IF(Notenliste!D28=0," ",Notenliste!D28)</f>
         <v xml:space="preserve"> </v>
@@ -10138,7 +10126,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="str">
         <f>IF(Notenliste!D29=0," ",Notenliste!D29)</f>
         <v xml:space="preserve"> </v>
@@ -10160,7 +10148,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="str">
         <f>IF(Notenliste!D30=0," ",Notenliste!D30)</f>
         <v xml:space="preserve"> </v>
@@ -10182,7 +10170,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="str">
         <f>IF(Notenliste!D31=0," ",Notenliste!D31)</f>
         <v xml:space="preserve"> </v>
@@ -10204,7 +10192,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="str">
         <f>IF(Notenliste!D32=0," ",Notenliste!D32)</f>
         <v xml:space="preserve"> </v>
@@ -10226,7 +10214,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="str">
         <f>IF(Notenliste!D33=0," ",Notenliste!D33)</f>
         <v xml:space="preserve"> </v>
@@ -10248,7 +10236,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="str">
         <f>IF(Notenliste!D34=0," ",Notenliste!D34)</f>
         <v xml:space="preserve"> </v>
@@ -10270,7 +10258,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="str">
         <f>IF(Notenliste!D35=0," ",Notenliste!D35)</f>
         <v xml:space="preserve"> </v>
@@ -10292,7 +10280,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="str">
         <f>IF(Notenliste!D36=0," ",Notenliste!D36)</f>
         <v xml:space="preserve"> </v>
@@ -10317,21 +10305,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="E1 E37:E1048576">
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="E1 E37:E1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="A1 A37:A1048576">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="A1 A37:A1048576" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289182E8-67E0-4603-9F8D-79B979FD32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815C889-B1AC-4D88-B583-BA53C7F44767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>Nr.</t>
   </si>
@@ -301,6 +301,18 @@
   <si>
     <t>attendance.ects_points</t>
   </si>
+  <si>
+    <t>Teilnahmeschein</t>
+  </si>
+  <si>
+    <t>Schein erhalten</t>
+  </si>
+  <si>
+    <t>attendance.ts_requested_str</t>
+  </si>
+  <si>
+    <t>attendance.ts_received_str</t>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +372,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +455,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -627,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -969,12 +987,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1283,18 +1317,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:J2">
-  <autoFilter ref="B1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2">
+  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Level" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Level" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon"/>
+    <tableColumn id="11" xr3:uid="{CCDF543C-BDC3-4850-8294-3FC3D79F9961}" name="Telefon" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{0EBC7429-111A-48E5-BC59-DC1B98B315F3}" name="Teilnahmeschein" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1304,15 +1340,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
   <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1531,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1547,14 +1583,16 @@
     <col min="6" max="6" width="7.33203125" style="2" customWidth="1"/>
     <col min="7" max="8" width="6.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="45.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" hidden="1"/>
+    <col min="10" max="10" width="31.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="45.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1585,14 +1623,20 @@
       <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="116" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1624,10 +1668,16 @@
         <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1635,11 +1685,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1647,11 +1697,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1659,11 +1709,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1671,11 +1721,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1683,182 +1733,182 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1901,7 +1951,7 @@
   <dimension ref="A1:WWL70"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2582,12 +2632,18 @@
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
-      <c r="W2" s="20"/>
+      <c r="W2" s="20" t="str">
+        <f>RAWDATA!K2</f>
+        <v>attendance.ts_requested_str</v>
+      </c>
       <c r="X2" s="21" t="str">
         <f t="shared" ref="X2:X9" si="0">IF(S2&gt;0,"X","")</f>
         <v>X</v>
       </c>
-      <c r="Y2" s="20"/>
+      <c r="Y2" s="20" t="str">
+        <f>RAWDATA!L2</f>
+        <v>attendance.ts_received_str</v>
+      </c>
       <c r="Z2" s="12"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="8" t="str">
@@ -2658,12 +2714,18 @@
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="20"/>
+      <c r="W3" s="20">
+        <f>RAWDATA!K3</f>
+        <v>0</v>
+      </c>
       <c r="X3" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y3" s="20"/>
+      <c r="Y3" s="20">
+        <f>RAWDATA!L3</f>
+        <v>0</v>
+      </c>
       <c r="Z3" s="12"/>
       <c r="AA3" s="15"/>
       <c r="AB3" s="8">
@@ -2734,12 +2796,18 @@
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="20"/>
+      <c r="W4" s="20">
+        <f>RAWDATA!K4</f>
+        <v>0</v>
+      </c>
       <c r="X4" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y4" s="20"/>
+      <c r="Y4" s="20">
+        <f>RAWDATA!L4</f>
+        <v>0</v>
+      </c>
       <c r="Z4" s="12"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="8">
@@ -2810,12 +2878,18 @@
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="W5" s="20"/>
+      <c r="W5" s="20">
+        <f>RAWDATA!K5</f>
+        <v>0</v>
+      </c>
       <c r="X5" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y5" s="20"/>
+      <c r="Y5" s="20">
+        <f>RAWDATA!L5</f>
+        <v>0</v>
+      </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="8">
@@ -2886,12 +2960,18 @@
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="W6" s="20"/>
+      <c r="W6" s="20">
+        <f>RAWDATA!K6</f>
+        <v>0</v>
+      </c>
       <c r="X6" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y6" s="20"/>
+      <c r="Y6" s="20">
+        <f>RAWDATA!L6</f>
+        <v>0</v>
+      </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="15"/>
       <c r="AB6" s="8">
@@ -2962,12 +3042,18 @@
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="W7" s="20"/>
+      <c r="W7" s="20">
+        <f>RAWDATA!K7</f>
+        <v>0</v>
+      </c>
       <c r="X7" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y7" s="20"/>
+      <c r="Y7" s="20">
+        <f>RAWDATA!L7</f>
+        <v>0</v>
+      </c>
       <c r="Z7" s="12"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="8">
@@ -3038,12 +3124,18 @@
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="20"/>
+      <c r="W8" s="20">
+        <f>RAWDATA!K8</f>
+        <v>0</v>
+      </c>
       <c r="X8" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="20">
+        <f>RAWDATA!L8</f>
+        <v>0</v>
+      </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="8">
@@ -3114,12 +3206,18 @@
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="W9" s="20"/>
+      <c r="W9" s="20">
+        <f>RAWDATA!K9</f>
+        <v>0</v>
+      </c>
       <c r="X9" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y9" s="20"/>
+      <c r="Y9" s="20">
+        <f>RAWDATA!L9</f>
+        <v>0</v>
+      </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="8">
@@ -3190,12 +3288,18 @@
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="20"/>
+      <c r="W10" s="20">
+        <f>RAWDATA!K10</f>
+        <v>0</v>
+      </c>
       <c r="X10" s="21" t="str">
         <f t="shared" ref="X10:X36" si="6">IF(S10&gt;0,"X","")</f>
         <v/>
       </c>
-      <c r="Y10" s="20"/>
+      <c r="Y10" s="20">
+        <f>RAWDATA!L10</f>
+        <v>0</v>
+      </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="8">
@@ -3266,12 +3370,18 @@
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="W11" s="20"/>
+      <c r="W11" s="20">
+        <f>RAWDATA!K11</f>
+        <v>0</v>
+      </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y11" s="20"/>
+      <c r="Y11" s="20">
+        <f>RAWDATA!L11</f>
+        <v>0</v>
+      </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="8">
@@ -3342,12 +3452,18 @@
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="20"/>
+      <c r="W12" s="20">
+        <f>RAWDATA!K12</f>
+        <v>0</v>
+      </c>
       <c r="X12" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y12" s="20"/>
+      <c r="Y12" s="20">
+        <f>RAWDATA!L12</f>
+        <v>0</v>
+      </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="8">
@@ -3418,12 +3534,18 @@
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="20"/>
+      <c r="W13" s="20">
+        <f>RAWDATA!K13</f>
+        <v>0</v>
+      </c>
       <c r="X13" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="20">
+        <f>RAWDATA!L13</f>
+        <v>0</v>
+      </c>
       <c r="Z13" s="12"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="8">
@@ -3494,12 +3616,18 @@
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="20"/>
+      <c r="W14" s="20">
+        <f>RAWDATA!K14</f>
+        <v>0</v>
+      </c>
       <c r="X14" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y14" s="20"/>
+      <c r="Y14" s="20">
+        <f>RAWDATA!L14</f>
+        <v>0</v>
+      </c>
       <c r="Z14" s="12"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="8">
@@ -3570,12 +3698,18 @@
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="20"/>
+      <c r="W15" s="20">
+        <f>RAWDATA!K15</f>
+        <v>0</v>
+      </c>
       <c r="X15" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y15" s="20"/>
+      <c r="Y15" s="20">
+        <f>RAWDATA!L15</f>
+        <v>0</v>
+      </c>
       <c r="Z15" s="12"/>
       <c r="AA15" s="15"/>
       <c r="AB15" s="8">
@@ -3646,12 +3780,18 @@
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="20"/>
+      <c r="W16" s="20">
+        <f>RAWDATA!K16</f>
+        <v>0</v>
+      </c>
       <c r="X16" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y16" s="20"/>
+      <c r="Y16" s="20">
+        <f>RAWDATA!L16</f>
+        <v>0</v>
+      </c>
       <c r="Z16" s="12"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="8">
@@ -3722,12 +3862,18 @@
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="W17" s="20"/>
+      <c r="W17" s="20">
+        <f>RAWDATA!K17</f>
+        <v>0</v>
+      </c>
       <c r="X17" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y17" s="20"/>
+      <c r="Y17" s="20">
+        <f>RAWDATA!L17</f>
+        <v>0</v>
+      </c>
       <c r="Z17" s="12"/>
       <c r="AA17" s="15"/>
       <c r="AB17" s="8">
@@ -3798,12 +3944,18 @@
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="W18" s="20"/>
+      <c r="W18" s="20">
+        <f>RAWDATA!K18</f>
+        <v>0</v>
+      </c>
       <c r="X18" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y18" s="20"/>
+      <c r="Y18" s="20">
+        <f>RAWDATA!L18</f>
+        <v>0</v>
+      </c>
       <c r="Z18" s="12"/>
       <c r="AA18" s="15"/>
       <c r="AB18" s="8">
@@ -3874,12 +4026,18 @@
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="W19" s="20"/>
+      <c r="W19" s="20">
+        <f>RAWDATA!K19</f>
+        <v>0</v>
+      </c>
       <c r="X19" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y19" s="20"/>
+      <c r="Y19" s="20">
+        <f>RAWDATA!L19</f>
+        <v>0</v>
+      </c>
       <c r="Z19" s="12"/>
       <c r="AA19" s="15"/>
       <c r="AB19" s="8">
@@ -3950,12 +4108,18 @@
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="W20" s="20"/>
+      <c r="W20" s="20">
+        <f>RAWDATA!K20</f>
+        <v>0</v>
+      </c>
       <c r="X20" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y20" s="20"/>
+      <c r="Y20" s="20">
+        <f>RAWDATA!L20</f>
+        <v>0</v>
+      </c>
       <c r="Z20" s="12"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="8">
@@ -4026,12 +4190,18 @@
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="W21" s="20"/>
+      <c r="W21" s="20">
+        <f>RAWDATA!K21</f>
+        <v>0</v>
+      </c>
       <c r="X21" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y21" s="20"/>
+      <c r="Y21" s="20">
+        <f>RAWDATA!L21</f>
+        <v>0</v>
+      </c>
       <c r="Z21" s="12"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="8">
@@ -4102,12 +4272,18 @@
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="W22" s="20"/>
+      <c r="W22" s="20">
+        <f>RAWDATA!K22</f>
+        <v>0</v>
+      </c>
       <c r="X22" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y22" s="20"/>
+      <c r="Y22" s="20">
+        <f>RAWDATA!L22</f>
+        <v>0</v>
+      </c>
       <c r="Z22" s="12"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="8">
@@ -4178,12 +4354,18 @@
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="W23" s="20"/>
+      <c r="W23" s="20">
+        <f>RAWDATA!K23</f>
+        <v>0</v>
+      </c>
       <c r="X23" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="20">
+        <f>RAWDATA!L23</f>
+        <v>0</v>
+      </c>
       <c r="Z23" s="12"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="8">
@@ -4254,12 +4436,18 @@
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="W24" s="20"/>
+      <c r="W24" s="20">
+        <f>RAWDATA!K24</f>
+        <v>0</v>
+      </c>
       <c r="X24" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y24" s="20"/>
+      <c r="Y24" s="20">
+        <f>RAWDATA!L24</f>
+        <v>0</v>
+      </c>
       <c r="Z24" s="12"/>
       <c r="AA24" s="15"/>
       <c r="AB24" s="8">
@@ -4330,12 +4518,18 @@
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="W25" s="20"/>
+      <c r="W25" s="20">
+        <f>RAWDATA!K25</f>
+        <v>0</v>
+      </c>
       <c r="X25" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y25" s="20"/>
+      <c r="Y25" s="20">
+        <f>RAWDATA!L25</f>
+        <v>0</v>
+      </c>
       <c r="Z25" s="12"/>
       <c r="AA25" s="15"/>
       <c r="AB25" s="8"/>
@@ -4389,12 +4583,18 @@
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="20"/>
+      <c r="W26" s="20">
+        <f>RAWDATA!K26</f>
+        <v>0</v>
+      </c>
       <c r="X26" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y26" s="20"/>
+      <c r="Y26" s="20">
+        <f>RAWDATA!L26</f>
+        <v>0</v>
+      </c>
       <c r="Z26" s="12"/>
       <c r="AA26" s="15"/>
       <c r="AB26" s="8"/>
@@ -4448,12 +4648,18 @@
         <f>RAWDATA!G27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="20"/>
+      <c r="W27" s="20">
+        <f>RAWDATA!K27</f>
+        <v>0</v>
+      </c>
       <c r="X27" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y27" s="20"/>
+      <c r="Y27" s="20">
+        <f>RAWDATA!L27</f>
+        <v>0</v>
+      </c>
       <c r="Z27" s="12"/>
       <c r="AA27" s="15"/>
       <c r="AB27" s="8"/>
@@ -4507,12 +4713,18 @@
         <f>RAWDATA!G28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="20"/>
+      <c r="W28" s="20">
+        <f>RAWDATA!K28</f>
+        <v>0</v>
+      </c>
       <c r="X28" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="20">
+        <f>RAWDATA!L28</f>
+        <v>0</v>
+      </c>
       <c r="Z28" s="12"/>
       <c r="AA28" s="15"/>
       <c r="AB28" s="8"/>
@@ -4566,12 +4778,18 @@
         <f>RAWDATA!G29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="20"/>
+      <c r="W29" s="20">
+        <f>RAWDATA!K29</f>
+        <v>0</v>
+      </c>
       <c r="X29" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y29" s="20"/>
+      <c r="Y29" s="20">
+        <f>RAWDATA!L29</f>
+        <v>0</v>
+      </c>
       <c r="Z29" s="12"/>
       <c r="AA29" s="15"/>
       <c r="AB29" s="8"/>
@@ -4625,12 +4843,18 @@
         <f>RAWDATA!G30</f>
         <v>0</v>
       </c>
-      <c r="W30" s="20"/>
+      <c r="W30" s="20">
+        <f>RAWDATA!K30</f>
+        <v>0</v>
+      </c>
       <c r="X30" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y30" s="20"/>
+      <c r="Y30" s="20">
+        <f>RAWDATA!L30</f>
+        <v>0</v>
+      </c>
       <c r="Z30" s="12"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="8"/>
@@ -4684,12 +4908,18 @@
         <f>RAWDATA!G31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="20"/>
+      <c r="W31" s="20">
+        <f>RAWDATA!K31</f>
+        <v>0</v>
+      </c>
       <c r="X31" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y31" s="20"/>
+      <c r="Y31" s="20">
+        <f>RAWDATA!L31</f>
+        <v>0</v>
+      </c>
       <c r="Z31" s="12"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="8"/>
@@ -4743,12 +4973,18 @@
         <f>RAWDATA!G32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="20"/>
+      <c r="W32" s="20">
+        <f>RAWDATA!K32</f>
+        <v>0</v>
+      </c>
       <c r="X32" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y32" s="20"/>
+      <c r="Y32" s="20">
+        <f>RAWDATA!L32</f>
+        <v>0</v>
+      </c>
       <c r="Z32" s="12"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="8"/>
@@ -4802,12 +5038,18 @@
         <f>RAWDATA!G33</f>
         <v>0</v>
       </c>
-      <c r="W33" s="20"/>
+      <c r="W33" s="20">
+        <f>RAWDATA!K33</f>
+        <v>0</v>
+      </c>
       <c r="X33" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y33" s="20"/>
+      <c r="Y33" s="20">
+        <f>RAWDATA!L33</f>
+        <v>0</v>
+      </c>
       <c r="Z33" s="12"/>
       <c r="AA33" s="15"/>
       <c r="AB33" s="8"/>
@@ -4861,12 +5103,18 @@
         <f>RAWDATA!G34</f>
         <v>0</v>
       </c>
-      <c r="W34" s="20"/>
+      <c r="W34" s="20">
+        <f>RAWDATA!K34</f>
+        <v>0</v>
+      </c>
       <c r="X34" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y34" s="20"/>
+      <c r="Y34" s="20">
+        <f>RAWDATA!L34</f>
+        <v>0</v>
+      </c>
       <c r="Z34" s="12"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="8"/>
@@ -4920,12 +5168,18 @@
         <f>RAWDATA!G35</f>
         <v>0</v>
       </c>
-      <c r="W35" s="20"/>
+      <c r="W35" s="20">
+        <f>RAWDATA!K35</f>
+        <v>0</v>
+      </c>
       <c r="X35" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y35" s="20"/>
+      <c r="Y35" s="20">
+        <f>RAWDATA!L35</f>
+        <v>0</v>
+      </c>
       <c r="Z35" s="12"/>
       <c r="AA35" s="15"/>
       <c r="AB35" s="8">
@@ -4996,12 +5250,18 @@
         <f>RAWDATA!G36</f>
         <v>0</v>
       </c>
-      <c r="W36" s="20"/>
+      <c r="W36" s="20">
+        <f>RAWDATA!K36</f>
+        <v>0</v>
+      </c>
       <c r="X36" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y36" s="20"/>
+      <c r="Y36" s="20">
+        <f>RAWDATA!L36</f>
+        <v>0</v>
+      </c>
       <c r="Z36" s="12"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="8">
@@ -5761,20 +6021,20 @@
         <v>applicant.mail</v>
       </c>
       <c r="G4" s="41" t="str">
-        <f>RAWDATA!J2</f>
-        <v>applicant.phone</v>
+        <f>RAWDATA!L2</f>
+        <v>attendance.ts_received_str</v>
       </c>
       <c r="H4" s="42" t="str">
-        <f>RAWDATA!K2</f>
+        <f>RAWDATA!M2</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I4" s="42">
-        <f>RAWDATA!L2</f>
+        <f>RAWDATA!N2</f>
         <v>0</v>
       </c>
       <c r="J4" s="40" t="str">
         <f>UPPER(Notenliste!W2)</f>
-        <v/>
+        <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="40" t="e">
         <f t="shared" ref="K4:K9" si="0">IF(L4&lt;=4,"X","")</f>
@@ -5790,7 +6050,7 @@
       </c>
       <c r="N4" s="42" t="str">
         <f>UPPER(Notenliste!Y2)</f>
-        <v/>
+        <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -5818,20 +6078,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="41">
-        <f>RAWDATA!J3</f>
+        <f>RAWDATA!L3</f>
         <v>0</v>
       </c>
       <c r="H5" s="42" t="str">
-        <f>RAWDATA!K3</f>
+        <f>RAWDATA!M3</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I5" s="42">
-        <f>RAWDATA!L3</f>
+        <f>RAWDATA!N3</f>
         <v>0</v>
       </c>
       <c r="J5" s="40" t="str">
         <f>UPPER(Notenliste!W3)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" s="40" t="str">
         <f t="shared" si="0"/>
@@ -5847,7 +6107,7 @@
       </c>
       <c r="N5" s="42" t="str">
         <f>UPPER(Notenliste!Y3)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -5875,20 +6135,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="41">
-        <f>RAWDATA!J4</f>
+        <f>RAWDATA!L4</f>
         <v>0</v>
       </c>
       <c r="H6" s="42" t="str">
-        <f>RAWDATA!K4</f>
+        <f>RAWDATA!M4</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I6" s="42">
-        <f>RAWDATA!L4</f>
+        <f>RAWDATA!N4</f>
         <v>0</v>
       </c>
       <c r="J6" s="40" t="str">
         <f>UPPER(Notenliste!W4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" s="40" t="str">
         <f t="shared" si="0"/>
@@ -5904,7 +6164,7 @@
       </c>
       <c r="N6" s="42" t="str">
         <f>UPPER(Notenliste!Y4)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -5932,20 +6192,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="41">
-        <f>RAWDATA!J5</f>
+        <f>RAWDATA!L5</f>
         <v>0</v>
       </c>
       <c r="H7" s="42" t="str">
-        <f>RAWDATA!K5</f>
+        <f>RAWDATA!M5</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I7" s="42">
-        <f>RAWDATA!L5</f>
+        <f>RAWDATA!N5</f>
         <v>0</v>
       </c>
       <c r="J7" s="40" t="str">
         <f>UPPER(Notenliste!W5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="40" t="str">
         <f t="shared" si="0"/>
@@ -5961,7 +6221,7 @@
       </c>
       <c r="N7" s="42" t="str">
         <f>UPPER(Notenliste!Y5)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -5989,20 +6249,20 @@
         <v>0</v>
       </c>
       <c r="G8" s="41">
-        <f>RAWDATA!J6</f>
+        <f>RAWDATA!L6</f>
         <v>0</v>
       </c>
       <c r="H8" s="42" t="str">
-        <f>RAWDATA!K6</f>
+        <f>RAWDATA!M6</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I8" s="42">
-        <f>RAWDATA!L6</f>
+        <f>RAWDATA!N6</f>
         <v>0</v>
       </c>
       <c r="J8" s="40" t="str">
         <f>UPPER(Notenliste!W6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K8" s="40" t="str">
         <f t="shared" si="0"/>
@@ -6018,7 +6278,7 @@
       </c>
       <c r="N8" s="42" t="str">
         <f>UPPER(Notenliste!Y6)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6046,20 +6306,20 @@
         <v>0</v>
       </c>
       <c r="G9" s="41">
-        <f>RAWDATA!J7</f>
+        <f>RAWDATA!L7</f>
         <v>0</v>
       </c>
       <c r="H9" s="42" t="str">
-        <f>RAWDATA!K7</f>
+        <f>RAWDATA!M7</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I9" s="42">
-        <f>RAWDATA!L7</f>
+        <f>RAWDATA!N7</f>
         <v>0</v>
       </c>
       <c r="J9" s="40" t="str">
         <f>UPPER(Notenliste!W7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K9" s="40" t="str">
         <f t="shared" si="0"/>
@@ -6075,7 +6335,7 @@
       </c>
       <c r="N9" s="42" t="str">
         <f>UPPER(Notenliste!Y7)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6103,20 +6363,20 @@
         <v>0</v>
       </c>
       <c r="G10" s="41">
-        <f>RAWDATA!J8</f>
+        <f>RAWDATA!L8</f>
         <v>0</v>
       </c>
       <c r="H10" s="42" t="str">
-        <f>RAWDATA!K8</f>
+        <f>RAWDATA!M8</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I10" s="42">
-        <f>RAWDATA!L8</f>
+        <f>RAWDATA!N8</f>
         <v>0</v>
       </c>
       <c r="J10" s="40" t="str">
         <f>UPPER(Notenliste!W8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="40" t="str">
         <f t="shared" ref="K10:K38" si="1">IF(L10&lt;=4,"X","")</f>
@@ -6132,7 +6392,7 @@
       </c>
       <c r="N10" s="42" t="str">
         <f>UPPER(Notenliste!Y8)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6160,20 +6420,20 @@
         <v>0</v>
       </c>
       <c r="G11" s="41">
-        <f>RAWDATA!J9</f>
+        <f>RAWDATA!L9</f>
         <v>0</v>
       </c>
       <c r="H11" s="42" t="str">
-        <f>RAWDATA!K9</f>
+        <f>RAWDATA!M9</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I11" s="42">
-        <f>RAWDATA!L9</f>
+        <f>RAWDATA!N9</f>
         <v>0</v>
       </c>
       <c r="J11" s="40" t="str">
         <f>UPPER(Notenliste!W9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K11" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6189,7 +6449,7 @@
       </c>
       <c r="N11" s="42" t="str">
         <f>UPPER(Notenliste!Y9)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6217,20 +6477,20 @@
         <v>0</v>
       </c>
       <c r="G12" s="41">
-        <f>RAWDATA!J10</f>
+        <f>RAWDATA!L10</f>
         <v>0</v>
       </c>
       <c r="H12" s="42" t="str">
-        <f>RAWDATA!K10</f>
+        <f>RAWDATA!M10</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I12" s="42">
-        <f>RAWDATA!L10</f>
+        <f>RAWDATA!N10</f>
         <v>0</v>
       </c>
       <c r="J12" s="40" t="str">
         <f>UPPER(Notenliste!W10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K12" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6246,7 +6506,7 @@
       </c>
       <c r="N12" s="42" t="str">
         <f>UPPER(Notenliste!Y10)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6274,20 +6534,20 @@
         <v>0</v>
       </c>
       <c r="G13" s="41">
-        <f>RAWDATA!J11</f>
+        <f>RAWDATA!L11</f>
         <v>0</v>
       </c>
       <c r="H13" s="42" t="str">
-        <f>RAWDATA!K11</f>
+        <f>RAWDATA!M11</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I13" s="42">
-        <f>RAWDATA!L11</f>
+        <f>RAWDATA!N11</f>
         <v>0</v>
       </c>
       <c r="J13" s="40" t="str">
         <f>UPPER(Notenliste!W11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K13" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6303,7 +6563,7 @@
       </c>
       <c r="N13" s="42" t="str">
         <f>UPPER(Notenliste!Y11)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6331,20 +6591,20 @@
         <v>0</v>
       </c>
       <c r="G14" s="41">
-        <f>RAWDATA!J12</f>
+        <f>RAWDATA!L12</f>
         <v>0</v>
       </c>
       <c r="H14" s="42" t="str">
-        <f>RAWDATA!K12</f>
+        <f>RAWDATA!M12</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I14" s="42">
-        <f>RAWDATA!L12</f>
+        <f>RAWDATA!N12</f>
         <v>0</v>
       </c>
       <c r="J14" s="40" t="str">
         <f>UPPER(Notenliste!W12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K14" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6360,7 +6620,7 @@
       </c>
       <c r="N14" s="42" t="str">
         <f>UPPER(Notenliste!Y12)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6388,20 +6648,20 @@
         <v>0</v>
       </c>
       <c r="G15" s="41">
-        <f>RAWDATA!J13</f>
+        <f>RAWDATA!L13</f>
         <v>0</v>
       </c>
       <c r="H15" s="42" t="str">
-        <f>RAWDATA!K13</f>
+        <f>RAWDATA!M13</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I15" s="42">
-        <f>RAWDATA!L13</f>
+        <f>RAWDATA!N13</f>
         <v>0</v>
       </c>
       <c r="J15" s="40" t="str">
         <f>UPPER(Notenliste!W13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K15" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6417,7 +6677,7 @@
       </c>
       <c r="N15" s="42" t="str">
         <f>UPPER(Notenliste!Y13)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6445,20 +6705,20 @@
         <v>0</v>
       </c>
       <c r="G16" s="41">
-        <f>RAWDATA!J14</f>
+        <f>RAWDATA!L14</f>
         <v>0</v>
       </c>
       <c r="H16" s="42" t="str">
-        <f>RAWDATA!K14</f>
+        <f>RAWDATA!M14</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I16" s="42">
-        <f>RAWDATA!L14</f>
+        <f>RAWDATA!N14</f>
         <v>0</v>
       </c>
       <c r="J16" s="40" t="str">
         <f>UPPER(Notenliste!W14)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K16" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6474,7 +6734,7 @@
       </c>
       <c r="N16" s="42" t="str">
         <f>UPPER(Notenliste!Y14)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6502,20 +6762,20 @@
         <v>0</v>
       </c>
       <c r="G17" s="41">
-        <f>RAWDATA!J15</f>
+        <f>RAWDATA!L15</f>
         <v>0</v>
       </c>
       <c r="H17" s="42" t="str">
-        <f>RAWDATA!K15</f>
+        <f>RAWDATA!M15</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I17" s="42">
-        <f>RAWDATA!L15</f>
+        <f>RAWDATA!N15</f>
         <v>0</v>
       </c>
       <c r="J17" s="40" t="str">
         <f>UPPER(Notenliste!W15)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K17" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6531,7 +6791,7 @@
       </c>
       <c r="N17" s="42" t="str">
         <f>UPPER(Notenliste!Y15)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6559,20 +6819,20 @@
         <v>0</v>
       </c>
       <c r="G18" s="41">
-        <f>RAWDATA!J16</f>
+        <f>RAWDATA!L16</f>
         <v>0</v>
       </c>
       <c r="H18" s="42" t="str">
-        <f>RAWDATA!K16</f>
+        <f>RAWDATA!M16</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I18" s="42">
-        <f>RAWDATA!L16</f>
+        <f>RAWDATA!N16</f>
         <v>0</v>
       </c>
       <c r="J18" s="40" t="str">
         <f>UPPER(Notenliste!W16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K18" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6588,7 +6848,7 @@
       </c>
       <c r="N18" s="42" t="str">
         <f>UPPER(Notenliste!Y16)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6616,20 +6876,20 @@
         <v>0</v>
       </c>
       <c r="G19" s="41">
-        <f>RAWDATA!J17</f>
+        <f>RAWDATA!L17</f>
         <v>0</v>
       </c>
       <c r="H19" s="42" t="str">
-        <f>RAWDATA!K17</f>
+        <f>RAWDATA!M17</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I19" s="42">
-        <f>RAWDATA!L17</f>
+        <f>RAWDATA!N17</f>
         <v>0</v>
       </c>
       <c r="J19" s="40" t="str">
         <f>UPPER(Notenliste!W17)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K19" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6645,7 +6905,7 @@
       </c>
       <c r="N19" s="42" t="str">
         <f>UPPER(Notenliste!Y17)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6673,20 +6933,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="41">
-        <f>RAWDATA!J18</f>
+        <f>RAWDATA!L18</f>
         <v>0</v>
       </c>
       <c r="H20" s="42" t="str">
-        <f>RAWDATA!K18</f>
+        <f>RAWDATA!M18</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I20" s="42">
-        <f>RAWDATA!L18</f>
+        <f>RAWDATA!N18</f>
         <v>0</v>
       </c>
       <c r="J20" s="40" t="str">
         <f>UPPER(Notenliste!W18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K20" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6702,7 +6962,7 @@
       </c>
       <c r="N20" s="42" t="str">
         <f>UPPER(Notenliste!Y18)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6730,20 +6990,20 @@
         <v>0</v>
       </c>
       <c r="G21" s="41">
-        <f>RAWDATA!J19</f>
+        <f>RAWDATA!L19</f>
         <v>0</v>
       </c>
       <c r="H21" s="42" t="str">
-        <f>RAWDATA!K19</f>
+        <f>RAWDATA!M19</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I21" s="42">
-        <f>RAWDATA!L19</f>
+        <f>RAWDATA!N19</f>
         <v>0</v>
       </c>
       <c r="J21" s="40" t="str">
         <f>UPPER(Notenliste!W19)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K21" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6759,7 +7019,7 @@
       </c>
       <c r="N21" s="42" t="str">
         <f>UPPER(Notenliste!Y19)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6787,20 +7047,20 @@
         <v>0</v>
       </c>
       <c r="G22" s="41">
-        <f>RAWDATA!J20</f>
+        <f>RAWDATA!L20</f>
         <v>0</v>
       </c>
       <c r="H22" s="42" t="str">
-        <f>RAWDATA!K20</f>
+        <f>RAWDATA!M20</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I22" s="42">
-        <f>RAWDATA!L20</f>
+        <f>RAWDATA!N20</f>
         <v>0</v>
       </c>
       <c r="J22" s="40" t="str">
         <f>UPPER(Notenliste!W20)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K22" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6816,7 +7076,7 @@
       </c>
       <c r="N22" s="42" t="str">
         <f>UPPER(Notenliste!Y20)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6844,20 +7104,20 @@
         <v>0</v>
       </c>
       <c r="G23" s="41">
-        <f>RAWDATA!J21</f>
+        <f>RAWDATA!L21</f>
         <v>0</v>
       </c>
       <c r="H23" s="42" t="str">
-        <f>RAWDATA!K21</f>
+        <f>RAWDATA!M21</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I23" s="42">
-        <f>RAWDATA!L21</f>
+        <f>RAWDATA!N21</f>
         <v>0</v>
       </c>
       <c r="J23" s="40" t="str">
         <f>UPPER(Notenliste!W21)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K23" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6873,7 +7133,7 @@
       </c>
       <c r="N23" s="42" t="str">
         <f>UPPER(Notenliste!Y21)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6901,20 +7161,20 @@
         <v>0</v>
       </c>
       <c r="G24" s="41">
-        <f>RAWDATA!J22</f>
+        <f>RAWDATA!L22</f>
         <v>0</v>
       </c>
       <c r="H24" s="42" t="str">
-        <f>RAWDATA!K22</f>
+        <f>RAWDATA!M22</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I24" s="42">
-        <f>RAWDATA!L22</f>
+        <f>RAWDATA!N22</f>
         <v>0</v>
       </c>
       <c r="J24" s="40" t="str">
         <f>UPPER(Notenliste!W22)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K24" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6930,7 +7190,7 @@
       </c>
       <c r="N24" s="42" t="str">
         <f>UPPER(Notenliste!Y22)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6958,20 +7218,20 @@
         <v>0</v>
       </c>
       <c r="G25" s="41">
-        <f>RAWDATA!J23</f>
+        <f>RAWDATA!L23</f>
         <v>0</v>
       </c>
       <c r="H25" s="42" t="str">
-        <f>RAWDATA!K23</f>
+        <f>RAWDATA!M23</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I25" s="42">
-        <f>RAWDATA!L23</f>
+        <f>RAWDATA!N23</f>
         <v>0</v>
       </c>
       <c r="J25" s="40" t="str">
         <f>UPPER(Notenliste!W23)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K25" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6987,7 +7247,7 @@
       </c>
       <c r="N25" s="42" t="str">
         <f>UPPER(Notenliste!Y23)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7015,20 +7275,20 @@
         <v>0</v>
       </c>
       <c r="G26" s="41">
-        <f>RAWDATA!J24</f>
+        <f>RAWDATA!L24</f>
         <v>0</v>
       </c>
       <c r="H26" s="42" t="str">
-        <f>RAWDATA!K24</f>
+        <f>RAWDATA!M24</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I26" s="42">
-        <f>RAWDATA!L24</f>
+        <f>RAWDATA!N24</f>
         <v>0</v>
       </c>
       <c r="J26" s="40" t="str">
         <f>UPPER(Notenliste!W24)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K26" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7044,7 +7304,7 @@
       </c>
       <c r="N26" s="42" t="str">
         <f>UPPER(Notenliste!Y24)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7072,20 +7332,20 @@
         <v>0</v>
       </c>
       <c r="G27" s="41">
-        <f>RAWDATA!J25</f>
+        <f>RAWDATA!L25</f>
         <v>0</v>
       </c>
       <c r="H27" s="42">
-        <f>RAWDATA!K25</f>
+        <f>RAWDATA!M25</f>
         <v>0</v>
       </c>
       <c r="I27" s="42">
-        <f>RAWDATA!L25</f>
+        <f>RAWDATA!N25</f>
         <v>0</v>
       </c>
       <c r="J27" s="40" t="str">
         <f>UPPER(Notenliste!W25)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K27" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7101,7 +7361,7 @@
       </c>
       <c r="N27" s="42" t="str">
         <f>UPPER(Notenliste!Y25)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7129,20 +7389,20 @@
         <v>0</v>
       </c>
       <c r="G28" s="41">
-        <f>RAWDATA!J26</f>
+        <f>RAWDATA!L26</f>
         <v>0</v>
       </c>
       <c r="H28" s="42">
-        <f>RAWDATA!K26</f>
+        <f>RAWDATA!M26</f>
         <v>0</v>
       </c>
       <c r="I28" s="42">
-        <f>RAWDATA!L26</f>
+        <f>RAWDATA!N26</f>
         <v>0</v>
       </c>
       <c r="J28" s="40" t="str">
         <f>UPPER(Notenliste!W26)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K28" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7158,7 +7418,7 @@
       </c>
       <c r="N28" s="42" t="str">
         <f>UPPER(Notenliste!Y26)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7186,20 +7446,20 @@
         <v>0</v>
       </c>
       <c r="G29" s="41">
-        <f>RAWDATA!J27</f>
+        <f>RAWDATA!L27</f>
         <v>0</v>
       </c>
       <c r="H29" s="42">
-        <f>RAWDATA!K27</f>
+        <f>RAWDATA!M27</f>
         <v>0</v>
       </c>
       <c r="I29" s="42">
-        <f>RAWDATA!L27</f>
+        <f>RAWDATA!N27</f>
         <v>0</v>
       </c>
       <c r="J29" s="40" t="str">
         <f>UPPER(Notenliste!W27)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K29" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7215,7 +7475,7 @@
       </c>
       <c r="N29" s="42" t="str">
         <f>UPPER(Notenliste!Y27)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7243,20 +7503,20 @@
         <v>0</v>
       </c>
       <c r="G30" s="41">
-        <f>RAWDATA!J28</f>
+        <f>RAWDATA!L28</f>
         <v>0</v>
       </c>
       <c r="H30" s="42">
-        <f>RAWDATA!K28</f>
+        <f>RAWDATA!M28</f>
         <v>0</v>
       </c>
       <c r="I30" s="42">
-        <f>RAWDATA!L28</f>
+        <f>RAWDATA!N28</f>
         <v>0</v>
       </c>
       <c r="J30" s="40" t="str">
         <f>UPPER(Notenliste!W28)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K30" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7272,7 +7532,7 @@
       </c>
       <c r="N30" s="42" t="str">
         <f>UPPER(Notenliste!Y28)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7300,20 +7560,20 @@
         <v>0</v>
       </c>
       <c r="G31" s="41">
-        <f>RAWDATA!J29</f>
+        <f>RAWDATA!L29</f>
         <v>0</v>
       </c>
       <c r="H31" s="42">
-        <f>RAWDATA!K29</f>
+        <f>RAWDATA!M29</f>
         <v>0</v>
       </c>
       <c r="I31" s="42">
-        <f>RAWDATA!L29</f>
+        <f>RAWDATA!N29</f>
         <v>0</v>
       </c>
       <c r="J31" s="40" t="str">
         <f>UPPER(Notenliste!W29)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K31" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7329,7 +7589,7 @@
       </c>
       <c r="N31" s="42" t="str">
         <f>UPPER(Notenliste!Y29)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7357,20 +7617,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="41">
-        <f>RAWDATA!J30</f>
+        <f>RAWDATA!L30</f>
         <v>0</v>
       </c>
       <c r="H32" s="42">
-        <f>RAWDATA!K30</f>
+        <f>RAWDATA!M30</f>
         <v>0</v>
       </c>
       <c r="I32" s="42">
-        <f>RAWDATA!L30</f>
+        <f>RAWDATA!N30</f>
         <v>0</v>
       </c>
       <c r="J32" s="40" t="str">
         <f>UPPER(Notenliste!W30)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K32" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7386,7 +7646,7 @@
       </c>
       <c r="N32" s="42" t="str">
         <f>UPPER(Notenliste!Y30)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7414,20 +7674,20 @@
         <v>0</v>
       </c>
       <c r="G33" s="41">
-        <f>RAWDATA!J31</f>
+        <f>RAWDATA!L31</f>
         <v>0</v>
       </c>
       <c r="H33" s="42">
-        <f>RAWDATA!K31</f>
+        <f>RAWDATA!M31</f>
         <v>0</v>
       </c>
       <c r="I33" s="42">
-        <f>RAWDATA!L31</f>
+        <f>RAWDATA!N31</f>
         <v>0</v>
       </c>
       <c r="J33" s="40" t="str">
         <f>UPPER(Notenliste!W31)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K33" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7443,7 +7703,7 @@
       </c>
       <c r="N33" s="42" t="str">
         <f>UPPER(Notenliste!Y31)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7471,20 +7731,20 @@
         <v>0</v>
       </c>
       <c r="G34" s="41">
-        <f>RAWDATA!J32</f>
+        <f>RAWDATA!L32</f>
         <v>0</v>
       </c>
       <c r="H34" s="42">
-        <f>RAWDATA!K32</f>
+        <f>RAWDATA!M32</f>
         <v>0</v>
       </c>
       <c r="I34" s="42">
-        <f>RAWDATA!L32</f>
+        <f>RAWDATA!N32</f>
         <v>0</v>
       </c>
       <c r="J34" s="40" t="str">
         <f>UPPER(Notenliste!W32)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K34" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7500,7 +7760,7 @@
       </c>
       <c r="N34" s="42" t="str">
         <f>UPPER(Notenliste!Y32)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7528,20 +7788,20 @@
         <v>0</v>
       </c>
       <c r="G35" s="41">
-        <f>RAWDATA!J33</f>
+        <f>RAWDATA!L33</f>
         <v>0</v>
       </c>
       <c r="H35" s="42">
-        <f>RAWDATA!K33</f>
+        <f>RAWDATA!M33</f>
         <v>0</v>
       </c>
       <c r="I35" s="42">
-        <f>RAWDATA!L33</f>
+        <f>RAWDATA!N33</f>
         <v>0</v>
       </c>
       <c r="J35" s="40" t="str">
         <f>UPPER(Notenliste!W33)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K35" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7557,7 +7817,7 @@
       </c>
       <c r="N35" s="42" t="str">
         <f>UPPER(Notenliste!Y33)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7585,20 +7845,20 @@
         <v>0</v>
       </c>
       <c r="G36" s="41">
-        <f>RAWDATA!J34</f>
+        <f>RAWDATA!L34</f>
         <v>0</v>
       </c>
       <c r="H36" s="42">
-        <f>RAWDATA!K34</f>
+        <f>RAWDATA!M34</f>
         <v>0</v>
       </c>
       <c r="I36" s="42">
-        <f>RAWDATA!L34</f>
+        <f>RAWDATA!N34</f>
         <v>0</v>
       </c>
       <c r="J36" s="40" t="str">
         <f>UPPER(Notenliste!W34)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K36" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7614,7 +7874,7 @@
       </c>
       <c r="N36" s="42" t="str">
         <f>UPPER(Notenliste!Y34)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7642,20 +7902,20 @@
         <v>0</v>
       </c>
       <c r="G37" s="41">
-        <f>RAWDATA!J35</f>
+        <f>RAWDATA!L35</f>
         <v>0</v>
       </c>
       <c r="H37" s="42">
-        <f>RAWDATA!K35</f>
+        <f>RAWDATA!M35</f>
         <v>0</v>
       </c>
       <c r="I37" s="42">
-        <f>RAWDATA!L35</f>
+        <f>RAWDATA!N35</f>
         <v>0</v>
       </c>
       <c r="J37" s="40" t="str">
         <f>UPPER(Notenliste!W35)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K37" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7671,7 +7931,7 @@
       </c>
       <c r="N37" s="42" t="str">
         <f>UPPER(Notenliste!Y35)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7699,20 +7959,20 @@
         <v>0</v>
       </c>
       <c r="G38" s="41">
-        <f>RAWDATA!J36</f>
+        <f>RAWDATA!L36</f>
         <v>0</v>
       </c>
       <c r="H38" s="42">
-        <f>RAWDATA!K36</f>
+        <f>RAWDATA!M36</f>
         <v>0</v>
       </c>
       <c r="I38" s="42">
-        <f>RAWDATA!L36</f>
+        <f>RAWDATA!N36</f>
         <v>0</v>
       </c>
       <c r="J38" s="40" t="str">
         <f>UPPER(Notenliste!W36)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K38" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7728,7 +7988,7 @@
       </c>
       <c r="N38" s="42" t="str">
         <f>UPPER(Notenliste!Y36)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815C889-B1AC-4D88-B583-BA53C7F44767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEFB580-E51E-4BEF-BE55-9EF2C4AF0528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>Nr.</t>
   </si>
@@ -313,6 +313,15 @@
   <si>
     <t>attendance.ts_received_str</t>
   </si>
+  <si>
+    <t>bestanden</t>
+  </si>
+  <si>
+    <t>attendance.hide_grade_str</t>
+  </si>
+  <si>
+    <t>bestanden statt Note</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,19 +345,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,6 +375,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,9 +663,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -660,76 +680,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -782,7 +802,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -831,101 +851,108 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -934,15 +961,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -952,7 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -966,10 +993,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,11 +1014,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -999,16 +1027,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1028,6 +1047,34 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1317,20 +1364,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2">
-  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:M2">
+  <autoFilter ref="B1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Level" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Level" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail"/>
-    <tableColumn id="11" xr3:uid="{CCDF543C-BDC3-4850-8294-3FC3D79F9961}" name="Telefon" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0EBC7429-111A-48E5-BC59-DC1B98B315F3}" name="Teilnahmeschein" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{CCDF543C-BDC3-4850-8294-3FC3D79F9961}" name="Telefon" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{A883DFD2-FB32-40E5-919A-65C2D11AD471}" name="bestanden" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{0EBC7429-111A-48E5-BC59-DC1B98B315F3}" name="Teilnahmeschein" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1340,15 +1388,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
   <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1567,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
@@ -1584,15 +1632,16 @@
     <col min="7" max="8" width="6.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="45.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" hidden="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="45.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1623,20 +1672,23 @@
       <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="117" t="s">
+      <c r="M1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1668,16 +1720,19 @@
         <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1685,11 +1740,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1697,11 +1752,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1709,11 +1764,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1721,11 +1776,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1733,182 +1788,182 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1948,10 +2003,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WWL70"/>
+  <dimension ref="A1:WWM70"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1963,537 +2018,538 @@
     <col min="19" max="19" width="22.33203125" style="7" customWidth="1"/>
     <col min="20" max="20" width="16.88671875" style="5" customWidth="1"/>
     <col min="21" max="21" width="2.6640625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="2.6640625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="3" style="5" customWidth="1"/>
-    <col min="28" max="28" width="6.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="5" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="6.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="17.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="34" max="258" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="259" max="259" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="260" max="260" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="261" max="261" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="262" max="262" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="263" max="265" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="266" max="266" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="267" max="267" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="268" max="514" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="515" max="515" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="516" max="516" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="517" max="517" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="518" max="518" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="519" max="521" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="522" max="522" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="523" max="523" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="524" max="770" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="771" max="771" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="772" max="772" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="773" max="773" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="774" max="774" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="775" max="777" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="778" max="778" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="779" max="779" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="780" max="1026" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1027" max="1027" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1028" max="1028" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1030" max="1030" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1031" max="1033" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1034" max="1034" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1035" max="1035" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1036" max="1282" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1283" max="1283" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1284" max="1284" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1286" max="1286" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1287" max="1289" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1290" max="1290" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1291" max="1291" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1292" max="1538" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1539" max="1539" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1540" max="1540" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1542" max="1542" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1543" max="1545" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1546" max="1546" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1547" max="1547" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1548" max="1794" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1795" max="1795" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1796" max="1796" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1798" max="1798" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1799" max="1801" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1802" max="1802" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1803" max="1803" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1804" max="2050" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2051" max="2051" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2052" max="2052" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2054" max="2054" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2055" max="2057" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2058" max="2058" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2059" max="2059" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2060" max="2306" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2307" max="2307" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2308" max="2308" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2310" max="2310" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2311" max="2313" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2314" max="2314" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2315" max="2315" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2316" max="2562" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2563" max="2563" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2564" max="2564" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2566" max="2566" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2567" max="2569" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2570" max="2570" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2571" max="2571" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2572" max="2818" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2819" max="2819" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2820" max="2820" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2822" max="2822" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2823" max="2825" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2826" max="2826" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2827" max="2827" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2828" max="3074" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3075" max="3075" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3076" max="3076" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3078" max="3078" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3079" max="3081" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3082" max="3082" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3083" max="3083" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3084" max="3330" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3331" max="3331" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3332" max="3332" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3334" max="3334" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3335" max="3337" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3338" max="3338" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3339" max="3339" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3340" max="3586" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3587" max="3587" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3588" max="3588" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3590" max="3590" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3591" max="3593" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3594" max="3594" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3595" max="3595" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3596" max="3842" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3843" max="3843" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3844" max="3844" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3846" max="3846" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3847" max="3849" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3850" max="3850" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3851" max="3851" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3852" max="4098" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4099" max="4099" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4100" max="4100" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4102" max="4102" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4103" max="4105" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4106" max="4106" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4107" max="4107" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4108" max="4354" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4355" max="4355" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4356" max="4356" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4358" max="4358" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4359" max="4361" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4362" max="4362" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4363" max="4363" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4364" max="4610" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4611" max="4611" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4612" max="4612" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4614" max="4614" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4615" max="4617" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4618" max="4618" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4619" max="4619" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4620" max="4866" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4867" max="4867" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4868" max="4868" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4870" max="4870" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4871" max="4873" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4874" max="4874" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4875" max="4875" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4876" max="5122" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5123" max="5123" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5124" max="5124" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5126" max="5126" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5127" max="5129" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5130" max="5130" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5131" max="5131" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5132" max="5378" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5379" max="5379" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5380" max="5380" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5382" max="5382" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5383" max="5385" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5386" max="5386" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5387" max="5387" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5388" max="5634" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5635" max="5635" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5636" max="5636" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5638" max="5638" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5639" max="5641" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5642" max="5642" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5643" max="5643" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5644" max="5890" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5891" max="5891" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5892" max="5892" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5894" max="5894" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5895" max="5897" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5898" max="5898" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5899" max="5899" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5900" max="6146" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6147" max="6147" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6148" max="6148" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6150" max="6150" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6151" max="6153" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6154" max="6154" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6155" max="6155" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6156" max="6402" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6403" max="6403" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6404" max="6404" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6406" max="6406" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6407" max="6409" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6410" max="6410" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6411" max="6411" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6412" max="6658" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6659" max="6659" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6660" max="6660" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6662" max="6662" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6663" max="6665" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6666" max="6666" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6667" max="6667" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6668" max="6914" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6915" max="6915" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6916" max="6916" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6918" max="6918" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6919" max="6921" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6922" max="6922" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6923" max="6923" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6924" max="7170" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7171" max="7171" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7172" max="7172" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7174" max="7174" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7175" max="7177" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7178" max="7178" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7179" max="7179" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7180" max="7426" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7427" max="7427" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7428" max="7428" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7430" max="7430" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7431" max="7433" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7434" max="7434" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7435" max="7435" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7436" max="7682" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7683" max="7683" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7684" max="7684" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7686" max="7686" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7687" max="7689" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7690" max="7690" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7691" max="7691" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7692" max="7938" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7939" max="7939" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7940" max="7940" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7942" max="7942" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7943" max="7945" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7946" max="7946" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7947" max="7947" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7948" max="8194" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8195" max="8195" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8196" max="8196" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8198" max="8198" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8199" max="8201" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8202" max="8202" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8203" max="8203" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8204" max="8450" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8451" max="8451" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8452" max="8452" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8454" max="8454" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8455" max="8457" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8458" max="8458" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8459" max="8459" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8460" max="8706" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8707" max="8707" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8708" max="8708" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8710" max="8710" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8711" max="8713" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8714" max="8714" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8715" max="8715" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8716" max="8962" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8963" max="8963" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8964" max="8964" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8966" max="8966" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8967" max="8969" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8970" max="8970" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8971" max="8971" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8972" max="9218" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9219" max="9219" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9220" max="9220" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9222" max="9222" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9223" max="9225" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9226" max="9226" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9227" max="9227" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9228" max="9474" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9475" max="9475" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9476" max="9476" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9478" max="9478" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9479" max="9481" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9482" max="9482" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9483" max="9483" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9484" max="9730" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9731" max="9731" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9732" max="9732" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9734" max="9734" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9735" max="9737" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9738" max="9738" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9739" max="9739" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9740" max="9986" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9987" max="9987" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9988" max="9988" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9990" max="9990" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9991" max="9993" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9994" max="9994" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9995" max="9995" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9996" max="10242" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10243" max="10243" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10244" max="10244" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10246" max="10246" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10247" max="10249" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10250" max="10250" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10251" max="10251" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10252" max="10498" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10499" max="10499" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10500" max="10500" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10502" max="10502" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10503" max="10505" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10506" max="10506" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10507" max="10507" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10508" max="10754" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10755" max="10755" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10756" max="10756" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10758" max="10758" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10759" max="10761" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10762" max="10762" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10763" max="10763" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10764" max="11010" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11011" max="11011" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11012" max="11012" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11014" max="11014" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11015" max="11017" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11018" max="11018" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11019" max="11019" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11020" max="11266" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11267" max="11267" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11268" max="11268" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11270" max="11270" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11271" max="11273" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11274" max="11274" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11275" max="11275" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11276" max="11522" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11523" max="11523" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11524" max="11524" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11526" max="11526" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11527" max="11529" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11530" max="11530" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11531" max="11531" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11532" max="11778" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11779" max="11779" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11780" max="11780" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11782" max="11782" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11783" max="11785" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11786" max="11786" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11787" max="11787" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11788" max="12034" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12035" max="12035" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12036" max="12036" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12038" max="12038" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12039" max="12041" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12042" max="12042" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12043" max="12043" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12044" max="12290" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12291" max="12291" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12292" max="12292" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12294" max="12294" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12295" max="12297" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12298" max="12298" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12299" max="12299" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12300" max="12546" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12547" max="12547" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12548" max="12548" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12550" max="12550" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12551" max="12553" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12554" max="12554" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12555" max="12555" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12556" max="12802" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12803" max="12803" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12804" max="12804" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12806" max="12806" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12807" max="12809" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12810" max="12810" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12811" max="12811" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12812" max="13058" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13059" max="13059" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13060" max="13060" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13062" max="13062" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13063" max="13065" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13066" max="13066" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13067" max="13067" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13068" max="13314" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13315" max="13315" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13316" max="13316" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13318" max="13318" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13319" max="13321" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13322" max="13322" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13323" max="13323" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13324" max="13570" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13571" max="13571" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13572" max="13572" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13574" max="13574" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13575" max="13577" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13578" max="13578" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13579" max="13579" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13580" max="13826" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13827" max="13827" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13828" max="13828" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13830" max="13830" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13831" max="13833" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13834" max="13834" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13835" max="13835" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13836" max="14082" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14083" max="14083" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14084" max="14084" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14086" max="14086" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14087" max="14089" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14090" max="14090" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14091" max="14091" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14092" max="14338" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14339" max="14339" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14340" max="14340" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14342" max="14342" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14343" max="14345" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14346" max="14346" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14347" max="14347" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14348" max="14594" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14595" max="14595" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14596" max="14596" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14598" max="14598" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14599" max="14601" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14602" max="14602" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14603" max="14603" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14604" max="14850" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14851" max="14851" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14852" max="14852" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14854" max="14854" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14855" max="14857" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14858" max="14858" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14859" max="14859" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14860" max="15106" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15107" max="15107" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15108" max="15108" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15110" max="15110" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15111" max="15113" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15114" max="15114" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15115" max="15115" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15116" max="15362" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15363" max="15363" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15364" max="15364" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15366" max="15366" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15367" max="15369" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15370" max="15370" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15371" max="15371" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15372" max="15618" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15619" max="15619" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15620" max="15620" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15622" max="15622" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15623" max="15625" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15626" max="15626" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15627" max="15627" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15628" max="15874" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15875" max="15875" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15876" max="15876" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15878" max="15878" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15879" max="15881" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15882" max="15882" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15883" max="15883" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15884" max="16130" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16131" max="16131" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16132" max="16132" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="16134" max="16134" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="16135" max="16137" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16138" max="16138" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16139" max="16139" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16140" max="16142" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16143" max="16143" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16144" max="16144" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16145" max="16145" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="16146" max="16146" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="16147" max="16149" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16150" max="16150" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16151" max="16152" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16153" max="16154" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16155" max="16155" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16156" max="16158" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16159" max="16384" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="4.88671875" style="5" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="2.6640625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="3" style="5" customWidth="1"/>
+    <col min="29" max="29" width="6.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" style="5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="6.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="17.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="35" max="259" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="260" max="260" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="261" max="261" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="262" max="262" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="263" max="263" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="264" max="266" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="267" max="267" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="268" max="268" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="269" max="515" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="516" max="516" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="517" max="517" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="518" max="518" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="519" max="519" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="520" max="522" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="523" max="523" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="524" max="524" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="525" max="771" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="772" max="772" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="773" max="773" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="774" max="774" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="775" max="775" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="776" max="778" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="779" max="779" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="780" max="780" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="781" max="1027" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1028" max="1028" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1029" max="1029" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1030" max="1030" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1031" max="1031" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1032" max="1034" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1035" max="1035" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="1036" max="1036" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1037" max="1283" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1284" max="1284" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1285" max="1285" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1286" max="1286" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1287" max="1287" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1288" max="1290" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1291" max="1291" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="1292" max="1292" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1293" max="1539" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1540" max="1540" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1541" max="1541" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1542" max="1542" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1543" max="1543" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1544" max="1546" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1547" max="1547" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="1548" max="1548" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1549" max="1795" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1796" max="1796" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1797" max="1797" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1798" max="1798" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1799" max="1799" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1800" max="1802" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1803" max="1803" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="1804" max="1804" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1805" max="2051" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2052" max="2052" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2053" max="2053" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2054" max="2054" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2055" max="2055" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2056" max="2058" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2059" max="2059" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="2060" max="2060" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2061" max="2307" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2308" max="2308" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2309" max="2309" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2310" max="2310" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2311" max="2311" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2312" max="2314" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2315" max="2315" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="2316" max="2316" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2317" max="2563" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2564" max="2564" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2565" max="2565" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2566" max="2566" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2567" max="2567" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2568" max="2570" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2571" max="2571" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="2572" max="2572" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2573" max="2819" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2820" max="2820" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2821" max="2821" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2822" max="2822" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2823" max="2823" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2824" max="2826" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2827" max="2827" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="2828" max="2828" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2829" max="3075" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3076" max="3076" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3077" max="3077" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3078" max="3078" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3079" max="3079" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3080" max="3082" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3083" max="3083" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="3084" max="3084" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3085" max="3331" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3332" max="3332" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3333" max="3333" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3334" max="3334" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3335" max="3335" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3336" max="3338" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3339" max="3339" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="3340" max="3340" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3341" max="3587" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3588" max="3588" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3589" max="3589" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3590" max="3590" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3591" max="3591" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3592" max="3594" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3595" max="3595" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="3596" max="3596" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3597" max="3843" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3844" max="3844" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3845" max="3845" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3846" max="3846" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3847" max="3847" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3848" max="3850" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3851" max="3851" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="3852" max="3852" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3853" max="4099" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4100" max="4100" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4101" max="4101" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4102" max="4102" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4103" max="4103" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4104" max="4106" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4107" max="4107" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="4108" max="4108" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4109" max="4355" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4356" max="4356" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4357" max="4357" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4358" max="4358" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4359" max="4359" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4360" max="4362" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4363" max="4363" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="4364" max="4364" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4365" max="4611" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4612" max="4612" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4613" max="4613" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4614" max="4614" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4615" max="4615" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4616" max="4618" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4619" max="4619" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="4620" max="4620" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4621" max="4867" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4868" max="4868" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4869" max="4869" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4870" max="4870" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4871" max="4871" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4872" max="4874" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4875" max="4875" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="4876" max="4876" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4877" max="5123" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5124" max="5124" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5125" max="5125" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5126" max="5126" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5127" max="5127" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5128" max="5130" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5131" max="5131" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="5132" max="5132" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5133" max="5379" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5380" max="5380" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5381" max="5381" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5382" max="5382" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5383" max="5383" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5384" max="5386" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5387" max="5387" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="5388" max="5388" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5389" max="5635" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5636" max="5636" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5637" max="5637" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5638" max="5638" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5639" max="5639" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5640" max="5642" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5643" max="5643" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="5644" max="5644" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5645" max="5891" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5892" max="5892" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5893" max="5893" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5894" max="5894" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5895" max="5895" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5896" max="5898" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5899" max="5899" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="5900" max="5900" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5901" max="6147" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6148" max="6148" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6149" max="6149" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6150" max="6150" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6151" max="6151" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6152" max="6154" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6155" max="6155" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="6156" max="6156" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6157" max="6403" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6404" max="6404" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6405" max="6405" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6406" max="6406" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6407" max="6407" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6408" max="6410" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6411" max="6411" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="6412" max="6412" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6413" max="6659" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6660" max="6660" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6661" max="6661" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6662" max="6662" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6663" max="6663" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6664" max="6666" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6667" max="6667" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="6668" max="6668" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6669" max="6915" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6916" max="6916" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6917" max="6917" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6918" max="6918" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6919" max="6919" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6920" max="6922" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6923" max="6923" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="6924" max="6924" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6925" max="7171" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7172" max="7172" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7173" max="7173" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7174" max="7174" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7175" max="7175" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7176" max="7178" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7179" max="7179" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="7180" max="7180" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7181" max="7427" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7428" max="7428" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7429" max="7429" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7430" max="7430" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7431" max="7431" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7432" max="7434" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7435" max="7435" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="7436" max="7436" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7437" max="7683" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7684" max="7684" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7685" max="7685" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7686" max="7686" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7687" max="7687" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7688" max="7690" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7691" max="7691" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="7692" max="7692" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7693" max="7939" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7940" max="7940" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7941" max="7941" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7942" max="7942" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7943" max="7943" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7944" max="7946" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7947" max="7947" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="7948" max="7948" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7949" max="8195" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8196" max="8196" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8197" max="8197" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8198" max="8198" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8199" max="8199" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8200" max="8202" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8203" max="8203" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="8204" max="8204" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8205" max="8451" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8452" max="8452" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8453" max="8453" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8454" max="8454" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8455" max="8455" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8456" max="8458" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8459" max="8459" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="8460" max="8460" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8461" max="8707" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8708" max="8708" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8709" max="8709" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8710" max="8710" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8711" max="8711" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8712" max="8714" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8715" max="8715" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="8716" max="8716" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8717" max="8963" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8964" max="8964" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8965" max="8965" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8966" max="8966" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8967" max="8967" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8968" max="8970" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8971" max="8971" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="8972" max="8972" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8973" max="9219" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9220" max="9220" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9221" max="9221" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9222" max="9222" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9223" max="9223" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9224" max="9226" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9227" max="9227" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="9228" max="9228" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9229" max="9475" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9476" max="9476" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9477" max="9477" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9478" max="9478" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9479" max="9479" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9480" max="9482" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9483" max="9483" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="9484" max="9484" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9485" max="9731" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9732" max="9732" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9733" max="9733" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9734" max="9734" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9735" max="9735" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9736" max="9738" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9739" max="9739" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="9740" max="9740" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9741" max="9987" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9988" max="9988" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9989" max="9989" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9990" max="9990" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9991" max="9991" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9992" max="9994" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9995" max="9995" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="9996" max="9996" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9997" max="10243" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10244" max="10244" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10245" max="10245" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10246" max="10246" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10247" max="10247" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10248" max="10250" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10251" max="10251" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="10252" max="10252" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10253" max="10499" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10500" max="10500" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10501" max="10501" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10502" max="10502" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10503" max="10503" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10504" max="10506" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10507" max="10507" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="10508" max="10508" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10509" max="10755" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10756" max="10756" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10757" max="10757" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10758" max="10758" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10759" max="10759" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10760" max="10762" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10763" max="10763" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="10764" max="10764" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10765" max="11011" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11012" max="11012" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11013" max="11013" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11014" max="11014" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11015" max="11015" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11016" max="11018" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11019" max="11019" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="11020" max="11020" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11021" max="11267" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11268" max="11268" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11269" max="11269" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11270" max="11270" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11271" max="11271" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11272" max="11274" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11275" max="11275" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="11276" max="11276" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11277" max="11523" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11524" max="11524" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11525" max="11525" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11526" max="11526" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11527" max="11527" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11528" max="11530" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11531" max="11531" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="11532" max="11532" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11533" max="11779" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11780" max="11780" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11781" max="11781" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11782" max="11782" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11783" max="11783" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11784" max="11786" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11787" max="11787" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="11788" max="11788" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11789" max="12035" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12036" max="12036" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12037" max="12037" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12038" max="12038" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12039" max="12039" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12040" max="12042" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12043" max="12043" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="12044" max="12044" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12045" max="12291" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12292" max="12292" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12293" max="12293" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12294" max="12294" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12295" max="12295" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12296" max="12298" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12299" max="12299" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="12300" max="12300" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12301" max="12547" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12548" max="12548" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12549" max="12549" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12550" max="12550" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12551" max="12551" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12552" max="12554" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12555" max="12555" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="12556" max="12556" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12557" max="12803" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12804" max="12804" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12805" max="12805" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12806" max="12806" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12807" max="12807" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12808" max="12810" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12811" max="12811" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="12812" max="12812" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12813" max="13059" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13060" max="13060" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13061" max="13061" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13062" max="13062" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13063" max="13063" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13064" max="13066" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13067" max="13067" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="13068" max="13068" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13069" max="13315" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13316" max="13316" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13317" max="13317" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13318" max="13318" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13319" max="13319" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13320" max="13322" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13323" max="13323" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="13324" max="13324" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13325" max="13571" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13572" max="13572" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13573" max="13573" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13574" max="13574" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13575" max="13575" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13576" max="13578" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13579" max="13579" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="13580" max="13580" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13581" max="13827" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13828" max="13828" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13829" max="13829" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13830" max="13830" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13831" max="13831" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13832" max="13834" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13835" max="13835" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="13836" max="13836" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13837" max="14083" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14084" max="14084" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14085" max="14085" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14086" max="14086" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14087" max="14087" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14088" max="14090" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14091" max="14091" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="14092" max="14092" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14093" max="14339" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14340" max="14340" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14341" max="14341" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14342" max="14342" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14343" max="14343" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14344" max="14346" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14347" max="14347" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="14348" max="14348" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14349" max="14595" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14596" max="14596" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14597" max="14597" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14598" max="14598" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14599" max="14599" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14600" max="14602" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14603" max="14603" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="14604" max="14604" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14605" max="14851" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14852" max="14852" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14853" max="14853" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14854" max="14854" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14855" max="14855" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14856" max="14858" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14859" max="14859" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="14860" max="14860" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14861" max="15107" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15108" max="15108" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15109" max="15109" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15110" max="15110" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15111" max="15111" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15112" max="15114" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15115" max="15115" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="15116" max="15116" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15117" max="15363" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15364" max="15364" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15365" max="15365" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15366" max="15366" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15367" max="15367" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15368" max="15370" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15371" max="15371" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="15372" max="15372" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15373" max="15619" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15620" max="15620" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15621" max="15621" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15622" max="15622" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15623" max="15623" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15624" max="15626" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15627" max="15627" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="15628" max="15628" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15629" max="15875" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15876" max="15876" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15877" max="15877" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15878" max="15878" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15879" max="15879" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15880" max="15882" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15883" max="15883" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="15884" max="15884" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15885" max="16131" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16132" max="16132" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16133" max="16133" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16134" max="16134" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="16135" max="16135" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="16136" max="16138" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16139" max="16139" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="16140" max="16140" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16141" max="16143" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16144" max="16144" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16145" max="16145" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16146" max="16146" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="16147" max="16147" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="16148" max="16150" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16151" max="16151" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="16152" max="16153" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16154" max="16155" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16156" max="16156" width="16" style="5" hidden="1" customWidth="1"/>
+    <col min="16157" max="16159" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16160" max="16384" width="11.44140625" style="5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2509,43 +2565,43 @@
       <c r="E1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="85" t="s">
+      <c r="O1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="86" t="s">
         <v>79</v>
       </c>
       <c r="S1" s="10" t="s">
@@ -2555,37 +2611,40 @@
         <v>14</v>
       </c>
       <c r="U1" s="12"/>
-      <c r="V1" s="75" t="s">
+      <c r="V1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="16" t="s">
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2628,46 +2687,50 @@
         <v>#N/A</v>
       </c>
       <c r="U2" s="12"/>
-      <c r="V2" s="76" t="str">
+      <c r="V2" s="119" t="str">
+        <f>RAWDATA!K2</f>
+        <v>attendance.hide_grade_str</v>
+      </c>
+      <c r="W2" s="118" t="str">
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
-      <c r="W2" s="20" t="str">
-        <f>RAWDATA!K2</f>
+      <c r="X2" s="20" t="str">
+        <f>RAWDATA!L2</f>
         <v>attendance.ts_requested_str</v>
       </c>
-      <c r="X2" s="21" t="str">
-        <f t="shared" ref="X2:X9" si="0">IF(S2&gt;0,"X","")</f>
+      <c r="Y2" s="21" t="str">
+        <f t="shared" ref="Y2:Y9" si="0">IF(S2&gt;0,"X","")</f>
         <v>X</v>
       </c>
-      <c r="Y2" s="20" t="str">
-        <f>RAWDATA!L2</f>
+      <c r="Z2" s="20" t="str">
+        <f>RAWDATA!M2</f>
         <v>attendance.ts_received_str</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="8" t="str">
-        <f t="shared" ref="AB2:AB9" si="1">IF(S2&gt;0,$B$43,0)</f>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="8" t="str">
+        <f t="shared" ref="AC2:AC9" si="1">IF(S2&gt;0,$B$43,0)</f>
         <v>course.ects_points</v>
       </c>
-      <c r="AC2" s="8" t="str">
-        <f t="shared" ref="AC2:AC9" si="2">IF(S2&gt;0,$B$42,0)</f>
+      <c r="AD2" s="8" t="str">
+        <f t="shared" ref="AD2:AD9" si="2">IF(S2&gt;0,$B$42,0)</f>
         <v>course.ger</v>
       </c>
-      <c r="AD2" s="22" t="e">
-        <f t="shared" ref="AD2:AD9" si="3">IF(S2&gt;0,$T$38,0)</f>
+      <c r="AE2" s="22" t="e">
+        <f t="shared" ref="AE2:AE9" si="3">IF(S2&gt;0,$T$38,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE2" s="5" t="str">
-        <f t="shared" ref="AE2:AE9" si="4">IF(S2&gt;0,$B$44,0)</f>
+      <c r="AF2" s="5" t="str">
+        <f t="shared" ref="AF2:AF9" si="4">IF(S2&gt;0,$B$44,0)</f>
         <v>course.name</v>
       </c>
-      <c r="AF2" s="5" t="str">
-        <f t="shared" ref="AF2:AF9" si="5">IF(S2&gt;0,$B$41,0)</f>
+      <c r="AG2" s="5" t="str">
+        <f t="shared" ref="AG2:AG9" si="5">IF(S2&gt;0,$B$41,0)</f>
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2710,46 +2773,50 @@
         <v>KP</v>
       </c>
       <c r="U3" s="12"/>
-      <c r="V3" s="76">
+      <c r="V3" s="119">
+        <f>RAWDATA!K3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="118">
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="20">
-        <f>RAWDATA!K3</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="21" t="str">
+      <c r="X3" s="20">
+        <f>RAWDATA!L3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y3" s="20">
-        <f>RAWDATA!L3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="8">
+      <c r="Z3" s="20">
+        <f>RAWDATA!M3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AD3" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AE3" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AF3" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AG3" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2792,46 +2859,50 @@
         <v>KP</v>
       </c>
       <c r="U4" s="12"/>
-      <c r="V4" s="76">
+      <c r="V4" s="119">
+        <f>RAWDATA!K4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="118">
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="20">
-        <f>RAWDATA!K4</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="21" t="str">
+      <c r="X4" s="20">
+        <f>RAWDATA!L4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y4" s="20">
-        <f>RAWDATA!L4</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="8">
+      <c r="Z4" s="20">
+        <f>RAWDATA!M4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AD4" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="22">
+      <c r="AE4" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AF4" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AG4" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2874,46 +2945,50 @@
         <v>KP</v>
       </c>
       <c r="U5" s="12"/>
-      <c r="V5" s="76">
+      <c r="V5" s="119">
+        <f>RAWDATA!K5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="118">
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="W5" s="20">
-        <f>RAWDATA!K5</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="21" t="str">
+      <c r="X5" s="20">
+        <f>RAWDATA!L5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y5" s="20">
-        <f>RAWDATA!L5</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="8">
+      <c r="Z5" s="20">
+        <f>RAWDATA!M5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AD5" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AE5" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AF5" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AG5" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2956,46 +3031,50 @@
         <v>KP</v>
       </c>
       <c r="U6" s="12"/>
-      <c r="V6" s="76">
+      <c r="V6" s="119">
+        <f>RAWDATA!K6</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="118">
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="W6" s="20">
-        <f>RAWDATA!K6</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="21" t="str">
+      <c r="X6" s="20">
+        <f>RAWDATA!L6</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y6" s="20">
-        <f>RAWDATA!L6</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="8">
+      <c r="Z6" s="20">
+        <f>RAWDATA!M6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AD6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AE6" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AF6" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AG6" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3038,46 +3117,50 @@
         <v>KP</v>
       </c>
       <c r="U7" s="12"/>
-      <c r="V7" s="76">
+      <c r="V7" s="119">
+        <f>RAWDATA!K7</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="118">
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="W7" s="20">
-        <f>RAWDATA!K7</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="21" t="str">
+      <c r="X7" s="20">
+        <f>RAWDATA!L7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y7" s="20">
-        <f>RAWDATA!L7</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="8">
+      <c r="Z7" s="20">
+        <f>RAWDATA!M7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AD7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="22">
+      <c r="AE7" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AF7" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AG7" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3120,46 +3203,50 @@
         <v>KP</v>
       </c>
       <c r="U8" s="12"/>
-      <c r="V8" s="76">
+      <c r="V8" s="119">
+        <f>RAWDATA!K8</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="118">
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="20">
-        <f>RAWDATA!K8</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="21" t="str">
+      <c r="X8" s="20">
+        <f>RAWDATA!L8</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y8" s="20">
-        <f>RAWDATA!L8</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="8">
+      <c r="Z8" s="20">
+        <f>RAWDATA!M8</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AD8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="22">
+      <c r="AE8" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AF8" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AG8" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3202,46 +3289,50 @@
         <v>KP</v>
       </c>
       <c r="U9" s="12"/>
-      <c r="V9" s="76">
+      <c r="V9" s="119">
+        <f>RAWDATA!K9</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="118">
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="W9" s="20">
-        <f>RAWDATA!K9</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="21" t="str">
+      <c r="X9" s="20">
+        <f>RAWDATA!L9</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y9" s="20">
-        <f>RAWDATA!L9</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="8">
+      <c r="Z9" s="20">
+        <f>RAWDATA!M9</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AD9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AE9" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AF9" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AG9" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3284,46 +3375,50 @@
         <v>KP</v>
       </c>
       <c r="U10" s="12"/>
-      <c r="V10" s="76">
+      <c r="V10" s="119">
+        <f>RAWDATA!K10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="118">
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="20">
-        <f>RAWDATA!K10</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="21" t="str">
-        <f t="shared" ref="X10:X36" si="6">IF(S10&gt;0,"X","")</f>
+      <c r="X10" s="20">
+        <f>RAWDATA!L10</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="21" t="str">
+        <f t="shared" ref="Y10:Y36" si="6">IF(S10&gt;0,"X","")</f>
         <v/>
       </c>
-      <c r="Y10" s="20">
-        <f>RAWDATA!L10</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="8">
-        <f t="shared" ref="AB10:AB36" si="7">IF(S10&gt;0,$B$43,0)</f>
-        <v>0</v>
-      </c>
+      <c r="Z10" s="20">
+        <f>RAWDATA!M10</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="15"/>
       <c r="AC10" s="8">
-        <f t="shared" ref="AC10:AC36" si="8">IF(S10&gt;0,$B$42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="22">
-        <f t="shared" ref="AD10:AD36" si="9">IF(S10&gt;0,$T$38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="5">
-        <f t="shared" ref="AE10:AE36" si="10">IF(S10&gt;0,$B$44,0)</f>
+        <f t="shared" ref="AC10:AC36" si="7">IF(S10&gt;0,$B$43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="8">
+        <f t="shared" ref="AD10:AD36" si="8">IF(S10&gt;0,$B$42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="22">
+        <f t="shared" ref="AE10:AE36" si="9">IF(S10&gt;0,$T$38,0)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="5">
-        <f t="shared" ref="AF10:AF36" si="11">IF(S10&gt;0,$B$41,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AF10:AF36" si="10">IF(S10&gt;0,$B$44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <f t="shared" ref="AG10:AG36" si="11">IF(S10&gt;0,$B$41,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3366,46 +3461,50 @@
         <v>KP</v>
       </c>
       <c r="U11" s="12"/>
-      <c r="V11" s="76">
+      <c r="V11" s="119">
+        <f>RAWDATA!K11</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="118">
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="W11" s="20">
-        <f>RAWDATA!K11</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="21" t="str">
+      <c r="X11" s="20">
+        <f>RAWDATA!L11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y11" s="20">
-        <f>RAWDATA!L11</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="8">
+      <c r="Z11" s="20">
+        <f>RAWDATA!M11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AD11" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="22">
+      <c r="AE11" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AF11" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AG11" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3448,46 +3547,50 @@
         <v>KP</v>
       </c>
       <c r="U12" s="12"/>
-      <c r="V12" s="76">
+      <c r="V12" s="119">
+        <f>RAWDATA!K12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="118">
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="20">
-        <f>RAWDATA!K12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="21" t="str">
+      <c r="X12" s="20">
+        <f>RAWDATA!L12</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y12" s="20">
-        <f>RAWDATA!L12</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="8">
+      <c r="Z12" s="20">
+        <f>RAWDATA!M12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AD12" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="22">
+      <c r="AE12" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AG12" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3530,46 +3633,50 @@
         <v>KP</v>
       </c>
       <c r="U13" s="12"/>
-      <c r="V13" s="76">
+      <c r="V13" s="119">
+        <f>RAWDATA!K13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="118">
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="20">
-        <f>RAWDATA!K13</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="21" t="str">
+      <c r="X13" s="20">
+        <f>RAWDATA!L13</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y13" s="20">
-        <f>RAWDATA!L13</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="8">
+      <c r="Z13" s="20">
+        <f>RAWDATA!M13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AD13" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="22">
+      <c r="AE13" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AF13" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AG13" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3612,46 +3719,50 @@
         <v>KP</v>
       </c>
       <c r="U14" s="12"/>
-      <c r="V14" s="76">
+      <c r="V14" s="119">
+        <f>RAWDATA!K14</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="118">
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="20">
-        <f>RAWDATA!K14</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="21" t="str">
+      <c r="X14" s="20">
+        <f>RAWDATA!L14</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y14" s="20">
-        <f>RAWDATA!L14</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="8">
+      <c r="Z14" s="20">
+        <f>RAWDATA!M14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AD14" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="22">
+      <c r="AE14" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AF14" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AG14" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3694,46 +3805,50 @@
         <v>KP</v>
       </c>
       <c r="U15" s="12"/>
-      <c r="V15" s="76">
+      <c r="V15" s="119">
+        <f>RAWDATA!K15</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="118">
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="20">
-        <f>RAWDATA!K15</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="21" t="str">
+      <c r="X15" s="20">
+        <f>RAWDATA!L15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y15" s="20">
-        <f>RAWDATA!L15</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="8">
+      <c r="Z15" s="20">
+        <f>RAWDATA!M15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AD15" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="22">
+      <c r="AE15" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AF15" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AG15" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3776,46 +3891,50 @@
         <v>KP</v>
       </c>
       <c r="U16" s="12"/>
-      <c r="V16" s="76">
+      <c r="V16" s="119">
+        <f>RAWDATA!K16</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="118">
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="20">
-        <f>RAWDATA!K16</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="21" t="str">
+      <c r="X16" s="20">
+        <f>RAWDATA!L16</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y16" s="20">
-        <f>RAWDATA!L16</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="8">
+      <c r="Z16" s="20">
+        <f>RAWDATA!M16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AD16" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="22">
+      <c r="AE16" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AF16" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AG16" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3858,46 +3977,50 @@
         <v>KP</v>
       </c>
       <c r="U17" s="12"/>
-      <c r="V17" s="76">
+      <c r="V17" s="119">
+        <f>RAWDATA!K17</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="118">
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="W17" s="20">
-        <f>RAWDATA!K17</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="21" t="str">
+      <c r="X17" s="20">
+        <f>RAWDATA!L17</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y17" s="20">
-        <f>RAWDATA!L17</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="8">
+      <c r="Z17" s="20">
+        <f>RAWDATA!M17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AD17" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="22">
+      <c r="AE17" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AF17" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AG17" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3940,46 +4063,50 @@
         <v>KP</v>
       </c>
       <c r="U18" s="12"/>
-      <c r="V18" s="76">
+      <c r="V18" s="119">
+        <f>RAWDATA!K18</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="118">
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="W18" s="20">
-        <f>RAWDATA!K18</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="21" t="str">
+      <c r="X18" s="20">
+        <f>RAWDATA!L18</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y18" s="20">
-        <f>RAWDATA!L18</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="8">
+      <c r="Z18" s="20">
+        <f>RAWDATA!M18</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AD18" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="22">
+      <c r="AE18" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AF18" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AG18" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4022,46 +4149,50 @@
         <v>KP</v>
       </c>
       <c r="U19" s="12"/>
-      <c r="V19" s="76">
+      <c r="V19" s="119">
+        <f>RAWDATA!K19</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="118">
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="W19" s="20">
-        <f>RAWDATA!K19</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="21" t="str">
+      <c r="X19" s="20">
+        <f>RAWDATA!L19</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y19" s="20">
-        <f>RAWDATA!L19</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="8">
+      <c r="Z19" s="20">
+        <f>RAWDATA!M19</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AD19" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="22">
+      <c r="AE19" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AF19" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AG19" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4104,46 +4235,50 @@
         <v>KP</v>
       </c>
       <c r="U20" s="12"/>
-      <c r="V20" s="76">
+      <c r="V20" s="119">
+        <f>RAWDATA!K20</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="118">
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="W20" s="20">
-        <f>RAWDATA!K20</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="21" t="str">
+      <c r="X20" s="20">
+        <f>RAWDATA!L20</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y20" s="20">
-        <f>RAWDATA!L20</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="8">
+      <c r="Z20" s="20">
+        <f>RAWDATA!M20</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AD20" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="22">
+      <c r="AE20" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AF20" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AG20" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4186,46 +4321,50 @@
         <v>KP</v>
       </c>
       <c r="U21" s="12"/>
-      <c r="V21" s="76">
+      <c r="V21" s="119">
+        <f>RAWDATA!K21</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="118">
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="W21" s="20">
-        <f>RAWDATA!K21</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="21" t="str">
+      <c r="X21" s="20">
+        <f>RAWDATA!L21</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y21" s="20">
-        <f>RAWDATA!L21</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="8">
+      <c r="Z21" s="20">
+        <f>RAWDATA!M21</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AD21" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="22">
+      <c r="AE21" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AF21" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AG21" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4268,46 +4407,50 @@
         <v>KP</v>
       </c>
       <c r="U22" s="12"/>
-      <c r="V22" s="76">
+      <c r="V22" s="119">
+        <f>RAWDATA!K22</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="118">
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="W22" s="20">
-        <f>RAWDATA!K22</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="21" t="str">
+      <c r="X22" s="20">
+        <f>RAWDATA!L22</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y22" s="20">
-        <f>RAWDATA!L22</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="8">
+      <c r="Z22" s="20">
+        <f>RAWDATA!M22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AD22" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="22">
+      <c r="AE22" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AF22" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AG22" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4350,46 +4493,50 @@
         <v>KP</v>
       </c>
       <c r="U23" s="12"/>
-      <c r="V23" s="76">
+      <c r="V23" s="119">
+        <f>RAWDATA!K23</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="118">
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="W23" s="20">
-        <f>RAWDATA!K23</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="21" t="str">
+      <c r="X23" s="20">
+        <f>RAWDATA!L23</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y23" s="20">
-        <f>RAWDATA!L23</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="8">
+      <c r="Z23" s="20">
+        <f>RAWDATA!M23</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AD23" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="22">
+      <c r="AE23" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AF23" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AG23" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4432,46 +4579,50 @@
         <v>KP</v>
       </c>
       <c r="U24" s="12"/>
-      <c r="V24" s="76">
+      <c r="V24" s="119">
+        <f>RAWDATA!K24</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="118">
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="W24" s="20">
-        <f>RAWDATA!K24</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="21" t="str">
+      <c r="X24" s="20">
+        <f>RAWDATA!L24</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y24" s="20">
-        <f>RAWDATA!L24</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="8">
+      <c r="Z24" s="20">
+        <f>RAWDATA!M24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AD24" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="22">
+      <c r="AE24" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AF24" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AG24" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4514,29 +4665,33 @@
         <v>KP</v>
       </c>
       <c r="U25" s="12"/>
-      <c r="V25" s="76">
+      <c r="V25" s="119">
+        <f>RAWDATA!K25</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="118">
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="W25" s="20">
-        <f>RAWDATA!K25</f>
-        <v>0</v>
-      </c>
-      <c r="X25" s="21" t="str">
+      <c r="X25" s="20">
+        <f>RAWDATA!L25</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y25" s="20">
-        <f>RAWDATA!L25</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="8"/>
+      <c r="Z25" s="20">
+        <f>RAWDATA!M25</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="15"/>
       <c r="AC25" s="8"/>
-      <c r="AD25" s="22"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="22"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4579,29 +4734,33 @@
         <v>KP</v>
       </c>
       <c r="U26" s="12"/>
-      <c r="V26" s="76">
+      <c r="V26" s="119">
+        <f>RAWDATA!K26</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="118">
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="20">
-        <f>RAWDATA!K26</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="21" t="str">
+      <c r="X26" s="20">
+        <f>RAWDATA!L26</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y26" s="20">
-        <f>RAWDATA!L26</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="8"/>
+      <c r="Z26" s="20">
+        <f>RAWDATA!M26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="15"/>
       <c r="AC26" s="8"/>
-      <c r="AD26" s="22"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="22"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <f>RAWDATA!B27</f>
         <v>0</v>
@@ -4644,29 +4803,33 @@
         <v>KP</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="76">
+      <c r="V27" s="119">
+        <f>RAWDATA!K27</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="118">
         <f>RAWDATA!G27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="20">
-        <f>RAWDATA!K27</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="21" t="str">
+      <c r="X27" s="20">
+        <f>RAWDATA!L27</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y27" s="20">
-        <f>RAWDATA!L27</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="8"/>
+      <c r="Z27" s="20">
+        <f>RAWDATA!M27</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="15"/>
       <c r="AC27" s="8"/>
-      <c r="AD27" s="22"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="22"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <f>RAWDATA!B28</f>
         <v>0</v>
@@ -4709,29 +4872,33 @@
         <v>KP</v>
       </c>
       <c r="U28" s="12"/>
-      <c r="V28" s="76">
+      <c r="V28" s="119">
+        <f>RAWDATA!K28</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="118">
         <f>RAWDATA!G28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="20">
-        <f>RAWDATA!K28</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="21" t="str">
+      <c r="X28" s="20">
+        <f>RAWDATA!L28</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y28" s="20">
-        <f>RAWDATA!L28</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="8"/>
+      <c r="Z28" s="20">
+        <f>RAWDATA!M28</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="15"/>
       <c r="AC28" s="8"/>
-      <c r="AD28" s="22"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="22"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <f>RAWDATA!B29</f>
         <v>0</v>
@@ -4774,29 +4941,33 @@
         <v>KP</v>
       </c>
       <c r="U29" s="12"/>
-      <c r="V29" s="76">
+      <c r="V29" s="119">
+        <f>RAWDATA!K29</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="118">
         <f>RAWDATA!G29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="20">
-        <f>RAWDATA!K29</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="21" t="str">
+      <c r="X29" s="20">
+        <f>RAWDATA!L29</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y29" s="20">
-        <f>RAWDATA!L29</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="8"/>
+      <c r="Z29" s="20">
+        <f>RAWDATA!M29</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="15"/>
       <c r="AC29" s="8"/>
-      <c r="AD29" s="22"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="22"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <f>RAWDATA!B30</f>
         <v>0</v>
@@ -4839,29 +5010,33 @@
         <v>KP</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="76">
+      <c r="V30" s="119">
+        <f>RAWDATA!K30</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="118">
         <f>RAWDATA!G30</f>
         <v>0</v>
       </c>
-      <c r="W30" s="20">
-        <f>RAWDATA!K30</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="21" t="str">
+      <c r="X30" s="20">
+        <f>RAWDATA!L30</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y30" s="20">
-        <f>RAWDATA!L30</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="8"/>
+      <c r="Z30" s="20">
+        <f>RAWDATA!M30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="15"/>
       <c r="AC30" s="8"/>
-      <c r="AD30" s="22"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="22"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <f>RAWDATA!B31</f>
         <v>0</v>
@@ -4904,29 +5079,33 @@
         <v>KP</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="76">
+      <c r="V31" s="119">
+        <f>RAWDATA!K31</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="118">
         <f>RAWDATA!G31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="20">
-        <f>RAWDATA!K31</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="21" t="str">
+      <c r="X31" s="20">
+        <f>RAWDATA!L31</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y31" s="20">
-        <f>RAWDATA!L31</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="8"/>
+      <c r="Z31" s="20">
+        <f>RAWDATA!M31</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="15"/>
       <c r="AC31" s="8"/>
-      <c r="AD31" s="22"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="22"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <f>RAWDATA!B32</f>
         <v>0</v>
@@ -4969,29 +5148,33 @@
         <v>KP</v>
       </c>
       <c r="U32" s="12"/>
-      <c r="V32" s="76">
+      <c r="V32" s="119">
+        <f>RAWDATA!K32</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="118">
         <f>RAWDATA!G32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="20">
-        <f>RAWDATA!K32</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="21" t="str">
+      <c r="X32" s="20">
+        <f>RAWDATA!L32</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y32" s="20">
-        <f>RAWDATA!L32</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="8"/>
+      <c r="Z32" s="20">
+        <f>RAWDATA!M32</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="15"/>
       <c r="AC32" s="8"/>
-      <c r="AD32" s="22"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="22"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <f>RAWDATA!B33</f>
         <v>0</v>
@@ -5034,29 +5217,33 @@
         <v>KP</v>
       </c>
       <c r="U33" s="12"/>
-      <c r="V33" s="76">
+      <c r="V33" s="119">
+        <f>RAWDATA!K33</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="118">
         <f>RAWDATA!G33</f>
         <v>0</v>
       </c>
-      <c r="W33" s="20">
-        <f>RAWDATA!K33</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="21" t="str">
+      <c r="X33" s="20">
+        <f>RAWDATA!L33</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y33" s="20">
-        <f>RAWDATA!L33</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="8"/>
+      <c r="Z33" s="20">
+        <f>RAWDATA!M33</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="15"/>
       <c r="AC33" s="8"/>
-      <c r="AD33" s="22"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="22"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <f>RAWDATA!B34</f>
         <v>0</v>
@@ -5099,29 +5286,33 @@
         <v>KP</v>
       </c>
       <c r="U34" s="12"/>
-      <c r="V34" s="76">
+      <c r="V34" s="119">
+        <f>RAWDATA!K34</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="118">
         <f>RAWDATA!G34</f>
         <v>0</v>
       </c>
-      <c r="W34" s="20">
-        <f>RAWDATA!K34</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="21" t="str">
+      <c r="X34" s="20">
+        <f>RAWDATA!L34</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y34" s="20">
-        <f>RAWDATA!L34</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="8"/>
+      <c r="Z34" s="20">
+        <f>RAWDATA!M34</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="15"/>
       <c r="AC34" s="8"/>
-      <c r="AD34" s="22"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="22"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <f>RAWDATA!B35</f>
         <v>0</v>
@@ -5164,46 +5355,50 @@
         <v>KP</v>
       </c>
       <c r="U35" s="12"/>
-      <c r="V35" s="76">
+      <c r="V35" s="119">
+        <f>RAWDATA!K35</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="118">
         <f>RAWDATA!G35</f>
         <v>0</v>
       </c>
-      <c r="W35" s="20">
-        <f>RAWDATA!K35</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="21" t="str">
+      <c r="X35" s="20">
+        <f>RAWDATA!L35</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y35" s="20">
-        <f>RAWDATA!L35</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="8">
+      <c r="Z35" s="20">
+        <f>RAWDATA!M35</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="8">
+      <c r="AD35" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD35" s="22">
+      <c r="AE35" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="5">
+      <c r="AF35" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF35" s="5">
+      <c r="AG35" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <f>RAWDATA!B36</f>
         <v>0</v>
@@ -5246,46 +5441,50 @@
         <v>KP</v>
       </c>
       <c r="U36" s="12"/>
-      <c r="V36" s="76">
+      <c r="V36" s="119">
+        <f>RAWDATA!K36</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="118">
         <f>RAWDATA!G36</f>
         <v>0</v>
       </c>
-      <c r="W36" s="20">
-        <f>RAWDATA!K36</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="21" t="str">
+      <c r="X36" s="20">
+        <f>RAWDATA!L36</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y36" s="20">
-        <f>RAWDATA!L36</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="8">
+      <c r="Z36" s="20">
+        <f>RAWDATA!M36</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="8">
+      <c r="AD36" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD36" s="22">
+      <c r="AE36" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="5">
+      <c r="AF36" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF36" s="5">
+      <c r="AG36" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>23</v>
@@ -5311,14 +5510,15 @@
       </c>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="16"/>
       <c r="Z37" s="12"/>
-      <c r="AA37" s="15"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="15"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
@@ -5327,13 +5527,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="16"/>
       <c r="Z38" s="12"/>
-      <c r="AA38" s="15"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="15"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
         <v>25</v>
@@ -5360,14 +5561,15 @@
         <v>#N/A</v>
       </c>
       <c r="U39" s="12"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="16"/>
       <c r="Z39" s="12"/>
-      <c r="AA39" s="15"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="15"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="26"/>
@@ -5389,14 +5591,15 @@
       <c r="S40" s="27"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="28"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
-    </row>
-    <row r="41" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB40" s="15"/>
+    </row>
+    <row r="41" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
@@ -5404,34 +5607,34 @@
         <v>80</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="89" t="s">
+      <c r="D41" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="25"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
       <c r="W41" s="25"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="28"/>
       <c r="Z41" s="25"/>
-      <c r="AA41" s="15"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="15"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>28</v>
       </c>
@@ -5439,32 +5642,32 @@
         <v>59</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="25"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
       <c r="W42" s="25"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="28"/>
       <c r="Z42" s="25"/>
-      <c r="AA42" s="15"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="15"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
@@ -5472,32 +5675,32 @@
         <v>60</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="25"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
       <c r="W43" s="25"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="28"/>
       <c r="Z43" s="25"/>
-      <c r="AA43" s="15"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="15"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>30</v>
       </c>
@@ -5505,32 +5708,32 @@
         <v>61</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="25"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
       <c r="W44" s="25"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="28"/>
       <c r="Z44" s="25"/>
-      <c r="AA44" s="15"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="15"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>31</v>
       </c>
@@ -5538,32 +5741,32 @@
         <v>62</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="25"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="93"/>
       <c r="W45" s="25"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="28"/>
       <c r="Z45" s="25"/>
-      <c r="AA45" s="15"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="15"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>32</v>
       </c>
@@ -5571,32 +5774,32 @@
         <v>63</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="91"/>
-      <c r="U46" s="91"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="25"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="93"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="28"/>
       <c r="Z46" s="25"/>
-      <c r="AA46" s="15"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="15"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>33</v>
       </c>
@@ -5604,32 +5807,32 @@
         <v>64</v>
       </c>
       <c r="C47" s="26"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="25"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
       <c r="W47" s="25"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="28"/>
       <c r="Z47" s="25"/>
-      <c r="AA47" s="15"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="15"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>34</v>
       </c>
@@ -5637,30 +5840,30 @@
         <v>65</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="92"/>
-      <c r="Q48" s="92"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="91"/>
-      <c r="U48" s="91"/>
-      <c r="V48" s="15"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="28"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -5754,11 +5957,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="95" t="str">
         <f>Notenliste!B44</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="32" t="s">
         <v>35</v>
       </c>
@@ -5912,45 +6115,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="35" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="97" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="str">
+      <c r="A2" s="99" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99" t="str">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101" t="str">
         <f>"Semster: "&amp;Notenliste!B47</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -6021,19 +6224,19 @@
         <v>applicant.mail</v>
       </c>
       <c r="G4" s="41" t="str">
-        <f>RAWDATA!L2</f>
+        <f>RAWDATA!M2</f>
         <v>attendance.ts_received_str</v>
       </c>
       <c r="H4" s="42" t="str">
-        <f>RAWDATA!M2</f>
+        <f>RAWDATA!N2</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I4" s="42">
-        <f>RAWDATA!N2</f>
+        <f>RAWDATA!O2</f>
         <v>0</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>UPPER(Notenliste!W2)</f>
+        <f>UPPER(Notenliste!X2)</f>
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="40" t="e">
@@ -6049,7 +6252,7 @@
         <v>attendance.sanitized_grade</v>
       </c>
       <c r="N4" s="42" t="str">
-        <f>UPPER(Notenliste!Y2)</f>
+        <f>UPPER(Notenliste!Z2)</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
@@ -6078,19 +6281,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="41">
-        <f>RAWDATA!L3</f>
+        <f>RAWDATA!M3</f>
         <v>0</v>
       </c>
       <c r="H5" s="42" t="str">
-        <f>RAWDATA!M3</f>
+        <f>RAWDATA!N3</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I5" s="42">
-        <f>RAWDATA!N3</f>
+        <f>RAWDATA!O3</f>
         <v>0</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f>UPPER(Notenliste!W3)</f>
+        <f>UPPER(Notenliste!X3)</f>
         <v>0</v>
       </c>
       <c r="K5" s="40" t="str">
@@ -6106,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="42" t="str">
-        <f>UPPER(Notenliste!Y3)</f>
+        <f>UPPER(Notenliste!Z3)</f>
         <v>0</v>
       </c>
     </row>
@@ -6135,19 +6338,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="41">
-        <f>RAWDATA!L4</f>
+        <f>RAWDATA!M4</f>
         <v>0</v>
       </c>
       <c r="H6" s="42" t="str">
-        <f>RAWDATA!M4</f>
+        <f>RAWDATA!N4</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I6" s="42">
-        <f>RAWDATA!N4</f>
+        <f>RAWDATA!O4</f>
         <v>0</v>
       </c>
       <c r="J6" s="40" t="str">
-        <f>UPPER(Notenliste!W4)</f>
+        <f>UPPER(Notenliste!X4)</f>
         <v>0</v>
       </c>
       <c r="K6" s="40" t="str">
@@ -6163,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="42" t="str">
-        <f>UPPER(Notenliste!Y4)</f>
+        <f>UPPER(Notenliste!Z4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6192,19 +6395,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="41">
-        <f>RAWDATA!L5</f>
+        <f>RAWDATA!M5</f>
         <v>0</v>
       </c>
       <c r="H7" s="42" t="str">
-        <f>RAWDATA!M5</f>
+        <f>RAWDATA!N5</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I7" s="42">
-        <f>RAWDATA!N5</f>
+        <f>RAWDATA!O5</f>
         <v>0</v>
       </c>
       <c r="J7" s="40" t="str">
-        <f>UPPER(Notenliste!W5)</f>
+        <f>UPPER(Notenliste!X5)</f>
         <v>0</v>
       </c>
       <c r="K7" s="40" t="str">
@@ -6220,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="42" t="str">
-        <f>UPPER(Notenliste!Y5)</f>
+        <f>UPPER(Notenliste!Z5)</f>
         <v>0</v>
       </c>
     </row>
@@ -6249,19 +6452,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="41">
-        <f>RAWDATA!L6</f>
+        <f>RAWDATA!M6</f>
         <v>0</v>
       </c>
       <c r="H8" s="42" t="str">
-        <f>RAWDATA!M6</f>
+        <f>RAWDATA!N6</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I8" s="42">
-        <f>RAWDATA!N6</f>
+        <f>RAWDATA!O6</f>
         <v>0</v>
       </c>
       <c r="J8" s="40" t="str">
-        <f>UPPER(Notenliste!W6)</f>
+        <f>UPPER(Notenliste!X6)</f>
         <v>0</v>
       </c>
       <c r="K8" s="40" t="str">
@@ -6277,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="42" t="str">
-        <f>UPPER(Notenliste!Y6)</f>
+        <f>UPPER(Notenliste!Z6)</f>
         <v>0</v>
       </c>
     </row>
@@ -6306,19 +6509,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="41">
-        <f>RAWDATA!L7</f>
+        <f>RAWDATA!M7</f>
         <v>0</v>
       </c>
       <c r="H9" s="42" t="str">
-        <f>RAWDATA!M7</f>
+        <f>RAWDATA!N7</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I9" s="42">
-        <f>RAWDATA!N7</f>
+        <f>RAWDATA!O7</f>
         <v>0</v>
       </c>
       <c r="J9" s="40" t="str">
-        <f>UPPER(Notenliste!W7)</f>
+        <f>UPPER(Notenliste!X7)</f>
         <v>0</v>
       </c>
       <c r="K9" s="40" t="str">
@@ -6334,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="42" t="str">
-        <f>UPPER(Notenliste!Y7)</f>
+        <f>UPPER(Notenliste!Z7)</f>
         <v>0</v>
       </c>
     </row>
@@ -6363,19 +6566,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="41">
-        <f>RAWDATA!L8</f>
+        <f>RAWDATA!M8</f>
         <v>0</v>
       </c>
       <c r="H10" s="42" t="str">
-        <f>RAWDATA!M8</f>
+        <f>RAWDATA!N8</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I10" s="42">
-        <f>RAWDATA!N8</f>
+        <f>RAWDATA!O8</f>
         <v>0</v>
       </c>
       <c r="J10" s="40" t="str">
-        <f>UPPER(Notenliste!W8)</f>
+        <f>UPPER(Notenliste!X8)</f>
         <v>0</v>
       </c>
       <c r="K10" s="40" t="str">
@@ -6391,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="42" t="str">
-        <f>UPPER(Notenliste!Y8)</f>
+        <f>UPPER(Notenliste!Z8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6420,19 +6623,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="41">
-        <f>RAWDATA!L9</f>
+        <f>RAWDATA!M9</f>
         <v>0</v>
       </c>
       <c r="H11" s="42" t="str">
-        <f>RAWDATA!M9</f>
+        <f>RAWDATA!N9</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I11" s="42">
-        <f>RAWDATA!N9</f>
+        <f>RAWDATA!O9</f>
         <v>0</v>
       </c>
       <c r="J11" s="40" t="str">
-        <f>UPPER(Notenliste!W9)</f>
+        <f>UPPER(Notenliste!X9)</f>
         <v>0</v>
       </c>
       <c r="K11" s="40" t="str">
@@ -6448,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="42" t="str">
-        <f>UPPER(Notenliste!Y9)</f>
+        <f>UPPER(Notenliste!Z9)</f>
         <v>0</v>
       </c>
     </row>
@@ -6477,19 +6680,19 @@
         <v>0</v>
       </c>
       <c r="G12" s="41">
-        <f>RAWDATA!L10</f>
+        <f>RAWDATA!M10</f>
         <v>0</v>
       </c>
       <c r="H12" s="42" t="str">
-        <f>RAWDATA!M10</f>
+        <f>RAWDATA!N10</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I12" s="42">
-        <f>RAWDATA!N10</f>
+        <f>RAWDATA!O10</f>
         <v>0</v>
       </c>
       <c r="J12" s="40" t="str">
-        <f>UPPER(Notenliste!W10)</f>
+        <f>UPPER(Notenliste!X10)</f>
         <v>0</v>
       </c>
       <c r="K12" s="40" t="str">
@@ -6505,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="42" t="str">
-        <f>UPPER(Notenliste!Y10)</f>
+        <f>UPPER(Notenliste!Z10)</f>
         <v>0</v>
       </c>
     </row>
@@ -6534,19 +6737,19 @@
         <v>0</v>
       </c>
       <c r="G13" s="41">
-        <f>RAWDATA!L11</f>
+        <f>RAWDATA!M11</f>
         <v>0</v>
       </c>
       <c r="H13" s="42" t="str">
-        <f>RAWDATA!M11</f>
+        <f>RAWDATA!N11</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I13" s="42">
-        <f>RAWDATA!N11</f>
+        <f>RAWDATA!O11</f>
         <v>0</v>
       </c>
       <c r="J13" s="40" t="str">
-        <f>UPPER(Notenliste!W11)</f>
+        <f>UPPER(Notenliste!X11)</f>
         <v>0</v>
       </c>
       <c r="K13" s="40" t="str">
@@ -6562,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="42" t="str">
-        <f>UPPER(Notenliste!Y11)</f>
+        <f>UPPER(Notenliste!Z11)</f>
         <v>0</v>
       </c>
     </row>
@@ -6591,19 +6794,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="41">
-        <f>RAWDATA!L12</f>
+        <f>RAWDATA!M12</f>
         <v>0</v>
       </c>
       <c r="H14" s="42" t="str">
-        <f>RAWDATA!M12</f>
+        <f>RAWDATA!N12</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I14" s="42">
-        <f>RAWDATA!N12</f>
+        <f>RAWDATA!O12</f>
         <v>0</v>
       </c>
       <c r="J14" s="40" t="str">
-        <f>UPPER(Notenliste!W12)</f>
+        <f>UPPER(Notenliste!X12)</f>
         <v>0</v>
       </c>
       <c r="K14" s="40" t="str">
@@ -6619,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="42" t="str">
-        <f>UPPER(Notenliste!Y12)</f>
+        <f>UPPER(Notenliste!Z12)</f>
         <v>0</v>
       </c>
     </row>
@@ -6648,19 +6851,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="41">
-        <f>RAWDATA!L13</f>
+        <f>RAWDATA!M13</f>
         <v>0</v>
       </c>
       <c r="H15" s="42" t="str">
-        <f>RAWDATA!M13</f>
+        <f>RAWDATA!N13</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I15" s="42">
-        <f>RAWDATA!N13</f>
+        <f>RAWDATA!O13</f>
         <v>0</v>
       </c>
       <c r="J15" s="40" t="str">
-        <f>UPPER(Notenliste!W13)</f>
+        <f>UPPER(Notenliste!X13)</f>
         <v>0</v>
       </c>
       <c r="K15" s="40" t="str">
@@ -6676,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="42" t="str">
-        <f>UPPER(Notenliste!Y13)</f>
+        <f>UPPER(Notenliste!Z13)</f>
         <v>0</v>
       </c>
     </row>
@@ -6705,19 +6908,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="41">
-        <f>RAWDATA!L14</f>
+        <f>RAWDATA!M14</f>
         <v>0</v>
       </c>
       <c r="H16" s="42" t="str">
-        <f>RAWDATA!M14</f>
+        <f>RAWDATA!N14</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I16" s="42">
-        <f>RAWDATA!N14</f>
+        <f>RAWDATA!O14</f>
         <v>0</v>
       </c>
       <c r="J16" s="40" t="str">
-        <f>UPPER(Notenliste!W14)</f>
+        <f>UPPER(Notenliste!X14)</f>
         <v>0</v>
       </c>
       <c r="K16" s="40" t="str">
@@ -6733,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="42" t="str">
-        <f>UPPER(Notenliste!Y14)</f>
+        <f>UPPER(Notenliste!Z14)</f>
         <v>0</v>
       </c>
     </row>
@@ -6762,19 +6965,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="41">
-        <f>RAWDATA!L15</f>
+        <f>RAWDATA!M15</f>
         <v>0</v>
       </c>
       <c r="H17" s="42" t="str">
-        <f>RAWDATA!M15</f>
+        <f>RAWDATA!N15</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I17" s="42">
-        <f>RAWDATA!N15</f>
+        <f>RAWDATA!O15</f>
         <v>0</v>
       </c>
       <c r="J17" s="40" t="str">
-        <f>UPPER(Notenliste!W15)</f>
+        <f>UPPER(Notenliste!X15)</f>
         <v>0</v>
       </c>
       <c r="K17" s="40" t="str">
@@ -6790,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="42" t="str">
-        <f>UPPER(Notenliste!Y15)</f>
+        <f>UPPER(Notenliste!Z15)</f>
         <v>0</v>
       </c>
     </row>
@@ -6819,19 +7022,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="41">
-        <f>RAWDATA!L16</f>
+        <f>RAWDATA!M16</f>
         <v>0</v>
       </c>
       <c r="H18" s="42" t="str">
-        <f>RAWDATA!M16</f>
+        <f>RAWDATA!N16</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I18" s="42">
-        <f>RAWDATA!N16</f>
+        <f>RAWDATA!O16</f>
         <v>0</v>
       </c>
       <c r="J18" s="40" t="str">
-        <f>UPPER(Notenliste!W16)</f>
+        <f>UPPER(Notenliste!X16)</f>
         <v>0</v>
       </c>
       <c r="K18" s="40" t="str">
@@ -6847,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="42" t="str">
-        <f>UPPER(Notenliste!Y16)</f>
+        <f>UPPER(Notenliste!Z16)</f>
         <v>0</v>
       </c>
     </row>
@@ -6876,19 +7079,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="41">
-        <f>RAWDATA!L17</f>
+        <f>RAWDATA!M17</f>
         <v>0</v>
       </c>
       <c r="H19" s="42" t="str">
-        <f>RAWDATA!M17</f>
+        <f>RAWDATA!N17</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I19" s="42">
-        <f>RAWDATA!N17</f>
+        <f>RAWDATA!O17</f>
         <v>0</v>
       </c>
       <c r="J19" s="40" t="str">
-        <f>UPPER(Notenliste!W17)</f>
+        <f>UPPER(Notenliste!X17)</f>
         <v>0</v>
       </c>
       <c r="K19" s="40" t="str">
@@ -6904,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="42" t="str">
-        <f>UPPER(Notenliste!Y17)</f>
+        <f>UPPER(Notenliste!Z17)</f>
         <v>0</v>
       </c>
     </row>
@@ -6933,19 +7136,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="41">
-        <f>RAWDATA!L18</f>
+        <f>RAWDATA!M18</f>
         <v>0</v>
       </c>
       <c r="H20" s="42" t="str">
-        <f>RAWDATA!M18</f>
+        <f>RAWDATA!N18</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I20" s="42">
-        <f>RAWDATA!N18</f>
+        <f>RAWDATA!O18</f>
         <v>0</v>
       </c>
       <c r="J20" s="40" t="str">
-        <f>UPPER(Notenliste!W18)</f>
+        <f>UPPER(Notenliste!X18)</f>
         <v>0</v>
       </c>
       <c r="K20" s="40" t="str">
@@ -6961,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="42" t="str">
-        <f>UPPER(Notenliste!Y18)</f>
+        <f>UPPER(Notenliste!Z18)</f>
         <v>0</v>
       </c>
     </row>
@@ -6990,19 +7193,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="41">
-        <f>RAWDATA!L19</f>
+        <f>RAWDATA!M19</f>
         <v>0</v>
       </c>
       <c r="H21" s="42" t="str">
-        <f>RAWDATA!M19</f>
+        <f>RAWDATA!N19</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I21" s="42">
-        <f>RAWDATA!N19</f>
+        <f>RAWDATA!O19</f>
         <v>0</v>
       </c>
       <c r="J21" s="40" t="str">
-        <f>UPPER(Notenliste!W19)</f>
+        <f>UPPER(Notenliste!X19)</f>
         <v>0</v>
       </c>
       <c r="K21" s="40" t="str">
@@ -7018,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="42" t="str">
-        <f>UPPER(Notenliste!Y19)</f>
+        <f>UPPER(Notenliste!Z19)</f>
         <v>0</v>
       </c>
     </row>
@@ -7047,19 +7250,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="41">
-        <f>RAWDATA!L20</f>
+        <f>RAWDATA!M20</f>
         <v>0</v>
       </c>
       <c r="H22" s="42" t="str">
-        <f>RAWDATA!M20</f>
+        <f>RAWDATA!N20</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I22" s="42">
-        <f>RAWDATA!N20</f>
+        <f>RAWDATA!O20</f>
         <v>0</v>
       </c>
       <c r="J22" s="40" t="str">
-        <f>UPPER(Notenliste!W20)</f>
+        <f>UPPER(Notenliste!X20)</f>
         <v>0</v>
       </c>
       <c r="K22" s="40" t="str">
@@ -7075,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="42" t="str">
-        <f>UPPER(Notenliste!Y20)</f>
+        <f>UPPER(Notenliste!Z20)</f>
         <v>0</v>
       </c>
     </row>
@@ -7104,19 +7307,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="41">
-        <f>RAWDATA!L21</f>
+        <f>RAWDATA!M21</f>
         <v>0</v>
       </c>
       <c r="H23" s="42" t="str">
-        <f>RAWDATA!M21</f>
+        <f>RAWDATA!N21</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I23" s="42">
-        <f>RAWDATA!N21</f>
+        <f>RAWDATA!O21</f>
         <v>0</v>
       </c>
       <c r="J23" s="40" t="str">
-        <f>UPPER(Notenliste!W21)</f>
+        <f>UPPER(Notenliste!X21)</f>
         <v>0</v>
       </c>
       <c r="K23" s="40" t="str">
@@ -7132,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="42" t="str">
-        <f>UPPER(Notenliste!Y21)</f>
+        <f>UPPER(Notenliste!Z21)</f>
         <v>0</v>
       </c>
     </row>
@@ -7161,19 +7364,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="41">
-        <f>RAWDATA!L22</f>
+        <f>RAWDATA!M22</f>
         <v>0</v>
       </c>
       <c r="H24" s="42" t="str">
-        <f>RAWDATA!M22</f>
+        <f>RAWDATA!N22</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I24" s="42">
-        <f>RAWDATA!N22</f>
+        <f>RAWDATA!O22</f>
         <v>0</v>
       </c>
       <c r="J24" s="40" t="str">
-        <f>UPPER(Notenliste!W22)</f>
+        <f>UPPER(Notenliste!X22)</f>
         <v>0</v>
       </c>
       <c r="K24" s="40" t="str">
@@ -7189,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="42" t="str">
-        <f>UPPER(Notenliste!Y22)</f>
+        <f>UPPER(Notenliste!Z22)</f>
         <v>0</v>
       </c>
     </row>
@@ -7218,19 +7421,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="41">
-        <f>RAWDATA!L23</f>
+        <f>RAWDATA!M23</f>
         <v>0</v>
       </c>
       <c r="H25" s="42" t="str">
-        <f>RAWDATA!M23</f>
+        <f>RAWDATA!N23</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I25" s="42">
-        <f>RAWDATA!N23</f>
+        <f>RAWDATA!O23</f>
         <v>0</v>
       </c>
       <c r="J25" s="40" t="str">
-        <f>UPPER(Notenliste!W23)</f>
+        <f>UPPER(Notenliste!X23)</f>
         <v>0</v>
       </c>
       <c r="K25" s="40" t="str">
@@ -7246,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="42" t="str">
-        <f>UPPER(Notenliste!Y23)</f>
+        <f>UPPER(Notenliste!Z23)</f>
         <v>0</v>
       </c>
     </row>
@@ -7275,19 +7478,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="41">
-        <f>RAWDATA!L24</f>
+        <f>RAWDATA!M24</f>
         <v>0</v>
       </c>
       <c r="H26" s="42" t="str">
-        <f>RAWDATA!M24</f>
+        <f>RAWDATA!N24</f>
         <v>Arabisch 1</v>
       </c>
       <c r="I26" s="42">
-        <f>RAWDATA!N24</f>
+        <f>RAWDATA!O24</f>
         <v>0</v>
       </c>
       <c r="J26" s="40" t="str">
-        <f>UPPER(Notenliste!W24)</f>
+        <f>UPPER(Notenliste!X24)</f>
         <v>0</v>
       </c>
       <c r="K26" s="40" t="str">
@@ -7303,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="42" t="str">
-        <f>UPPER(Notenliste!Y24)</f>
+        <f>UPPER(Notenliste!Z24)</f>
         <v>0</v>
       </c>
     </row>
@@ -7332,19 +7535,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="41">
-        <f>RAWDATA!L25</f>
+        <f>RAWDATA!M25</f>
         <v>0</v>
       </c>
       <c r="H27" s="42">
-        <f>RAWDATA!M25</f>
+        <f>RAWDATA!N25</f>
         <v>0</v>
       </c>
       <c r="I27" s="42">
-        <f>RAWDATA!N25</f>
+        <f>RAWDATA!O25</f>
         <v>0</v>
       </c>
       <c r="J27" s="40" t="str">
-        <f>UPPER(Notenliste!W25)</f>
+        <f>UPPER(Notenliste!X25)</f>
         <v>0</v>
       </c>
       <c r="K27" s="40" t="str">
@@ -7360,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="42" t="str">
-        <f>UPPER(Notenliste!Y25)</f>
+        <f>UPPER(Notenliste!Z25)</f>
         <v>0</v>
       </c>
     </row>
@@ -7389,19 +7592,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="41">
-        <f>RAWDATA!L26</f>
+        <f>RAWDATA!M26</f>
         <v>0</v>
       </c>
       <c r="H28" s="42">
-        <f>RAWDATA!M26</f>
+        <f>RAWDATA!N26</f>
         <v>0</v>
       </c>
       <c r="I28" s="42">
-        <f>RAWDATA!N26</f>
+        <f>RAWDATA!O26</f>
         <v>0</v>
       </c>
       <c r="J28" s="40" t="str">
-        <f>UPPER(Notenliste!W26)</f>
+        <f>UPPER(Notenliste!X26)</f>
         <v>0</v>
       </c>
       <c r="K28" s="40" t="str">
@@ -7417,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="42" t="str">
-        <f>UPPER(Notenliste!Y26)</f>
+        <f>UPPER(Notenliste!Z26)</f>
         <v>0</v>
       </c>
     </row>
@@ -7446,19 +7649,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="41">
-        <f>RAWDATA!L27</f>
+        <f>RAWDATA!M27</f>
         <v>0</v>
       </c>
       <c r="H29" s="42">
-        <f>RAWDATA!M27</f>
+        <f>RAWDATA!N27</f>
         <v>0</v>
       </c>
       <c r="I29" s="42">
-        <f>RAWDATA!N27</f>
+        <f>RAWDATA!O27</f>
         <v>0</v>
       </c>
       <c r="J29" s="40" t="str">
-        <f>UPPER(Notenliste!W27)</f>
+        <f>UPPER(Notenliste!X27)</f>
         <v>0</v>
       </c>
       <c r="K29" s="40" t="str">
@@ -7474,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="42" t="str">
-        <f>UPPER(Notenliste!Y27)</f>
+        <f>UPPER(Notenliste!Z27)</f>
         <v>0</v>
       </c>
     </row>
@@ -7503,19 +7706,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="41">
-        <f>RAWDATA!L28</f>
+        <f>RAWDATA!M28</f>
         <v>0</v>
       </c>
       <c r="H30" s="42">
-        <f>RAWDATA!M28</f>
+        <f>RAWDATA!N28</f>
         <v>0</v>
       </c>
       <c r="I30" s="42">
-        <f>RAWDATA!N28</f>
+        <f>RAWDATA!O28</f>
         <v>0</v>
       </c>
       <c r="J30" s="40" t="str">
-        <f>UPPER(Notenliste!W28)</f>
+        <f>UPPER(Notenliste!X28)</f>
         <v>0</v>
       </c>
       <c r="K30" s="40" t="str">
@@ -7531,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="42" t="str">
-        <f>UPPER(Notenliste!Y28)</f>
+        <f>UPPER(Notenliste!Z28)</f>
         <v>0</v>
       </c>
     </row>
@@ -7560,19 +7763,19 @@
         <v>0</v>
       </c>
       <c r="G31" s="41">
-        <f>RAWDATA!L29</f>
+        <f>RAWDATA!M29</f>
         <v>0</v>
       </c>
       <c r="H31" s="42">
-        <f>RAWDATA!M29</f>
+        <f>RAWDATA!N29</f>
         <v>0</v>
       </c>
       <c r="I31" s="42">
-        <f>RAWDATA!N29</f>
+        <f>RAWDATA!O29</f>
         <v>0</v>
       </c>
       <c r="J31" s="40" t="str">
-        <f>UPPER(Notenliste!W29)</f>
+        <f>UPPER(Notenliste!X29)</f>
         <v>0</v>
       </c>
       <c r="K31" s="40" t="str">
@@ -7588,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="42" t="str">
-        <f>UPPER(Notenliste!Y29)</f>
+        <f>UPPER(Notenliste!Z29)</f>
         <v>0</v>
       </c>
     </row>
@@ -7617,19 +7820,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="41">
-        <f>RAWDATA!L30</f>
+        <f>RAWDATA!M30</f>
         <v>0</v>
       </c>
       <c r="H32" s="42">
-        <f>RAWDATA!M30</f>
+        <f>RAWDATA!N30</f>
         <v>0</v>
       </c>
       <c r="I32" s="42">
-        <f>RAWDATA!N30</f>
+        <f>RAWDATA!O30</f>
         <v>0</v>
       </c>
       <c r="J32" s="40" t="str">
-        <f>UPPER(Notenliste!W30)</f>
+        <f>UPPER(Notenliste!X30)</f>
         <v>0</v>
       </c>
       <c r="K32" s="40" t="str">
@@ -7645,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="42" t="str">
-        <f>UPPER(Notenliste!Y30)</f>
+        <f>UPPER(Notenliste!Z30)</f>
         <v>0</v>
       </c>
     </row>
@@ -7674,19 +7877,19 @@
         <v>0</v>
       </c>
       <c r="G33" s="41">
-        <f>RAWDATA!L31</f>
+        <f>RAWDATA!M31</f>
         <v>0</v>
       </c>
       <c r="H33" s="42">
-        <f>RAWDATA!M31</f>
+        <f>RAWDATA!N31</f>
         <v>0</v>
       </c>
       <c r="I33" s="42">
-        <f>RAWDATA!N31</f>
+        <f>RAWDATA!O31</f>
         <v>0</v>
       </c>
       <c r="J33" s="40" t="str">
-        <f>UPPER(Notenliste!W31)</f>
+        <f>UPPER(Notenliste!X31)</f>
         <v>0</v>
       </c>
       <c r="K33" s="40" t="str">
@@ -7702,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="42" t="str">
-        <f>UPPER(Notenliste!Y31)</f>
+        <f>UPPER(Notenliste!Z31)</f>
         <v>0</v>
       </c>
     </row>
@@ -7731,19 +7934,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="41">
-        <f>RAWDATA!L32</f>
+        <f>RAWDATA!M32</f>
         <v>0</v>
       </c>
       <c r="H34" s="42">
-        <f>RAWDATA!M32</f>
+        <f>RAWDATA!N32</f>
         <v>0</v>
       </c>
       <c r="I34" s="42">
-        <f>RAWDATA!N32</f>
+        <f>RAWDATA!O32</f>
         <v>0</v>
       </c>
       <c r="J34" s="40" t="str">
-        <f>UPPER(Notenliste!W32)</f>
+        <f>UPPER(Notenliste!X32)</f>
         <v>0</v>
       </c>
       <c r="K34" s="40" t="str">
@@ -7759,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="42" t="str">
-        <f>UPPER(Notenliste!Y32)</f>
+        <f>UPPER(Notenliste!Z32)</f>
         <v>0</v>
       </c>
     </row>
@@ -7788,19 +7991,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="41">
-        <f>RAWDATA!L33</f>
+        <f>RAWDATA!M33</f>
         <v>0</v>
       </c>
       <c r="H35" s="42">
-        <f>RAWDATA!M33</f>
+        <f>RAWDATA!N33</f>
         <v>0</v>
       </c>
       <c r="I35" s="42">
-        <f>RAWDATA!N33</f>
+        <f>RAWDATA!O33</f>
         <v>0</v>
       </c>
       <c r="J35" s="40" t="str">
-        <f>UPPER(Notenliste!W33)</f>
+        <f>UPPER(Notenliste!X33)</f>
         <v>0</v>
       </c>
       <c r="K35" s="40" t="str">
@@ -7816,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="42" t="str">
-        <f>UPPER(Notenliste!Y33)</f>
+        <f>UPPER(Notenliste!Z33)</f>
         <v>0</v>
       </c>
     </row>
@@ -7845,19 +8048,19 @@
         <v>0</v>
       </c>
       <c r="G36" s="41">
-        <f>RAWDATA!L34</f>
+        <f>RAWDATA!M34</f>
         <v>0</v>
       </c>
       <c r="H36" s="42">
-        <f>RAWDATA!M34</f>
+        <f>RAWDATA!N34</f>
         <v>0</v>
       </c>
       <c r="I36" s="42">
-        <f>RAWDATA!N34</f>
+        <f>RAWDATA!O34</f>
         <v>0</v>
       </c>
       <c r="J36" s="40" t="str">
-        <f>UPPER(Notenliste!W34)</f>
+        <f>UPPER(Notenliste!X34)</f>
         <v>0</v>
       </c>
       <c r="K36" s="40" t="str">
@@ -7873,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="42" t="str">
-        <f>UPPER(Notenliste!Y34)</f>
+        <f>UPPER(Notenliste!Z34)</f>
         <v>0</v>
       </c>
     </row>
@@ -7902,19 +8105,19 @@
         <v>0</v>
       </c>
       <c r="G37" s="41">
-        <f>RAWDATA!L35</f>
+        <f>RAWDATA!M35</f>
         <v>0</v>
       </c>
       <c r="H37" s="42">
-        <f>RAWDATA!M35</f>
+        <f>RAWDATA!N35</f>
         <v>0</v>
       </c>
       <c r="I37" s="42">
-        <f>RAWDATA!N35</f>
+        <f>RAWDATA!O35</f>
         <v>0</v>
       </c>
       <c r="J37" s="40" t="str">
-        <f>UPPER(Notenliste!W35)</f>
+        <f>UPPER(Notenliste!X35)</f>
         <v>0</v>
       </c>
       <c r="K37" s="40" t="str">
@@ -7930,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="42" t="str">
-        <f>UPPER(Notenliste!Y35)</f>
+        <f>UPPER(Notenliste!Z35)</f>
         <v>0</v>
       </c>
     </row>
@@ -7959,19 +8162,19 @@
         <v>0</v>
       </c>
       <c r="G38" s="41">
-        <f>RAWDATA!L36</f>
+        <f>RAWDATA!M36</f>
         <v>0</v>
       </c>
       <c r="H38" s="42">
-        <f>RAWDATA!M36</f>
+        <f>RAWDATA!N36</f>
         <v>0</v>
       </c>
       <c r="I38" s="42">
-        <f>RAWDATA!N36</f>
+        <f>RAWDATA!O36</f>
         <v>0</v>
       </c>
       <c r="J38" s="40" t="str">
-        <f>UPPER(Notenliste!W36)</f>
+        <f>UPPER(Notenliste!X36)</f>
         <v>0</v>
       </c>
       <c r="K38" s="40" t="str">
@@ -7987,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="42" t="str">
-        <f>UPPER(Notenliste!Y36)</f>
+        <f>UPPER(Notenliste!Z36)</f>
         <v>0</v>
       </c>
     </row>
@@ -8014,86 +8217,86 @@
       <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
     </row>
     <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
     </row>
     <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
     </row>
     <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="94"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="101"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="103"/>
       <c r="O44" s="35"/>
     </row>
   </sheetData>
@@ -8142,105 +8345,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="str">
+      <c r="A1" s="105" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="106"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="108"/>
     </row>
     <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="106"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="str">
+      <c r="A3" s="109" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="106"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="108"/>
     </row>
     <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="109" t="s">
+      <c r="A4" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="113" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="51"/>
@@ -8259,22 +8462,22 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="53"/>
-      <c r="V4" s="113" t="s">
+      <c r="V4" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="115" t="s">
+      <c r="W4" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="115" t="s">
+      <c r="X4" s="117" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="50" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="112"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="54"/>
       <c r="G5" s="52">
         <v>1</v>
@@ -8319,9 +8522,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="55"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEFB580-E51E-4BEF-BE55-9EF2C4AF0528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C90661-B323-4567-86D7-50E30601D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,6 +945,14 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1013,14 +1021,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2644,7 +2644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2687,11 +2687,11 @@
         <v>#N/A</v>
       </c>
       <c r="U2" s="12"/>
-      <c r="V2" s="119" t="str">
+      <c r="V2" s="92" t="str">
         <f>RAWDATA!K2</f>
         <v>attendance.hide_grade_str</v>
       </c>
-      <c r="W2" s="118" t="str">
+      <c r="W2" s="91" t="str">
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
@@ -2773,11 +2773,11 @@
         <v>KP</v>
       </c>
       <c r="U3" s="12"/>
-      <c r="V3" s="119">
+      <c r="V3" s="92">
         <f>RAWDATA!K3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="118">
+      <c r="W3" s="91">
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
@@ -2859,11 +2859,11 @@
         <v>KP</v>
       </c>
       <c r="U4" s="12"/>
-      <c r="V4" s="119">
+      <c r="V4" s="92">
         <f>RAWDATA!K4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="118">
+      <c r="W4" s="91">
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
@@ -2945,11 +2945,11 @@
         <v>KP</v>
       </c>
       <c r="U5" s="12"/>
-      <c r="V5" s="119">
+      <c r="V5" s="92">
         <f>RAWDATA!K5</f>
         <v>0</v>
       </c>
-      <c r="W5" s="118">
+      <c r="W5" s="91">
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
@@ -3031,11 +3031,11 @@
         <v>KP</v>
       </c>
       <c r="U6" s="12"/>
-      <c r="V6" s="119">
+      <c r="V6" s="92">
         <f>RAWDATA!K6</f>
         <v>0</v>
       </c>
-      <c r="W6" s="118">
+      <c r="W6" s="91">
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
@@ -3117,11 +3117,11 @@
         <v>KP</v>
       </c>
       <c r="U7" s="12"/>
-      <c r="V7" s="119">
+      <c r="V7" s="92">
         <f>RAWDATA!K7</f>
         <v>0</v>
       </c>
-      <c r="W7" s="118">
+      <c r="W7" s="91">
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
@@ -3203,11 +3203,11 @@
         <v>KP</v>
       </c>
       <c r="U8" s="12"/>
-      <c r="V8" s="119">
+      <c r="V8" s="92">
         <f>RAWDATA!K8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="118">
+      <c r="W8" s="91">
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
@@ -3289,11 +3289,11 @@
         <v>KP</v>
       </c>
       <c r="U9" s="12"/>
-      <c r="V9" s="119">
+      <c r="V9" s="92">
         <f>RAWDATA!K9</f>
         <v>0</v>
       </c>
-      <c r="W9" s="118">
+      <c r="W9" s="91">
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
@@ -3375,11 +3375,11 @@
         <v>KP</v>
       </c>
       <c r="U10" s="12"/>
-      <c r="V10" s="119">
+      <c r="V10" s="92">
         <f>RAWDATA!K10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="118">
+      <c r="W10" s="91">
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
@@ -3461,11 +3461,11 @@
         <v>KP</v>
       </c>
       <c r="U11" s="12"/>
-      <c r="V11" s="119">
+      <c r="V11" s="92">
         <f>RAWDATA!K11</f>
         <v>0</v>
       </c>
-      <c r="W11" s="118">
+      <c r="W11" s="91">
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
@@ -3547,11 +3547,11 @@
         <v>KP</v>
       </c>
       <c r="U12" s="12"/>
-      <c r="V12" s="119">
+      <c r="V12" s="92">
         <f>RAWDATA!K12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="118">
+      <c r="W12" s="91">
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
@@ -3633,11 +3633,11 @@
         <v>KP</v>
       </c>
       <c r="U13" s="12"/>
-      <c r="V13" s="119">
+      <c r="V13" s="92">
         <f>RAWDATA!K13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="118">
+      <c r="W13" s="91">
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
@@ -3719,11 +3719,11 @@
         <v>KP</v>
       </c>
       <c r="U14" s="12"/>
-      <c r="V14" s="119">
+      <c r="V14" s="92">
         <f>RAWDATA!K14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="118">
+      <c r="W14" s="91">
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
@@ -3805,11 +3805,11 @@
         <v>KP</v>
       </c>
       <c r="U15" s="12"/>
-      <c r="V15" s="119">
+      <c r="V15" s="92">
         <f>RAWDATA!K15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="118">
+      <c r="W15" s="91">
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
@@ -3891,11 +3891,11 @@
         <v>KP</v>
       </c>
       <c r="U16" s="12"/>
-      <c r="V16" s="119">
+      <c r="V16" s="92">
         <f>RAWDATA!K16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="118">
+      <c r="W16" s="91">
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
@@ -3977,11 +3977,11 @@
         <v>KP</v>
       </c>
       <c r="U17" s="12"/>
-      <c r="V17" s="119">
+      <c r="V17" s="92">
         <f>RAWDATA!K17</f>
         <v>0</v>
       </c>
-      <c r="W17" s="118">
+      <c r="W17" s="91">
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
@@ -4063,11 +4063,11 @@
         <v>KP</v>
       </c>
       <c r="U18" s="12"/>
-      <c r="V18" s="119">
+      <c r="V18" s="92">
         <f>RAWDATA!K18</f>
         <v>0</v>
       </c>
-      <c r="W18" s="118">
+      <c r="W18" s="91">
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
@@ -4149,11 +4149,11 @@
         <v>KP</v>
       </c>
       <c r="U19" s="12"/>
-      <c r="V19" s="119">
+      <c r="V19" s="92">
         <f>RAWDATA!K19</f>
         <v>0</v>
       </c>
-      <c r="W19" s="118">
+      <c r="W19" s="91">
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
@@ -4235,11 +4235,11 @@
         <v>KP</v>
       </c>
       <c r="U20" s="12"/>
-      <c r="V20" s="119">
+      <c r="V20" s="92">
         <f>RAWDATA!K20</f>
         <v>0</v>
       </c>
-      <c r="W20" s="118">
+      <c r="W20" s="91">
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
@@ -4321,11 +4321,11 @@
         <v>KP</v>
       </c>
       <c r="U21" s="12"/>
-      <c r="V21" s="119">
+      <c r="V21" s="92">
         <f>RAWDATA!K21</f>
         <v>0</v>
       </c>
-      <c r="W21" s="118">
+      <c r="W21" s="91">
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
@@ -4407,11 +4407,11 @@
         <v>KP</v>
       </c>
       <c r="U22" s="12"/>
-      <c r="V22" s="119">
+      <c r="V22" s="92">
         <f>RAWDATA!K22</f>
         <v>0</v>
       </c>
-      <c r="W22" s="118">
+      <c r="W22" s="91">
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
@@ -4493,11 +4493,11 @@
         <v>KP</v>
       </c>
       <c r="U23" s="12"/>
-      <c r="V23" s="119">
+      <c r="V23" s="92">
         <f>RAWDATA!K23</f>
         <v>0</v>
       </c>
-      <c r="W23" s="118">
+      <c r="W23" s="91">
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
@@ -4579,11 +4579,11 @@
         <v>KP</v>
       </c>
       <c r="U24" s="12"/>
-      <c r="V24" s="119">
+      <c r="V24" s="92">
         <f>RAWDATA!K24</f>
         <v>0</v>
       </c>
-      <c r="W24" s="118">
+      <c r="W24" s="91">
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
@@ -4665,11 +4665,11 @@
         <v>KP</v>
       </c>
       <c r="U25" s="12"/>
-      <c r="V25" s="119">
+      <c r="V25" s="92">
         <f>RAWDATA!K25</f>
         <v>0</v>
       </c>
-      <c r="W25" s="118">
+      <c r="W25" s="91">
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
@@ -4734,11 +4734,11 @@
         <v>KP</v>
       </c>
       <c r="U26" s="12"/>
-      <c r="V26" s="119">
+      <c r="V26" s="92">
         <f>RAWDATA!K26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="118">
+      <c r="W26" s="91">
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
@@ -4803,11 +4803,11 @@
         <v>KP</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="119">
+      <c r="V27" s="92">
         <f>RAWDATA!K27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="118">
+      <c r="W27" s="91">
         <f>RAWDATA!G27</f>
         <v>0</v>
       </c>
@@ -4872,11 +4872,11 @@
         <v>KP</v>
       </c>
       <c r="U28" s="12"/>
-      <c r="V28" s="119">
+      <c r="V28" s="92">
         <f>RAWDATA!K28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="118">
+      <c r="W28" s="91">
         <f>RAWDATA!G28</f>
         <v>0</v>
       </c>
@@ -4941,11 +4941,11 @@
         <v>KP</v>
       </c>
       <c r="U29" s="12"/>
-      <c r="V29" s="119">
+      <c r="V29" s="92">
         <f>RAWDATA!K29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="118">
+      <c r="W29" s="91">
         <f>RAWDATA!G29</f>
         <v>0</v>
       </c>
@@ -5010,11 +5010,11 @@
         <v>KP</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="119">
+      <c r="V30" s="92">
         <f>RAWDATA!K30</f>
         <v>0</v>
       </c>
-      <c r="W30" s="118">
+      <c r="W30" s="91">
         <f>RAWDATA!G30</f>
         <v>0</v>
       </c>
@@ -5079,11 +5079,11 @@
         <v>KP</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="119">
+      <c r="V31" s="92">
         <f>RAWDATA!K31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="118">
+      <c r="W31" s="91">
         <f>RAWDATA!G31</f>
         <v>0</v>
       </c>
@@ -5148,11 +5148,11 @@
         <v>KP</v>
       </c>
       <c r="U32" s="12"/>
-      <c r="V32" s="119">
+      <c r="V32" s="92">
         <f>RAWDATA!K32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="118">
+      <c r="W32" s="91">
         <f>RAWDATA!G32</f>
         <v>0</v>
       </c>
@@ -5217,11 +5217,11 @@
         <v>KP</v>
       </c>
       <c r="U33" s="12"/>
-      <c r="V33" s="119">
+      <c r="V33" s="92">
         <f>RAWDATA!K33</f>
         <v>0</v>
       </c>
-      <c r="W33" s="118">
+      <c r="W33" s="91">
         <f>RAWDATA!G33</f>
         <v>0</v>
       </c>
@@ -5286,11 +5286,11 @@
         <v>KP</v>
       </c>
       <c r="U34" s="12"/>
-      <c r="V34" s="119">
+      <c r="V34" s="92">
         <f>RAWDATA!K34</f>
         <v>0</v>
       </c>
-      <c r="W34" s="118">
+      <c r="W34" s="91">
         <f>RAWDATA!G34</f>
         <v>0</v>
       </c>
@@ -5355,11 +5355,11 @@
         <v>KP</v>
       </c>
       <c r="U35" s="12"/>
-      <c r="V35" s="119">
+      <c r="V35" s="92">
         <f>RAWDATA!K35</f>
         <v>0</v>
       </c>
-      <c r="W35" s="118">
+      <c r="W35" s="91">
         <f>RAWDATA!G35</f>
         <v>0</v>
       </c>
@@ -5441,11 +5441,11 @@
         <v>KP</v>
       </c>
       <c r="U36" s="12"/>
-      <c r="V36" s="119">
+      <c r="V36" s="92">
         <f>RAWDATA!K36</f>
         <v>0</v>
       </c>
-      <c r="W36" s="118">
+      <c r="W36" s="91">
         <f>RAWDATA!G36</f>
         <v>0</v>
       </c>
@@ -5607,26 +5607,26 @@
         <v>80</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="91" t="s">
+      <c r="D41" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="28"/>
@@ -5642,24 +5642,24 @@
         <v>59</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="28"/>
@@ -5675,24 +5675,24 @@
         <v>60</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
       <c r="W43" s="25"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="28"/>
@@ -5708,24 +5708,24 @@
         <v>61</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
       <c r="W44" s="25"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="28"/>
@@ -5741,24 +5741,24 @@
         <v>62</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="93"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
       <c r="Y45" s="28"/>
@@ -5774,24 +5774,24 @@
         <v>63</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
       <c r="W46" s="15"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="28"/>
@@ -5807,24 +5807,24 @@
         <v>64</v>
       </c>
       <c r="C47" s="26"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="93"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="28"/>
@@ -5840,24 +5840,24 @@
         <v>65</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="92"/>
-      <c r="T48" s="93"/>
-      <c r="U48" s="93"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="95"/>
+      <c r="U48" s="95"/>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="28"/>
@@ -5957,11 +5957,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="97" t="str">
         <f>Notenliste!B44</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="98"/>
       <c r="C1" s="32" t="s">
         <v>35</v>
       </c>
@@ -6115,45 +6115,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="35" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="str">
+      <c r="A1" s="99" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
     </row>
     <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="str">
+      <c r="A2" s="101" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101" t="str">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103" t="str">
         <f>"Semster: "&amp;Notenliste!B47</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -8217,86 +8217,86 @@
       <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
     </row>
     <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
     </row>
     <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
     </row>
     <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="96"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="103"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="105"/>
       <c r="O44" s="35"/>
     </row>
   </sheetData>
@@ -8345,105 +8345,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="str">
+      <c r="A1" s="107" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="108"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="110"/>
     </row>
     <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="108"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="110"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="str">
+      <c r="A3" s="111" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="108"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="110"/>
     </row>
     <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="111" t="s">
+      <c r="A4" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="115" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="51"/>
@@ -8462,22 +8462,22 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="53"/>
-      <c r="V4" s="115" t="s">
+      <c r="V4" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="117" t="s">
+      <c r="W4" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="117" t="s">
+      <c r="X4" s="119" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="50" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="114"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="54"/>
       <c r="G5" s="52">
         <v>1</v>
@@ -8522,9 +8522,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="55"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C90661-B323-4567-86D7-50E30601D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6565AEA7-0AF0-413A-899D-0911B981C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,10 +955,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1020,6 +1022,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,7 +1623,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2006,7 +2011,7 @@
   <dimension ref="A1:WWM70"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2611,11 +2616,11 @@
         <v>14</v>
       </c>
       <c r="U1" s="12"/>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="119" t="s">
         <v>89</v>
-      </c>
-      <c r="W1" s="90" t="s">
-        <v>48</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>16</v>
@@ -2687,13 +2692,13 @@
         <v>#N/A</v>
       </c>
       <c r="U2" s="12"/>
-      <c r="V2" s="92" t="str">
+      <c r="V2" s="91" t="str">
+        <f>RAWDATA!G2</f>
+        <v>attendance.ects_points</v>
+      </c>
+      <c r="W2" s="18" t="str">
         <f>RAWDATA!K2</f>
         <v>attendance.hide_grade_str</v>
-      </c>
-      <c r="W2" s="91" t="str">
-        <f>RAWDATA!G2</f>
-        <v>attendance.ects_points</v>
       </c>
       <c r="X2" s="20" t="str">
         <f>RAWDATA!L2</f>
@@ -2773,12 +2778,12 @@
         <v>KP</v>
       </c>
       <c r="U3" s="12"/>
-      <c r="V3" s="92">
+      <c r="V3" s="91">
+        <f>RAWDATA!G3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
         <f>RAWDATA!K3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="91">
-        <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
       <c r="X3" s="20">
@@ -2859,12 +2864,12 @@
         <v>KP</v>
       </c>
       <c r="U4" s="12"/>
-      <c r="V4" s="92">
+      <c r="V4" s="91">
+        <f>RAWDATA!G4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
         <f>RAWDATA!K4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="91">
-        <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
       <c r="X4" s="20">
@@ -2945,12 +2950,12 @@
         <v>KP</v>
       </c>
       <c r="U5" s="12"/>
-      <c r="V5" s="92">
+      <c r="V5" s="91">
+        <f>RAWDATA!G5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
         <f>RAWDATA!K5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="91">
-        <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
       <c r="X5" s="20">
@@ -3031,12 +3036,12 @@
         <v>KP</v>
       </c>
       <c r="U6" s="12"/>
-      <c r="V6" s="92">
+      <c r="V6" s="91">
+        <f>RAWDATA!G6</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="18">
         <f>RAWDATA!K6</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="91">
-        <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
       <c r="X6" s="20">
@@ -3117,12 +3122,12 @@
         <v>KP</v>
       </c>
       <c r="U7" s="12"/>
-      <c r="V7" s="92">
+      <c r="V7" s="91">
+        <f>RAWDATA!G7</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
         <f>RAWDATA!K7</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="91">
-        <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
       <c r="X7" s="20">
@@ -3203,12 +3208,12 @@
         <v>KP</v>
       </c>
       <c r="U8" s="12"/>
-      <c r="V8" s="92">
+      <c r="V8" s="91">
+        <f>RAWDATA!G8</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
         <f>RAWDATA!K8</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="91">
-        <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
       <c r="X8" s="20">
@@ -3289,12 +3294,12 @@
         <v>KP</v>
       </c>
       <c r="U9" s="12"/>
-      <c r="V9" s="92">
+      <c r="V9" s="91">
+        <f>RAWDATA!G9</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
         <f>RAWDATA!K9</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="91">
-        <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
       <c r="X9" s="20">
@@ -3375,12 +3380,12 @@
         <v>KP</v>
       </c>
       <c r="U10" s="12"/>
-      <c r="V10" s="92">
+      <c r="V10" s="91">
+        <f>RAWDATA!G10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="18">
         <f>RAWDATA!K10</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="91">
-        <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
       <c r="X10" s="20">
@@ -3461,12 +3466,12 @@
         <v>KP</v>
       </c>
       <c r="U11" s="12"/>
-      <c r="V11" s="92">
+      <c r="V11" s="91">
+        <f>RAWDATA!G11</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
         <f>RAWDATA!K11</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="91">
-        <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
       <c r="X11" s="20">
@@ -3547,12 +3552,12 @@
         <v>KP</v>
       </c>
       <c r="U12" s="12"/>
-      <c r="V12" s="92">
+      <c r="V12" s="91">
+        <f>RAWDATA!G12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="18">
         <f>RAWDATA!K12</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="91">
-        <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
       <c r="X12" s="20">
@@ -3633,12 +3638,12 @@
         <v>KP</v>
       </c>
       <c r="U13" s="12"/>
-      <c r="V13" s="92">
+      <c r="V13" s="91">
+        <f>RAWDATA!G13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
         <f>RAWDATA!K13</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="91">
-        <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
       <c r="X13" s="20">
@@ -3719,12 +3724,12 @@
         <v>KP</v>
       </c>
       <c r="U14" s="12"/>
-      <c r="V14" s="92">
+      <c r="V14" s="91">
+        <f>RAWDATA!G14</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="18">
         <f>RAWDATA!K14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="91">
-        <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
       <c r="X14" s="20">
@@ -3805,12 +3810,12 @@
         <v>KP</v>
       </c>
       <c r="U15" s="12"/>
-      <c r="V15" s="92">
+      <c r="V15" s="91">
+        <f>RAWDATA!G15</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="18">
         <f>RAWDATA!K15</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="91">
-        <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
       <c r="X15" s="20">
@@ -3891,12 +3896,12 @@
         <v>KP</v>
       </c>
       <c r="U16" s="12"/>
-      <c r="V16" s="92">
+      <c r="V16" s="91">
+        <f>RAWDATA!G16</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="18">
         <f>RAWDATA!K16</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="91">
-        <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
       <c r="X16" s="20">
@@ -3977,12 +3982,12 @@
         <v>KP</v>
       </c>
       <c r="U17" s="12"/>
-      <c r="V17" s="92">
+      <c r="V17" s="91">
+        <f>RAWDATA!G17</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="18">
         <f>RAWDATA!K17</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="91">
-        <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
       <c r="X17" s="20">
@@ -4063,12 +4068,12 @@
         <v>KP</v>
       </c>
       <c r="U18" s="12"/>
-      <c r="V18" s="92">
+      <c r="V18" s="91">
+        <f>RAWDATA!G18</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="18">
         <f>RAWDATA!K18</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="91">
-        <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
       <c r="X18" s="20">
@@ -4149,12 +4154,12 @@
         <v>KP</v>
       </c>
       <c r="U19" s="12"/>
-      <c r="V19" s="92">
+      <c r="V19" s="91">
+        <f>RAWDATA!G19</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="18">
         <f>RAWDATA!K19</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="91">
-        <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
       <c r="X19" s="20">
@@ -4235,12 +4240,12 @@
         <v>KP</v>
       </c>
       <c r="U20" s="12"/>
-      <c r="V20" s="92">
+      <c r="V20" s="91">
+        <f>RAWDATA!G20</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="18">
         <f>RAWDATA!K20</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="91">
-        <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
       <c r="X20" s="20">
@@ -4321,12 +4326,12 @@
         <v>KP</v>
       </c>
       <c r="U21" s="12"/>
-      <c r="V21" s="92">
+      <c r="V21" s="91">
+        <f>RAWDATA!G21</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="18">
         <f>RAWDATA!K21</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="91">
-        <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
       <c r="X21" s="20">
@@ -4407,12 +4412,12 @@
         <v>KP</v>
       </c>
       <c r="U22" s="12"/>
-      <c r="V22" s="92">
+      <c r="V22" s="91">
+        <f>RAWDATA!G22</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="18">
         <f>RAWDATA!K22</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="91">
-        <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
       <c r="X22" s="20">
@@ -4493,12 +4498,12 @@
         <v>KP</v>
       </c>
       <c r="U23" s="12"/>
-      <c r="V23" s="92">
+      <c r="V23" s="91">
+        <f>RAWDATA!G23</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="18">
         <f>RAWDATA!K23</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="91">
-        <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
       <c r="X23" s="20">
@@ -4579,12 +4584,12 @@
         <v>KP</v>
       </c>
       <c r="U24" s="12"/>
-      <c r="V24" s="92">
+      <c r="V24" s="91">
+        <f>RAWDATA!G24</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="18">
         <f>RAWDATA!K24</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="91">
-        <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
       <c r="X24" s="20">
@@ -4665,12 +4670,12 @@
         <v>KP</v>
       </c>
       <c r="U25" s="12"/>
-      <c r="V25" s="92">
+      <c r="V25" s="91">
+        <f>RAWDATA!G25</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="18">
         <f>RAWDATA!K25</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="91">
-        <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
       <c r="X25" s="20">
@@ -4734,12 +4739,12 @@
         <v>KP</v>
       </c>
       <c r="U26" s="12"/>
-      <c r="V26" s="92">
+      <c r="V26" s="91">
+        <f>RAWDATA!G26</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="18">
         <f>RAWDATA!K26</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="91">
-        <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
@@ -4803,12 +4808,12 @@
         <v>KP</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="92">
+      <c r="V27" s="91">
+        <f>RAWDATA!G27</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="18">
         <f>RAWDATA!K27</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="91">
-        <f>RAWDATA!G27</f>
         <v>0</v>
       </c>
       <c r="X27" s="20">
@@ -4872,12 +4877,12 @@
         <v>KP</v>
       </c>
       <c r="U28" s="12"/>
-      <c r="V28" s="92">
+      <c r="V28" s="91">
+        <f>RAWDATA!G28</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="18">
         <f>RAWDATA!K28</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="91">
-        <f>RAWDATA!G28</f>
         <v>0</v>
       </c>
       <c r="X28" s="20">
@@ -4941,12 +4946,12 @@
         <v>KP</v>
       </c>
       <c r="U29" s="12"/>
-      <c r="V29" s="92">
+      <c r="V29" s="91">
+        <f>RAWDATA!G29</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="18">
         <f>RAWDATA!K29</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="91">
-        <f>RAWDATA!G29</f>
         <v>0</v>
       </c>
       <c r="X29" s="20">
@@ -5010,12 +5015,12 @@
         <v>KP</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="92">
+      <c r="V30" s="91">
+        <f>RAWDATA!G30</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="18">
         <f>RAWDATA!K30</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="91">
-        <f>RAWDATA!G30</f>
         <v>0</v>
       </c>
       <c r="X30" s="20">
@@ -5079,12 +5084,12 @@
         <v>KP</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="92">
+      <c r="V31" s="91">
+        <f>RAWDATA!G31</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="18">
         <f>RAWDATA!K31</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="91">
-        <f>RAWDATA!G31</f>
         <v>0</v>
       </c>
       <c r="X31" s="20">
@@ -5148,12 +5153,12 @@
         <v>KP</v>
       </c>
       <c r="U32" s="12"/>
-      <c r="V32" s="92">
+      <c r="V32" s="91">
+        <f>RAWDATA!G32</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="18">
         <f>RAWDATA!K32</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="91">
-        <f>RAWDATA!G32</f>
         <v>0</v>
       </c>
       <c r="X32" s="20">
@@ -5217,12 +5222,12 @@
         <v>KP</v>
       </c>
       <c r="U33" s="12"/>
-      <c r="V33" s="92">
+      <c r="V33" s="91">
+        <f>RAWDATA!G33</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="18">
         <f>RAWDATA!K33</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="91">
-        <f>RAWDATA!G33</f>
         <v>0</v>
       </c>
       <c r="X33" s="20">
@@ -5286,12 +5291,12 @@
         <v>KP</v>
       </c>
       <c r="U34" s="12"/>
-      <c r="V34" s="92">
+      <c r="V34" s="91">
+        <f>RAWDATA!G34</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="18">
         <f>RAWDATA!K34</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="91">
-        <f>RAWDATA!G34</f>
         <v>0</v>
       </c>
       <c r="X34" s="20">
@@ -5355,12 +5360,12 @@
         <v>KP</v>
       </c>
       <c r="U35" s="12"/>
-      <c r="V35" s="92">
+      <c r="V35" s="91">
+        <f>RAWDATA!G35</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="18">
         <f>RAWDATA!K35</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="91">
-        <f>RAWDATA!G35</f>
         <v>0</v>
       </c>
       <c r="X35" s="20">
@@ -5441,12 +5446,12 @@
         <v>KP</v>
       </c>
       <c r="U36" s="12"/>
-      <c r="V36" s="92">
+      <c r="V36" s="91">
+        <f>RAWDATA!G36</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="18">
         <f>RAWDATA!K36</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="91">
-        <f>RAWDATA!G36</f>
         <v>0</v>
       </c>
       <c r="X36" s="20">
@@ -5607,26 +5612,26 @@
         <v>80</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="28"/>
@@ -5642,24 +5647,24 @@
         <v>59</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="28"/>
@@ -5675,24 +5680,24 @@
         <v>60</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
       <c r="W43" s="25"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="28"/>
@@ -5708,24 +5713,24 @@
         <v>61</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
       <c r="W44" s="25"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="28"/>
@@ -5741,24 +5746,24 @@
         <v>62</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="94"/>
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
       <c r="Y45" s="28"/>
@@ -5774,24 +5779,24 @@
         <v>63</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
       <c r="W46" s="15"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="28"/>
@@ -5807,24 +5812,24 @@
         <v>64</v>
       </c>
       <c r="C47" s="26"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="94"/>
+      <c r="U47" s="94"/>
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="28"/>
@@ -5840,24 +5845,24 @@
         <v>65</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="96"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="95"/>
-      <c r="U48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="94"/>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="28"/>
@@ -5957,11 +5962,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="str">
+      <c r="A1" s="96" t="str">
         <f>Notenliste!B44</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="32" t="s">
         <v>35</v>
       </c>
@@ -6115,45 +6120,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="35" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="98" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="str">
+      <c r="A2" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103" t="str">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102" t="str">
         <f>"Semster: "&amp;Notenliste!B47</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -8217,86 +8222,86 @@
       <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
     </row>
     <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
     </row>
     <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
     </row>
     <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="98"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="105"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="104"/>
       <c r="O44" s="35"/>
     </row>
   </sheetData>
@@ -8345,105 +8350,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="str">
+      <c r="A1" s="106" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="110"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="109"/>
     </row>
     <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="110"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="109"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="str">
+      <c r="A3" s="110" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="110"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="109"/>
     </row>
     <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="113" t="s">
+      <c r="A4" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="114" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="51"/>
@@ -8462,22 +8467,22 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="53"/>
-      <c r="V4" s="117" t="s">
+      <c r="V4" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="119" t="s">
+      <c r="W4" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="119" t="s">
+      <c r="X4" s="118" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="50" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="116"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="54"/>
       <c r="G5" s="52">
         <v>1</v>
@@ -8522,9 +8527,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="55"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
